--- a/tablemaker.xlsx
+++ b/tablemaker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4542A5-68B7-AB4C-8F63-01ED7C16680E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4AE1B2-FA11-2F41-B58C-5ED570190365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{2FB3896E-F88D-7047-98A3-66046D85A977}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="175">
   <si>
     <t>Indication</t>
   </si>
@@ -403,6 +403,165 @@
   </si>
   <si>
     <t>51, 78%</t>
+  </si>
+  <si>
+    <t>0 (0)</t>
+  </si>
+  <si>
+    <t>56 (47)</t>
+  </si>
+  <si>
+    <t>36 (62)</t>
+  </si>
+  <si>
+    <t>20 (33)</t>
+  </si>
+  <si>
+    <t>3 (10)</t>
+  </si>
+  <si>
+    <t>1 (14)</t>
+  </si>
+  <si>
+    <t>2 (9)</t>
+  </si>
+  <si>
+    <t>5 (38)</t>
+  </si>
+  <si>
+    <t>2 (33)</t>
+  </si>
+  <si>
+    <t>3 (43)</t>
+  </si>
+  <si>
+    <t>1 (20)</t>
+  </si>
+  <si>
+    <t>1 (50)</t>
+  </si>
+  <si>
+    <t>1 (25)</t>
+  </si>
+  <si>
+    <t>15 (83)</t>
+  </si>
+  <si>
+    <t>14 (93)</t>
+  </si>
+  <si>
+    <t>1 (33)</t>
+  </si>
+  <si>
+    <t>4 (100)</t>
+  </si>
+  <si>
+    <t>1 (100)</t>
+  </si>
+  <si>
+    <t>3 (100)</t>
+  </si>
+  <si>
+    <t>21 (75)</t>
+  </si>
+  <si>
+    <t>16 (76)</t>
+  </si>
+  <si>
+    <t>5 (71)</t>
+  </si>
+  <si>
+    <t>6 (75)</t>
+  </si>
+  <si>
+    <t>5 (83)</t>
+  </si>
+  <si>
+    <t>25 (20)</t>
+  </si>
+  <si>
+    <t>9 (15)</t>
+  </si>
+  <si>
+    <t>16 (25)</t>
+  </si>
+  <si>
+    <t>12 (40)</t>
+  </si>
+  <si>
+    <t>2 (29)</t>
+  </si>
+  <si>
+    <t>10 (43)</t>
+  </si>
+  <si>
+    <t>2 (14)</t>
+  </si>
+  <si>
+    <t>1 (17)</t>
+  </si>
+  <si>
+    <t>1 (13)</t>
+  </si>
+  <si>
+    <t>1 (5)</t>
+  </si>
+  <si>
+    <t>1 (6)</t>
+  </si>
+  <si>
+    <t>2 (7)</t>
+  </si>
+  <si>
+    <t>2 (40)</t>
+  </si>
+  <si>
+    <t>2 (67)</t>
+  </si>
+  <si>
+    <t>3 (50)</t>
+  </si>
+  <si>
+    <t>105 (83)</t>
+  </si>
+  <si>
+    <t>54 (89)</t>
+  </si>
+  <si>
+    <t>51 (78)</t>
+  </si>
+  <si>
+    <t>97 (77)</t>
+  </si>
+  <si>
+    <t>46 (75)</t>
+  </si>
+  <si>
+    <t>Pvalues_forpos</t>
+  </si>
+  <si>
+    <t>Pvalues_forterm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos Clinical P2 </t>
+  </si>
+  <si>
+    <t>Any P2</t>
+  </si>
+  <si>
+    <t>20 (45)</t>
+  </si>
+  <si>
+    <t>43 (48)</t>
+  </si>
+  <si>
+    <t>13 (45)</t>
+  </si>
+  <si>
+    <t>19 (20)</t>
+  </si>
+  <si>
+    <t>6 (19)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +623,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -752,7 +911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1558,18 +1717,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294E0594-3744-E74C-86C9-C5E21F32E816}">
-  <dimension ref="A4:AG1013"/>
+  <dimension ref="A4:AJ1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G181" workbookViewId="0">
-      <selection activeCell="R213" sqref="R213"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="C256" sqref="C256:K257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1585,11 +1744,11 @@
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -1605,11 +1764,11 @@
       <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -1625,11 +1784,11 @@
       <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>41</v>
       </c>
@@ -1645,11 +1804,11 @@
       <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -1665,11 +1824,11 @@
       <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -1685,11 +1844,11 @@
       <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -1705,11 +1864,11 @@
       <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -1725,11 +1884,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>58</v>
       </c>
@@ -1745,11 +1904,11 @@
       <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>44</v>
       </c>
@@ -1765,11 +1924,11 @@
       <c r="F13" t="s">
         <v>62</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -1785,11 +1944,11 @@
       <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>64</v>
       </c>
@@ -1805,14 +1964,14 @@
       <c r="F18" t="s">
         <v>68</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>69</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1831,14 +1990,14 @@
       <c r="F19">
         <v>90.163934426229503</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>55</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>83.3333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1857,14 +2016,14 @@
       <c r="F20">
         <v>42.622950819672099</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>37</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>56.060606060606098</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C24" t="str">
         <f>_xlfn.CONCAT(C19,", ",ROUND(D19,0), "%")</f>
         <v>110, 87%</v>
@@ -1873,12 +2032,12 @@
         <f>_xlfn.CONCAT(E19,", ",ROUND(F19,0), "%")</f>
         <v>55, 90%</v>
       </c>
-      <c r="G24" t="str">
-        <f>_xlfn.CONCAT(G19,", ",ROUND(H19,0), "%")</f>
+      <c r="H24" t="str">
+        <f>_xlfn.CONCAT(H19,", ",ROUND(I19,0), "%")</f>
         <v>55, 83%</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C25" t="str">
         <f>_xlfn.CONCAT(C20,", ",ROUND(D20,0), "%")</f>
         <v>63, 50%</v>
@@ -1887,12 +2046,12 @@
         <f>_xlfn.CONCAT(E20,", ",ROUND(F20,0), "%")</f>
         <v>26, 43%</v>
       </c>
-      <c r="G25" t="str">
-        <f>_xlfn.CONCAT(G20,", ",ROUND(H20,0), "%")</f>
+      <c r="H25" t="str">
+        <f>_xlfn.CONCAT(H20,", ",ROUND(I20,0), "%")</f>
         <v>37, 56%</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>73</v>
       </c>
@@ -1903,7 +2062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>76</v>
       </c>
@@ -1914,7 +2073,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -1927,20 +2086,20 @@
       <c r="F32" t="s">
         <v>81</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>82</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>83</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>84</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>1</v>
       </c>
@@ -1956,20 +2115,20 @@
       <c r="F33">
         <v>48.031496062992098</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>34</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>26.771653543307099</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>32</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>25.196850393700799</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>2</v>
       </c>
@@ -1985,20 +2144,20 @@
       <c r="F34">
         <v>23.3333333333333</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>13</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>43.3333333333333</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>10</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>33.3333333333333</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>3</v>
       </c>
@@ -2014,20 +2173,20 @@
       <c r="F35">
         <v>42.857142857142897</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>4</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>28.571428571428601</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>4</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>28.571428571428601</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>4</v>
       </c>
@@ -2043,20 +2202,20 @@
       <c r="F36">
         <v>50</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>50</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>5</v>
       </c>
@@ -2072,20 +2231,20 @@
       <c r="F37">
         <v>20</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>3</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>60</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
       <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>6</v>
       </c>
@@ -2101,20 +2260,20 @@
       <c r="F38">
         <v>84.210526315789494</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>3</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>15.789473684210501</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>7</v>
       </c>
@@ -2130,20 +2289,20 @@
       <c r="F39">
         <v>20</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>3</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>60</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
       <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>8</v>
       </c>
@@ -2159,20 +2318,20 @@
       <c r="F40">
         <v>75.862068965517196</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>4</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>13.7931034482759</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>3</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>10.3448275862069</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>9</v>
       </c>
@@ -2188,20 +2347,20 @@
       <c r="F41">
         <v>25</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
       <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <v>12.5</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>5</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>62.5</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>10</v>
       </c>
@@ -2217,20 +2376,20 @@
       <c r="F42">
         <v>60</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
       <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>20</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>11</v>
       </c>
@@ -2246,174 +2405,174 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>2</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>33.3333333333333</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>4</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>66.6666666666667</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E45" t="str">
         <f>_xlfn.CONCAT(E33,", ",ROUND(F33,0), "%")</f>
         <v>61, 48%</v>
       </c>
-      <c r="G45" t="str">
-        <f>_xlfn.CONCAT(G33,", ",ROUND(H33,0), "%")</f>
+      <c r="H45" t="str">
+        <f>_xlfn.CONCAT(H33,", ",ROUND(I33,0), "%")</f>
         <v>34, 27%</v>
       </c>
-      <c r="I45" t="str">
-        <f>_xlfn.CONCAT(I33,", ",ROUND(J33,0), "%")</f>
+      <c r="J45" t="str">
+        <f>_xlfn.CONCAT(J33,", ",ROUND(K33,0), "%")</f>
         <v>32, 25%</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E46" t="str">
         <f t="shared" ref="E46:E54" si="0">_xlfn.CONCAT(E34,", ",ROUND(F34,0), "%")</f>
         <v>7, 23%</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" ref="G46:G55" si="1">_xlfn.CONCAT(G34,", ",ROUND(H34,0), "%")</f>
+      <c r="H46" t="str">
+        <f t="shared" ref="H46:H55" si="1">_xlfn.CONCAT(H34,", ",ROUND(I34,0), "%")</f>
         <v>13, 43%</v>
       </c>
-      <c r="I46" t="str">
-        <f t="shared" ref="I46:I55" si="2">_xlfn.CONCAT(I34,", ",ROUND(J34,0), "%")</f>
+      <c r="J46" t="str">
+        <f t="shared" ref="J46:J55" si="2">_xlfn.CONCAT(J34,", ",ROUND(K34,0), "%")</f>
         <v>10, 33%</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E47" t="str">
         <f t="shared" si="0"/>
         <v>6, 43%</v>
       </c>
-      <c r="G47" t="str">
+      <c r="H47" t="str">
         <f t="shared" si="1"/>
         <v>4, 29%</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <f t="shared" si="2"/>
         <v>4, 29%</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E48" t="str">
         <f t="shared" si="0"/>
         <v>3, 50%</v>
       </c>
-      <c r="G48" t="str">
+      <c r="H48" t="str">
         <f t="shared" si="1"/>
         <v>3, 50%</v>
       </c>
-      <c r="I48" t="str">
+      <c r="J48" t="str">
         <f t="shared" si="2"/>
         <v>0, 0%</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E49" t="str">
         <f t="shared" si="0"/>
         <v>1, 20%</v>
       </c>
-      <c r="G49" t="str">
+      <c r="H49" t="str">
         <f t="shared" si="1"/>
         <v>3, 60%</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <f t="shared" si="2"/>
         <v>1, 20%</v>
       </c>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E50" t="str">
         <f t="shared" si="0"/>
         <v>16, 84%</v>
       </c>
-      <c r="G50" t="str">
+      <c r="H50" t="str">
         <f t="shared" si="1"/>
         <v>0, 0%</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <f t="shared" si="2"/>
         <v>3, 16%</v>
       </c>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E51" t="str">
         <f t="shared" si="0"/>
         <v>1, 20%</v>
       </c>
-      <c r="G51" t="str">
+      <c r="H51" t="str">
         <f t="shared" si="1"/>
         <v>3, 60%</v>
       </c>
-      <c r="I51" t="str">
+      <c r="J51" t="str">
         <f t="shared" si="2"/>
         <v>1, 20%</v>
       </c>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E52" t="str">
         <f t="shared" si="0"/>
         <v>22, 76%</v>
       </c>
-      <c r="G52" t="str">
+      <c r="H52" t="str">
         <f t="shared" si="1"/>
         <v>4, 14%</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <f t="shared" si="2"/>
         <v>3, 10%</v>
       </c>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E53" t="str">
         <f t="shared" si="0"/>
         <v>2, 25%</v>
       </c>
-      <c r="G53" t="str">
+      <c r="H53" t="str">
         <f t="shared" si="1"/>
         <v>1, 13%</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J53" t="str">
         <f t="shared" si="2"/>
         <v>5, 63%</v>
       </c>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E54" t="str">
         <f t="shared" si="0"/>
         <v>3, 60%</v>
       </c>
-      <c r="G54" t="str">
+      <c r="H54" t="str">
         <f t="shared" si="1"/>
         <v>1, 20%</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <f t="shared" si="2"/>
         <v>1, 20%</v>
       </c>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E55" t="str">
         <f>_xlfn.CONCAT(E43,", ",ROUND(F43,0), "%")</f>
         <v>0, 0%</v>
       </c>
-      <c r="G55" t="str">
+      <c r="H55" t="str">
         <f t="shared" si="1"/>
         <v>2, 33%</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <f t="shared" si="2"/>
         <v>4, 67%</v>
       </c>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D59">
         <v>127</v>
       </c>
@@ -2423,11 +2582,11 @@
       <c r="F59" t="s">
         <v>90</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60">
         <v>30</v>
       </c>
@@ -2437,11 +2596,11 @@
       <c r="F60" t="s">
         <v>93</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61">
         <v>14</v>
       </c>
@@ -2451,11 +2610,11 @@
       <c r="F61" t="s">
         <v>96</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D62">
         <v>6</v>
       </c>
@@ -2465,11 +2624,11 @@
       <c r="F62" t="s">
         <v>63</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D63">
         <v>5</v>
       </c>
@@ -2479,11 +2638,11 @@
       <c r="F63" t="s">
         <v>97</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D64">
         <v>19</v>
       </c>
@@ -2493,11 +2652,11 @@
       <c r="F64" t="s">
         <v>44</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D65">
         <v>5</v>
       </c>
@@ -2507,11 +2666,11 @@
       <c r="F65" t="s">
         <v>97</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D66">
         <v>29</v>
       </c>
@@ -2521,11 +2680,11 @@
       <c r="F66" t="s">
         <v>101</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D67">
         <v>8</v>
       </c>
@@ -2535,11 +2694,11 @@
       <c r="F67" t="s">
         <v>42</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D68">
         <v>5</v>
       </c>
@@ -2549,11 +2708,11 @@
       <c r="F68" t="s">
         <v>45</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D69">
         <v>6</v>
       </c>
@@ -2563,11 +2722,11 @@
       <c r="F69" t="s">
         <v>38</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>1</v>
       </c>
@@ -2583,17 +2742,17 @@
       <c r="F75">
         <v>55</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>90.163934426229503</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>55</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>83.3333333333333</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>2</v>
       </c>
@@ -2609,31 +2768,31 @@
       <c r="F76">
         <v>46</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>75.409836065573799</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>52</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>78.787878787878796</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D78" t="str">
         <f>_xlfn.CONCAT(D76,", ",ROUND(E76,0), "%")</f>
         <v>98, 77%</v>
       </c>
       <c r="F78" t="str">
-        <f>_xlfn.CONCAT(F76,", ",ROUND(G76,0), "%")</f>
+        <f>_xlfn.CONCAT(F76,", ",ROUND(H76,0), "%")</f>
         <v>46, 75%</v>
       </c>
-      <c r="H78" t="str">
-        <f>_xlfn.CONCAT(H76,", ",ROUND(I76,0), "%")</f>
+      <c r="I78" t="str">
+        <f>_xlfn.CONCAT(I76,", ",ROUND(J76,0), "%")</f>
         <v>52, 79%</v>
       </c>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>105</v>
       </c>
@@ -2643,376 +2802,373 @@
       <c r="F81" t="s">
         <v>107</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="1">
+      <c r="I86" s="1">
         <v>2.0891775438131701E-3</v>
       </c>
-      <c r="I86" s="1">
+      <c r="J86" s="1">
         <v>0.26261892482903798</v>
       </c>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F87">
         <v>2</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="1">
-        <v>1</v>
-      </c>
       <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1">
         <v>0.79151773533647396</v>
       </c>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F88">
         <v>3</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="1">
-        <v>1</v>
-      </c>
       <c r="I88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F89">
         <v>4</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="1">
-        <v>1</v>
-      </c>
       <c r="I89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F90">
         <v>5</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>17</v>
       </c>
-      <c r="H90" s="1">
-        <v>1</v>
-      </c>
       <c r="I90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F91">
         <v>6</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>18</v>
       </c>
-      <c r="H91" s="1">
+      <c r="I91" s="1">
         <v>0.18018545975265299</v>
       </c>
-      <c r="I91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F92">
         <v>7</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>19</v>
       </c>
-      <c r="H92" s="1">
-        <v>1</v>
-      </c>
-      <c r="I92" s="1" t="s">
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F93">
         <v>8</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>20</v>
       </c>
-      <c r="H93" s="1">
-        <v>1</v>
-      </c>
       <c r="I93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F94">
         <v>9</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>21</v>
       </c>
-      <c r="H94" s="1">
-        <v>1</v>
-      </c>
       <c r="I94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F95">
         <v>10</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>22</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I95" s="1">
+      <c r="J95" s="1">
         <v>0.57615012203057903</v>
       </c>
     </row>
-    <row r="101" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="H101" t="s">
-        <v>0</v>
-      </c>
+    <row r="101" spans="8:18" x14ac:dyDescent="0.2">
       <c r="I101" t="s">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
         <v>79</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>80</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>81</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>108</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>109</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>110</v>
       </c>
-      <c r="O101" t="s">
+      <c r="P101" t="s">
         <v>111</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>84</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="R101" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102" t="s">
+    <row r="102" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
         <v>86</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>127</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>61</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>48.031496062992098</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>17</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>13.3858267716535</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>17</v>
       </c>
-      <c r="O102">
+      <c r="P102">
         <v>13.3858267716535</v>
       </c>
-      <c r="P102">
+      <c r="Q102">
         <v>32</v>
       </c>
-      <c r="Q102">
+      <c r="R102">
         <v>25.196850393700799</v>
       </c>
     </row>
-    <row r="103" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G103">
+    <row r="103" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H103">
         <v>2</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>14</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>30</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>7</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>23.3333333333333</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>7</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <v>23.3333333333333</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>6</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>20</v>
       </c>
-      <c r="P103">
+      <c r="Q103">
         <v>16</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <v>53.3333333333333</v>
       </c>
     </row>
-    <row r="104" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G104">
+    <row r="104" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H104">
         <v>3</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>15</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>14</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>6</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>42.857142857142897</v>
       </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
       <c r="M104">
         <v>0</v>
       </c>
       <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
         <v>4</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <v>28.571428571428601</v>
       </c>
-      <c r="P104">
+      <c r="Q104">
         <v>8</v>
       </c>
-      <c r="Q104">
+      <c r="R104">
         <v>57.142857142857103</v>
       </c>
     </row>
-    <row r="105" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G105">
+    <row r="105" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H105">
         <v>4</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>16</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>6</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>3</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>50</v>
       </c>
-      <c r="L105">
-        <v>1</v>
-      </c>
       <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
         <v>16.6666666666667</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>2</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <v>33.3333333333333</v>
       </c>
-      <c r="P105">
+      <c r="Q105">
         <v>2</v>
       </c>
-      <c r="Q105">
+      <c r="R105">
         <v>33.3333333333333</v>
       </c>
     </row>
-    <row r="106" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G106">
+    <row r="106" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H106">
         <v>5</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>17</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>5</v>
       </c>
-      <c r="J106">
-        <v>1</v>
-      </c>
       <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
         <v>20</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>2</v>
       </c>
-      <c r="M106">
+      <c r="N106">
         <v>40</v>
       </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
       <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
         <v>20</v>
       </c>
-      <c r="P106">
+      <c r="Q106">
         <v>2</v>
       </c>
-      <c r="Q106">
+      <c r="R106">
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G107">
+    <row r="107" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H107">
         <v>6</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>18</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>19</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>16</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>84.210526315789494</v>
       </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
       <c r="M107">
         <v>0</v>
       </c>
@@ -3023,352 +3179,355 @@
         <v>0</v>
       </c>
       <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
         <v>3</v>
       </c>
-      <c r="Q107">
+      <c r="R107">
         <v>15.789473684210501</v>
       </c>
     </row>
-    <row r="108" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G108">
+    <row r="108" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H108">
         <v>7</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>88</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>5</v>
       </c>
-      <c r="J108">
-        <v>1</v>
-      </c>
       <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
         <v>20</v>
       </c>
-      <c r="L108">
-        <v>1</v>
-      </c>
       <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
         <v>20</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>2</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>40</v>
       </c>
-      <c r="P108">
+      <c r="Q108">
         <v>3</v>
       </c>
-      <c r="Q108">
+      <c r="R108">
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G109">
+    <row r="109" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H109">
         <v>8</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>20</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>29</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>22</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>75.862068965517196</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>4</v>
       </c>
-      <c r="M109">
+      <c r="N109">
         <v>13.7931034482759</v>
       </c>
-      <c r="N109">
-        <v>0</v>
-      </c>
       <c r="O109">
         <v>0</v>
       </c>
       <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
         <v>3</v>
       </c>
-      <c r="Q109">
+      <c r="R109">
         <v>10.3448275862069</v>
       </c>
     </row>
-    <row r="110" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G110">
+    <row r="110" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H110">
         <v>9</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>21</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>8</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>2</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>25</v>
       </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
       <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
         <v>12.5</v>
       </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
       <c r="O110">
         <v>0</v>
       </c>
       <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
         <v>5</v>
       </c>
-      <c r="Q110">
+      <c r="R110">
         <v>62.5</v>
       </c>
     </row>
-    <row r="111" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G111">
+    <row r="111" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H111">
         <v>10</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>22</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>5</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>3</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>60</v>
       </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
         <v>20</v>
       </c>
-      <c r="P111">
+      <c r="Q111">
         <v>2</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G112">
+    <row r="112" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H112">
         <v>11</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>23</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>6</v>
       </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
       <c r="K112">
         <v>0</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
         <v>16.6666666666667</v>
       </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
       <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
         <v>16.6666666666667</v>
       </c>
-      <c r="P112">
+      <c r="Q112">
         <v>5</v>
       </c>
-      <c r="Q112">
+      <c r="R112">
         <v>83.3333333333333</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L116" t="str">
-        <f>_xlfn.CONCAT(L102,", ",ROUND(M102,0), "%")</f>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M116" t="str">
+        <f>_xlfn.CONCAT(M102,", ",ROUND(N102,0), "%")</f>
         <v>17, 13%</v>
       </c>
-      <c r="N116" t="str">
-        <f>_xlfn.CONCAT(N102,", ",ROUND(O102,0), "%")</f>
+      <c r="O116" t="str">
+        <f>_xlfn.CONCAT(O102,", ",ROUND(P102,0), "%")</f>
         <v>17, 13%</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="K117" t="str">
-        <f t="shared" ref="K117:M125" si="3">_xlfn.CONCAT(L103,", ",ROUND(M103,0), "%")</f>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L117" t="str">
+        <f t="shared" ref="L117:N125" si="3">_xlfn.CONCAT(M103,", ",ROUND(N103,0), "%")</f>
         <v>7, 23%</v>
       </c>
-      <c r="M117" t="str">
+      <c r="N117" t="str">
         <f t="shared" si="3"/>
         <v>6, 20%</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>112</v>
       </c>
       <c r="C118" t="s">
         <v>112</v>
       </c>
-      <c r="K118" t="str">
+      <c r="L118" t="str">
         <f t="shared" si="3"/>
         <v>0, 0%</v>
       </c>
-      <c r="M118" t="str">
+      <c r="N118" t="str">
         <f t="shared" si="3"/>
         <v>4, 29%</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>92</v>
       </c>
       <c r="C119" t="s">
         <v>113</v>
       </c>
-      <c r="K119" t="str">
+      <c r="L119" t="str">
         <f t="shared" si="3"/>
         <v>1, 17%</v>
       </c>
-      <c r="M119" t="str">
+      <c r="N119" t="str">
         <f t="shared" si="3"/>
         <v>2, 33%</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>44</v>
       </c>
       <c r="C120" t="s">
         <v>96</v>
       </c>
-      <c r="K120" t="str">
+      <c r="L120" t="str">
         <f t="shared" si="3"/>
         <v>2, 40%</v>
       </c>
-      <c r="M120" t="str">
+      <c r="N120" t="str">
         <f t="shared" si="3"/>
         <v>1, 20%</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>41</v>
       </c>
       <c r="C121" t="s">
         <v>38</v>
       </c>
-      <c r="K121" t="str">
+      <c r="L121" t="str">
         <f t="shared" si="3"/>
         <v>0, 0%</v>
       </c>
-      <c r="M121" t="str">
+      <c r="N121" t="str">
         <f t="shared" si="3"/>
         <v>0, 0%</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>61</v>
       </c>
       <c r="C122" t="s">
         <v>45</v>
       </c>
-      <c r="K122" t="str">
+      <c r="L122" t="str">
         <f t="shared" si="3"/>
         <v>1, 20%</v>
       </c>
-      <c r="M122" t="str">
+      <c r="N122" t="str">
         <f t="shared" si="3"/>
         <v>2, 40%</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>44</v>
       </c>
       <c r="C123" t="s">
         <v>44</v>
       </c>
-      <c r="K123" t="str">
+      <c r="L123" t="str">
         <f t="shared" si="3"/>
         <v>4, 14%</v>
       </c>
-      <c r="M123" t="str">
+      <c r="N123" t="str">
         <f t="shared" si="3"/>
         <v>0, 0%</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>45</v>
       </c>
       <c r="C124" t="s">
         <v>61</v>
       </c>
-      <c r="K124" t="str">
+      <c r="L124" t="str">
         <f t="shared" si="3"/>
         <v>1, 13%</v>
       </c>
-      <c r="M124" t="str">
+      <c r="N124" t="str">
         <f t="shared" si="3"/>
         <v>0, 0%</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>101</v>
       </c>
       <c r="C125" t="s">
         <v>44</v>
       </c>
-      <c r="K125" t="str">
+      <c r="L125" t="str">
         <f t="shared" si="3"/>
         <v>0, 0%</v>
       </c>
-      <c r="M125" t="str">
+      <c r="N125" t="str">
         <f t="shared" si="3"/>
         <v>1, 20%</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>42</v>
       </c>
       <c r="C126" t="s">
         <v>44</v>
       </c>
-      <c r="K126" t="str">
-        <f>_xlfn.CONCAT(L112,", ",ROUND(M112,0), "%")</f>
+      <c r="L126" t="str">
+        <f>_xlfn.CONCAT(M112,", ",ROUND(N112,0), "%")</f>
         <v>1, 17%</v>
       </c>
-      <c r="M126" t="str">
-        <f>_xlfn.CONCAT(N112,", ",ROUND(O112,0), "%")</f>
+      <c r="N126" t="str">
+        <f>_xlfn.CONCAT(O112,", ",ROUND(P112,0), "%")</f>
         <v>1, 17%</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>44</v>
       </c>
@@ -3376,7 +3535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>41</v>
       </c>
@@ -3384,232 +3543,229 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="H131" t="s">
-        <v>0</v>
-      </c>
+    <row r="131" spans="8:18" x14ac:dyDescent="0.2">
       <c r="I131" t="s">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
         <v>79</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>80</v>
       </c>
-      <c r="K131" t="s">
+      <c r="L131" t="s">
         <v>81</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>108</v>
       </c>
-      <c r="M131" t="s">
+      <c r="N131" t="s">
         <v>109</v>
       </c>
-      <c r="N131" t="s">
+      <c r="O131" t="s">
         <v>110</v>
       </c>
-      <c r="O131" t="s">
+      <c r="P131" t="s">
         <v>111</v>
       </c>
-      <c r="P131" t="s">
+      <c r="Q131" t="s">
         <v>84</v>
       </c>
-      <c r="Q131" t="s">
+      <c r="R131" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="132" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132" t="s">
+    <row r="132" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
         <v>86</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>127</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>61</v>
       </c>
-      <c r="K132">
+      <c r="L132">
         <v>48.031496062992098</v>
       </c>
-      <c r="L132">
+      <c r="M132">
         <v>17</v>
       </c>
-      <c r="M132">
+      <c r="N132">
         <v>13.3858267716535</v>
       </c>
-      <c r="N132">
+      <c r="O132">
         <v>17</v>
       </c>
-      <c r="O132">
+      <c r="P132">
         <v>13.3858267716535</v>
       </c>
-      <c r="P132">
+      <c r="Q132">
         <v>32</v>
       </c>
-      <c r="Q132">
+      <c r="R132">
         <v>25.196850393700799</v>
       </c>
     </row>
-    <row r="133" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G133">
+    <row r="133" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H133">
         <v>2</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>14</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>30</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>7</v>
       </c>
-      <c r="K133">
+      <c r="L133">
         <v>23.3333333333333</v>
       </c>
-      <c r="L133">
+      <c r="M133">
         <v>7</v>
       </c>
-      <c r="M133">
+      <c r="N133">
         <v>23.3333333333333</v>
       </c>
-      <c r="N133">
+      <c r="O133">
         <v>6</v>
       </c>
-      <c r="O133">
+      <c r="P133">
         <v>20</v>
       </c>
-      <c r="P133">
+      <c r="Q133">
         <v>10</v>
       </c>
-      <c r="Q133">
+      <c r="R133">
         <v>33.3333333333333</v>
       </c>
     </row>
-    <row r="134" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G134">
+    <row r="134" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H134">
         <v>3</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>15</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>14</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>6</v>
       </c>
-      <c r="K134">
+      <c r="L134">
         <v>42.857142857142897</v>
       </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
       <c r="M134">
         <v>0</v>
       </c>
       <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
         <v>4</v>
       </c>
-      <c r="O134">
+      <c r="P134">
         <v>28.571428571428601</v>
       </c>
-      <c r="P134">
+      <c r="Q134">
         <v>4</v>
       </c>
-      <c r="Q134">
+      <c r="R134">
         <v>28.571428571428601</v>
       </c>
     </row>
-    <row r="135" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G135">
+    <row r="135" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H135">
         <v>4</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>16</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>6</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>3</v>
       </c>
-      <c r="K135">
+      <c r="L135">
         <v>50</v>
       </c>
-      <c r="L135">
-        <v>1</v>
-      </c>
       <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
         <v>16.6666666666667</v>
       </c>
-      <c r="N135">
+      <c r="O135">
         <v>2</v>
       </c>
-      <c r="O135">
+      <c r="P135">
         <v>33.3333333333333</v>
       </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
       <c r="Q135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G136">
+      <c r="R135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H136">
         <v>5</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>17</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>5</v>
       </c>
-      <c r="J136">
-        <v>1</v>
-      </c>
       <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
         <v>20</v>
       </c>
-      <c r="L136">
+      <c r="M136">
         <v>2</v>
       </c>
-      <c r="M136">
+      <c r="N136">
         <v>40</v>
       </c>
-      <c r="N136">
-        <v>1</v>
-      </c>
       <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136">
         <v>20</v>
       </c>
-      <c r="P136">
-        <v>1</v>
-      </c>
       <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136">
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G137">
+    <row r="137" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H137">
         <v>6</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>18</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>19</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>16</v>
       </c>
-      <c r="K137">
+      <c r="L137">
         <v>84.210526315789494</v>
       </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
       <c r="M137">
         <v>0</v>
       </c>
@@ -3620,214 +3776,217 @@
         <v>0</v>
       </c>
       <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
         <v>3</v>
       </c>
-      <c r="Q137">
+      <c r="R137">
         <v>15.789473684210501</v>
       </c>
     </row>
-    <row r="138" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G138">
+    <row r="138" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H138">
         <v>7</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>88</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>5</v>
       </c>
-      <c r="J138">
-        <v>1</v>
-      </c>
       <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
         <v>20</v>
       </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
       <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
         <v>20</v>
       </c>
-      <c r="N138">
+      <c r="O138">
         <v>2</v>
       </c>
-      <c r="O138">
+      <c r="P138">
         <v>40</v>
       </c>
-      <c r="P138">
-        <v>1</v>
-      </c>
       <c r="Q138">
+        <v>1</v>
+      </c>
+      <c r="R138">
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G139">
+    <row r="139" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H139">
         <v>8</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>20</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>29</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>22</v>
       </c>
-      <c r="K139">
+      <c r="L139">
         <v>75.862068965517196</v>
       </c>
-      <c r="L139">
+      <c r="M139">
         <v>4</v>
       </c>
-      <c r="M139">
+      <c r="N139">
         <v>13.7931034482759</v>
       </c>
-      <c r="N139">
-        <v>0</v>
-      </c>
       <c r="O139">
         <v>0</v>
       </c>
       <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
         <v>3</v>
       </c>
-      <c r="Q139">
+      <c r="R139">
         <v>10.3448275862069</v>
       </c>
     </row>
-    <row r="140" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G140">
+    <row r="140" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H140">
         <v>9</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>21</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>8</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>2</v>
       </c>
-      <c r="K140">
+      <c r="L140">
         <v>25</v>
       </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
       <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
         <v>12.5</v>
       </c>
-      <c r="N140">
-        <v>0</v>
-      </c>
       <c r="O140">
         <v>0</v>
       </c>
       <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
         <v>5</v>
       </c>
-      <c r="Q140">
+      <c r="R140">
         <v>62.5</v>
       </c>
     </row>
-    <row r="141" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G141">
+    <row r="141" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H141">
         <v>10</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>22</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>5</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>3</v>
       </c>
-      <c r="K141">
+      <c r="L141">
         <v>60</v>
       </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
       <c r="M141">
         <v>0</v>
       </c>
       <c r="N141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141">
         <v>20</v>
       </c>
-      <c r="P141">
-        <v>1</v>
-      </c>
       <c r="Q141">
+        <v>1</v>
+      </c>
+      <c r="R141">
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G142">
+    <row r="142" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H142">
         <v>11</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>23</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>6</v>
       </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
       <c r="K142">
         <v>0</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
         <v>16.6666666666667</v>
       </c>
-      <c r="N142">
-        <v>1</v>
-      </c>
       <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142">
         <v>16.6666666666667</v>
       </c>
-      <c r="P142">
+      <c r="Q142">
         <v>4</v>
       </c>
-      <c r="Q142">
+      <c r="R142">
         <v>66.6666666666667</v>
       </c>
     </row>
-    <row r="144" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="L144" t="str">
-        <f>_xlfn.CONCAT(L132,", ",ROUND(M132,0), "%")</f>
+    <row r="144" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="M144" t="str">
+        <f>_xlfn.CONCAT(M132,", ",ROUND(N132,0), "%")</f>
         <v>17, 13%</v>
       </c>
-      <c r="M144" t="s">
+      <c r="N144" t="s">
         <v>112</v>
       </c>
-      <c r="N144" t="str">
-        <f>_xlfn.CONCAT(N132,", ",ROUND(O132,0), "%")</f>
+      <c r="O144" t="str">
+        <f>_xlfn.CONCAT(O132,", ",ROUND(P132,0), "%")</f>
         <v>17, 13%</v>
       </c>
     </row>
-    <row r="145" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="L145" t="str">
-        <f t="shared" ref="L145" si="4">_xlfn.CONCAT(L133,", ",ROUND(M133,0), "%")</f>
+    <row r="145" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="M145" t="str">
+        <f t="shared" ref="M145" si="4">_xlfn.CONCAT(M133,", ",ROUND(N133,0), "%")</f>
         <v>7, 23%</v>
       </c>
-      <c r="M145" t="s">
+      <c r="N145" t="s">
         <v>113</v>
       </c>
-      <c r="N145" t="str">
-        <f t="shared" ref="N145" si="5">_xlfn.CONCAT(N133,", ",ROUND(O133,0), "%")</f>
+      <c r="O145" t="str">
+        <f t="shared" ref="O145" si="5">_xlfn.CONCAT(O133,", ",ROUND(P133,0), "%")</f>
         <v>6, 20%</v>
       </c>
     </row>
-    <row r="146" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>0</v>
       </c>
@@ -3841,7 +4000,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="147" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B147">
         <v>1</v>
       </c>
@@ -3855,7 +4014,7 @@
         <v>0.26261892482903798</v>
       </c>
     </row>
-    <row r="148" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B148">
         <v>2</v>
       </c>
@@ -3869,7 +4028,7 @@
         <v>0.79151773533647396</v>
       </c>
     </row>
-    <row r="149" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B149">
         <v>3</v>
       </c>
@@ -3883,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B150">
         <v>4</v>
       </c>
@@ -3897,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B151">
         <v>5</v>
       </c>
@@ -3911,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B152">
         <v>6</v>
       </c>
@@ -3924,47 +4083,47 @@
       <c r="E152">
         <v>1</v>
       </c>
-      <c r="J152" t="s">
-        <v>0</v>
-      </c>
       <c r="K152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L152" t="s">
+        <v>1</v>
+      </c>
+      <c r="M152" t="s">
         <v>2</v>
       </c>
-      <c r="M152" t="s">
+      <c r="N152" t="s">
         <v>3</v>
       </c>
-      <c r="N152" t="s">
+      <c r="O152" t="s">
         <v>4</v>
       </c>
-      <c r="O152" t="s">
+      <c r="P152" t="s">
         <v>5</v>
       </c>
-      <c r="P152" t="s">
+      <c r="Q152" t="s">
         <v>6</v>
       </c>
-      <c r="Q152" t="s">
+      <c r="R152" t="s">
         <v>7</v>
       </c>
-      <c r="R152" t="s">
+      <c r="S152" t="s">
         <v>8</v>
       </c>
-      <c r="S152" t="s">
+      <c r="T152" t="s">
         <v>9</v>
       </c>
-      <c r="T152" t="s">
+      <c r="U152" t="s">
         <v>10</v>
       </c>
-      <c r="U152" t="s">
+      <c r="V152" t="s">
         <v>11</v>
       </c>
-      <c r="V152" t="s">
+      <c r="W152" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B153">
         <v>7</v>
       </c>
@@ -3977,50 +4136,50 @@
       <c r="E153" t="s">
         <v>24</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-      <c r="J153" t="s">
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153" t="s">
         <v>13</v>
       </c>
-      <c r="K153">
+      <c r="L153">
         <v>56</v>
       </c>
-      <c r="L153">
+      <c r="M153">
         <v>47.058823529411796</v>
       </c>
-      <c r="M153">
+      <c r="N153">
         <v>36</v>
       </c>
-      <c r="N153">
+      <c r="O153">
         <v>62.068965517241402</v>
       </c>
-      <c r="O153">
+      <c r="P153">
         <v>20</v>
       </c>
-      <c r="P153">
+      <c r="Q153">
         <v>32.786885245901601</v>
       </c>
-      <c r="Q153">
+      <c r="R153">
         <v>25</v>
       </c>
-      <c r="R153">
+      <c r="S153">
         <v>19.841269841269799</v>
       </c>
-      <c r="S153">
+      <c r="T153">
         <v>7</v>
       </c>
-      <c r="T153">
+      <c r="U153">
         <v>12.0689655172414</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>16</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>26.229508196721302</v>
       </c>
     </row>
-    <row r="154" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B154">
         <v>8</v>
       </c>
@@ -4033,50 +4192,50 @@
       <c r="E154">
         <v>1</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>2</v>
       </c>
-      <c r="J154" t="s">
+      <c r="K154" t="s">
         <v>14</v>
       </c>
-      <c r="K154">
+      <c r="L154">
         <v>3</v>
       </c>
-      <c r="L154">
+      <c r="M154">
         <v>10.3448275862069</v>
       </c>
-      <c r="M154">
-        <v>1</v>
-      </c>
       <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154">
         <v>14.285714285714301</v>
       </c>
-      <c r="O154">
+      <c r="P154">
         <v>2</v>
       </c>
-      <c r="P154">
+      <c r="Q154">
         <v>9.0909090909090899</v>
       </c>
-      <c r="Q154">
+      <c r="R154">
         <v>12</v>
       </c>
-      <c r="R154">
+      <c r="S154">
         <v>40</v>
       </c>
-      <c r="S154">
+      <c r="T154">
         <v>2</v>
       </c>
-      <c r="T154">
+      <c r="U154">
         <v>28.571428571428601</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>10</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>45.454545454545503</v>
       </c>
     </row>
-    <row r="155" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B155">
         <v>9</v>
       </c>
@@ -4089,50 +4248,50 @@
       <c r="E155">
         <v>1</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>3</v>
       </c>
-      <c r="J155" t="s">
+      <c r="K155" t="s">
         <v>15</v>
       </c>
-      <c r="K155">
+      <c r="L155">
         <v>5</v>
       </c>
-      <c r="L155">
+      <c r="M155">
         <v>38.461538461538503</v>
       </c>
-      <c r="M155">
+      <c r="N155">
         <v>2</v>
       </c>
-      <c r="N155">
+      <c r="O155">
         <v>33.3333333333333</v>
       </c>
-      <c r="O155">
+      <c r="P155">
         <v>3</v>
       </c>
-      <c r="P155">
+      <c r="Q155">
         <v>42.857142857142897</v>
       </c>
-      <c r="Q155">
+      <c r="R155">
         <v>2</v>
       </c>
-      <c r="R155">
+      <c r="S155">
         <v>14.285714285714301</v>
       </c>
-      <c r="S155">
-        <v>1</v>
-      </c>
       <c r="T155">
+        <v>1</v>
+      </c>
+      <c r="U155">
         <v>16.6666666666667</v>
       </c>
-      <c r="U155">
-        <v>1</v>
-      </c>
       <c r="V155">
+        <v>1</v>
+      </c>
+      <c r="W155">
         <v>14.285714285714301</v>
       </c>
     </row>
-    <row r="156" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B156">
         <v>10</v>
       </c>
@@ -4145,39 +4304,36 @@
       <c r="E156">
         <v>0.57615012203057903</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>4</v>
       </c>
-      <c r="J156" t="s">
+      <c r="K156" t="s">
         <v>16</v>
       </c>
-      <c r="K156">
-        <v>1</v>
-      </c>
       <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
         <v>20</v>
       </c>
-      <c r="M156">
-        <v>1</v>
-      </c>
       <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156">
         <v>50</v>
       </c>
-      <c r="O156">
-        <v>0</v>
-      </c>
       <c r="P156">
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R156">
+        <v>1</v>
+      </c>
+      <c r="S156">
         <v>16.6666666666667</v>
       </c>
-      <c r="S156">
-        <v>0</v>
-      </c>
       <c r="T156">
         <v>0</v>
       </c>
@@ -4187,85 +4343,85 @@
       <c r="V156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I157">
+      <c r="W156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="J157">
         <v>5</v>
       </c>
-      <c r="J157" t="s">
+      <c r="K157" t="s">
         <v>17</v>
       </c>
-      <c r="K157">
-        <v>1</v>
-      </c>
       <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
         <v>20</v>
       </c>
-      <c r="M157">
-        <v>0</v>
-      </c>
       <c r="N157">
         <v>0</v>
       </c>
       <c r="O157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P157">
+        <v>1</v>
+      </c>
+      <c r="Q157">
         <v>25</v>
       </c>
-      <c r="Q157">
-        <v>1</v>
-      </c>
       <c r="R157">
+        <v>1</v>
+      </c>
+      <c r="S157">
         <v>20</v>
       </c>
-      <c r="S157">
-        <v>0</v>
-      </c>
       <c r="T157">
         <v>0</v>
       </c>
       <c r="U157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V157">
+        <v>1</v>
+      </c>
+      <c r="W157">
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I158">
+    <row r="158" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="J158">
         <v>6</v>
       </c>
-      <c r="J158" t="s">
+      <c r="K158" t="s">
         <v>18</v>
       </c>
-      <c r="K158">
+      <c r="L158">
         <v>15</v>
       </c>
-      <c r="L158">
+      <c r="M158">
         <v>83.3333333333333</v>
       </c>
-      <c r="M158">
+      <c r="N158">
         <v>14</v>
       </c>
-      <c r="N158">
+      <c r="O158">
         <v>93.3333333333333</v>
       </c>
-      <c r="O158">
-        <v>1</v>
-      </c>
       <c r="P158">
+        <v>1</v>
+      </c>
+      <c r="Q158">
         <v>33.3333333333333</v>
       </c>
-      <c r="Q158">
-        <v>1</v>
-      </c>
       <c r="R158">
+        <v>1</v>
+      </c>
+      <c r="S158">
         <v>5.2631578947368398</v>
       </c>
-      <c r="S158">
-        <v>0</v>
-      </c>
       <c r="T158">
         <v>0</v>
       </c>
@@ -4275,35 +4431,35 @@
       <c r="V158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I159">
+      <c r="W158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="J159">
         <v>7</v>
       </c>
-      <c r="J159" t="s">
+      <c r="K159" t="s">
         <v>19</v>
       </c>
-      <c r="K159">
+      <c r="L159">
         <v>4</v>
       </c>
-      <c r="L159">
+      <c r="M159">
         <v>100</v>
       </c>
-      <c r="M159">
-        <v>1</v>
-      </c>
       <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159">
         <v>100</v>
       </c>
-      <c r="O159">
+      <c r="P159">
         <v>3</v>
       </c>
-      <c r="P159">
+      <c r="Q159">
         <v>100</v>
       </c>
-      <c r="Q159">
-        <v>0</v>
-      </c>
       <c r="R159">
         <v>0</v>
       </c>
@@ -4319,105 +4475,105 @@
       <c r="V159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I160">
+      <c r="W159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="J160">
         <v>8</v>
       </c>
-      <c r="J160" t="s">
+      <c r="K160" t="s">
         <v>20</v>
       </c>
-      <c r="K160">
+      <c r="L160">
         <v>21</v>
       </c>
-      <c r="L160">
+      <c r="M160">
         <v>75</v>
       </c>
-      <c r="M160">
+      <c r="N160">
         <v>16</v>
       </c>
-      <c r="N160">
+      <c r="O160">
         <v>76.190476190476204</v>
       </c>
-      <c r="O160">
+      <c r="P160">
         <v>5</v>
       </c>
-      <c r="P160">
+      <c r="Q160">
         <v>71.428571428571402</v>
       </c>
-      <c r="Q160">
+      <c r="R160">
         <v>2</v>
       </c>
-      <c r="R160">
+      <c r="S160">
         <v>6.8965517241379297</v>
       </c>
-      <c r="S160">
+      <c r="T160">
         <v>2</v>
       </c>
-      <c r="T160">
+      <c r="U160">
         <v>9.5238095238095202</v>
       </c>
-      <c r="U160">
-        <v>0</v>
-      </c>
       <c r="V160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="I161">
+      <c r="W160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="J161">
         <v>9</v>
       </c>
-      <c r="J161" t="s">
+      <c r="K161" t="s">
         <v>21</v>
       </c>
-      <c r="K161">
+      <c r="L161">
         <v>6</v>
       </c>
-      <c r="L161">
+      <c r="M161">
         <v>75</v>
       </c>
-      <c r="M161">
-        <v>1</v>
-      </c>
       <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161">
         <v>50</v>
       </c>
-      <c r="O161">
+      <c r="P161">
         <v>5</v>
       </c>
-      <c r="P161">
+      <c r="Q161">
         <v>83.3333333333333</v>
       </c>
-      <c r="Q161">
-        <v>1</v>
-      </c>
       <c r="R161">
+        <v>1</v>
+      </c>
+      <c r="S161">
         <v>12.5</v>
       </c>
-      <c r="S161">
-        <v>0</v>
-      </c>
       <c r="T161">
         <v>0</v>
       </c>
       <c r="U161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V161">
+        <v>1</v>
+      </c>
+      <c r="W161">
         <v>16.6666666666667</v>
       </c>
     </row>
-    <row r="162" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="I162">
+    <row r="162" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="J162">
         <v>10</v>
       </c>
-      <c r="J162" t="s">
+      <c r="K162" t="s">
         <v>22</v>
       </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
       <c r="L162">
         <v>0</v>
       </c>
@@ -4434,731 +4590,731 @@
         <v>0</v>
       </c>
       <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
         <v>2</v>
       </c>
-      <c r="R162">
+      <c r="S162">
         <v>40</v>
       </c>
-      <c r="S162">
+      <c r="T162">
         <v>2</v>
       </c>
-      <c r="T162">
+      <c r="U162">
         <v>66.6666666666667</v>
       </c>
-      <c r="U162">
-        <v>0</v>
-      </c>
       <c r="V162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="I163">
+      <c r="W162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="J163">
         <v>11</v>
       </c>
-      <c r="J163" t="s">
+      <c r="K163" t="s">
         <v>23</v>
       </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
       <c r="L163">
         <v>0</v>
       </c>
       <c r="M163">
         <v>0</v>
       </c>
-      <c r="N163" t="s">
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
         <v>24</v>
       </c>
-      <c r="O163">
-        <v>0</v>
-      </c>
       <c r="P163">
         <v>0</v>
       </c>
       <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
         <v>3</v>
       </c>
-      <c r="R163">
+      <c r="S163">
         <v>50</v>
       </c>
-      <c r="S163">
-        <v>0</v>
-      </c>
-      <c r="T163" t="s">
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163" t="s">
         <v>24</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>3</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="AB165" t="s">
-        <v>0</v>
-      </c>
+    <row r="165" spans="10:34" x14ac:dyDescent="0.2">
       <c r="AC165" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD165" t="s">
         <v>114</v>
       </c>
-      <c r="AD165" t="s">
+      <c r="AE165" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="166" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="AB166">
-        <v>1</v>
-      </c>
-      <c r="AC166" t="s">
+    <row r="166" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="AC166">
+        <v>1</v>
+      </c>
+      <c r="AD166" t="s">
         <v>13</v>
       </c>
-      <c r="AD166">
+      <c r="AE166">
         <v>2.5688980693231302E-3</v>
       </c>
-      <c r="AE166">
+      <c r="AF166">
         <v>0.24458276581563701</v>
       </c>
     </row>
-    <row r="167" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="AB167">
+    <row r="167" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="AC167">
         <v>2</v>
       </c>
-      <c r="AC167" t="s">
+      <c r="AD167" t="s">
         <v>14</v>
       </c>
-      <c r="AD167">
-        <v>1</v>
-      </c>
       <c r="AE167">
+        <v>1</v>
+      </c>
+      <c r="AF167">
         <v>0.79151773533647396</v>
       </c>
     </row>
-    <row r="168" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="R168" t="str">
-        <f>_xlfn.CONCAT(R159,", ",ROUND(S159,0), "%")</f>
+    <row r="168" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="S168" t="str">
+        <f>_xlfn.CONCAT(S159,", ",ROUND(T159,0), "%")</f>
         <v>0, 0%</v>
       </c>
-      <c r="AB168">
+      <c r="AC168">
         <v>3</v>
       </c>
-      <c r="AC168" t="s">
+      <c r="AD168" t="s">
         <v>15</v>
       </c>
-      <c r="AD168">
-        <v>1</v>
-      </c>
       <c r="AE168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="W169" t="s">
-        <v>0</v>
-      </c>
+      <c r="AF168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="10:34" x14ac:dyDescent="0.2">
       <c r="X169" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y169" t="s">
         <v>114</v>
       </c>
-      <c r="Y169" t="s">
+      <c r="Z169" t="s">
         <v>115</v>
       </c>
-      <c r="AB169">
+      <c r="AC169">
         <v>4</v>
       </c>
-      <c r="AC169" t="s">
+      <c r="AD169" t="s">
         <v>16</v>
       </c>
-      <c r="AD169">
+      <c r="AE169">
         <v>0.81947697677752096</v>
       </c>
-      <c r="AE169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="W170">
-        <v>1</v>
-      </c>
-      <c r="X170" t="s">
+      <c r="AF169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="X170">
+        <v>1</v>
+      </c>
+      <c r="Y170" t="s">
         <v>13</v>
       </c>
-      <c r="Y170">
+      <c r="Z170">
         <v>2.5688980693231302E-3</v>
       </c>
-      <c r="Z170">
+      <c r="AA170">
         <v>0.24458276581563701</v>
       </c>
-      <c r="AB170">
+      <c r="AC170">
         <v>5</v>
       </c>
-      <c r="AC170" t="s">
+      <c r="AD170" t="s">
         <v>17</v>
       </c>
-      <c r="AD170">
-        <v>1</v>
-      </c>
       <c r="AE170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="W171">
+      <c r="AF170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="X171">
         <v>2</v>
       </c>
-      <c r="X171" t="s">
+      <c r="Y171" t="s">
         <v>14</v>
       </c>
-      <c r="Y171">
-        <v>1</v>
-      </c>
       <c r="Z171">
+        <v>1</v>
+      </c>
+      <c r="AA171">
         <v>0.79151773533647396</v>
       </c>
-      <c r="AB171">
+      <c r="AC171">
         <v>6</v>
       </c>
-      <c r="AC171" t="s">
+      <c r="AD171" t="s">
         <v>18</v>
       </c>
-      <c r="AD171">
+      <c r="AE171">
         <v>8.9686021770364194E-2</v>
       </c>
-      <c r="AE171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="W172">
+      <c r="AF171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="X172">
         <v>3</v>
       </c>
-      <c r="X172" t="s">
+      <c r="Y172" t="s">
         <v>15</v>
       </c>
-      <c r="Y172">
-        <v>1</v>
-      </c>
       <c r="Z172">
         <v>1</v>
       </c>
-      <c r="AB172">
+      <c r="AA172">
+        <v>1</v>
+      </c>
+      <c r="AC172">
         <v>7</v>
       </c>
-      <c r="AC172" t="s">
+      <c r="AD172" t="s">
         <v>19</v>
-      </c>
-      <c r="AD172" t="s">
-        <v>24</v>
       </c>
       <c r="AE172" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="173" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="L173" t="s">
-        <v>0</v>
-      </c>
+      <c r="AF172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="10:34" x14ac:dyDescent="0.2">
       <c r="M173" t="s">
         <v>0</v>
       </c>
       <c r="N173" t="s">
+        <v>0</v>
+      </c>
+      <c r="O173" t="s">
         <v>114</v>
       </c>
-      <c r="O173" t="s">
+      <c r="P173" t="s">
         <v>115</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>4</v>
       </c>
-      <c r="X173" t="s">
+      <c r="Y173" t="s">
         <v>16</v>
       </c>
-      <c r="Y173">
+      <c r="Z173">
         <v>0.81947697677752096</v>
       </c>
-      <c r="Z173">
-        <v>1</v>
-      </c>
-      <c r="AB173">
+      <c r="AA173">
+        <v>1</v>
+      </c>
+      <c r="AC173">
         <v>8</v>
       </c>
-      <c r="AC173" t="s">
+      <c r="AD173" t="s">
         <v>20</v>
       </c>
-      <c r="AD173">
-        <v>1</v>
-      </c>
       <c r="AE173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="L174">
-        <v>1</v>
-      </c>
-      <c r="M174" t="s">
+      <c r="AF173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174" t="s">
         <v>13</v>
       </c>
-      <c r="N174">
+      <c r="O174">
         <v>2.5688980693231302E-3</v>
       </c>
-      <c r="O174">
+      <c r="P174">
         <v>8.4859498117614895E-2</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>5</v>
       </c>
-      <c r="X174" t="s">
+      <c r="Y174" t="s">
         <v>17</v>
       </c>
-      <c r="Y174">
-        <v>1</v>
-      </c>
       <c r="Z174">
         <v>1</v>
       </c>
-      <c r="AB174">
+      <c r="AA174">
+        <v>1</v>
+      </c>
+      <c r="AC174">
         <v>9</v>
       </c>
-      <c r="AC174" t="s">
+      <c r="AD174" t="s">
         <v>21</v>
       </c>
-      <c r="AD174">
-        <v>1</v>
-      </c>
       <c r="AE174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="L175">
+      <c r="AF174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="M175">
         <v>2</v>
       </c>
-      <c r="M175" t="s">
+      <c r="N175" t="s">
         <v>14</v>
       </c>
-      <c r="N175">
-        <v>1</v>
-      </c>
       <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="P175">
         <v>0.72678994248541395</v>
       </c>
-      <c r="T175" t="s">
-        <v>0</v>
-      </c>
       <c r="U175" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V175" t="s">
+        <v>1</v>
+      </c>
+      <c r="W175" t="s">
         <v>2</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>6</v>
       </c>
-      <c r="X175" t="s">
+      <c r="Y175" t="s">
         <v>18</v>
       </c>
-      <c r="Y175">
+      <c r="Z175">
         <v>8.9686021770364194E-2</v>
       </c>
-      <c r="Z175">
-        <v>1</v>
-      </c>
-      <c r="AA175" t="s">
+      <c r="AA175">
+        <v>1</v>
+      </c>
+      <c r="AB175" t="s">
         <v>7</v>
       </c>
-      <c r="AB175">
+      <c r="AC175">
         <v>10</v>
       </c>
-      <c r="AC175" t="s">
+      <c r="AD175" t="s">
         <v>22</v>
       </c>
-      <c r="AD175" t="s">
+      <c r="AE175" t="s">
         <v>24</v>
       </c>
-      <c r="AE175">
+      <c r="AF175">
         <v>0.57615012203057903</v>
       </c>
-      <c r="AF175" t="s">
+      <c r="AG175" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="L176">
+    <row r="176" spans="10:34" x14ac:dyDescent="0.2">
+      <c r="M176">
         <v>3</v>
       </c>
-      <c r="M176" t="s">
+      <c r="N176" t="s">
         <v>15</v>
       </c>
-      <c r="N176">
-        <v>1</v>
-      </c>
       <c r="O176">
         <v>1</v>
       </c>
-      <c r="T176">
-        <v>1</v>
-      </c>
-      <c r="U176" t="s">
+      <c r="P176">
+        <v>1</v>
+      </c>
+      <c r="U176">
+        <v>1</v>
+      </c>
+      <c r="V176" t="s">
         <v>13</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>56</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>7</v>
       </c>
-      <c r="X176" t="s">
+      <c r="Y176" t="s">
         <v>19</v>
-      </c>
-      <c r="Y176" t="s">
-        <v>24</v>
       </c>
       <c r="Z176" t="s">
         <v>24</v>
       </c>
-      <c r="AA176">
+      <c r="AA176" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB176">
         <v>32.786885245901601</v>
       </c>
-      <c r="AB176">
+      <c r="AC176">
         <v>25</v>
       </c>
-      <c r="AC176">
+      <c r="AD176">
         <v>19.841269841269799</v>
       </c>
-      <c r="AD176">
+      <c r="AE176">
         <v>9</v>
       </c>
-      <c r="AE176">
+      <c r="AF176">
         <v>14.7540983606557</v>
       </c>
-      <c r="AF176">
+      <c r="AG176">
         <v>16</v>
       </c>
-      <c r="AG176">
+      <c r="AH176">
         <v>24.615384615384599</v>
       </c>
     </row>
-    <row r="177" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="L177">
+    <row r="177" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="M177">
         <v>4</v>
       </c>
-      <c r="M177" t="s">
+      <c r="N177" t="s">
         <v>16</v>
       </c>
-      <c r="N177">
+      <c r="O177">
         <v>0.81947697677752096</v>
       </c>
-      <c r="O177" t="s">
+      <c r="P177" t="s">
         <v>24</v>
       </c>
-      <c r="T177">
+      <c r="U177">
         <v>2</v>
       </c>
-      <c r="U177" t="s">
+      <c r="V177" t="s">
         <v>14</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>3</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>8</v>
       </c>
-      <c r="X177" t="s">
+      <c r="Y177" t="s">
         <v>20</v>
       </c>
-      <c r="Y177">
-        <v>1</v>
-      </c>
       <c r="Z177">
         <v>1</v>
       </c>
       <c r="AA177">
+        <v>1</v>
+      </c>
+      <c r="AB177">
         <v>9.0909090909090899</v>
       </c>
-      <c r="AB177">
+      <c r="AC177">
         <v>12</v>
       </c>
-      <c r="AC177">
+      <c r="AD177">
         <v>40</v>
       </c>
-      <c r="AD177">
+      <c r="AE177">
         <v>2</v>
       </c>
-      <c r="AE177">
+      <c r="AF177">
         <v>28.571428571428601</v>
       </c>
-      <c r="AF177">
+      <c r="AG177">
         <v>10</v>
       </c>
-      <c r="AG177">
+      <c r="AH177">
         <v>43.478260869565197</v>
       </c>
     </row>
-    <row r="178" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="L178">
+    <row r="178" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="M178">
         <v>5</v>
       </c>
-      <c r="M178" t="s">
+      <c r="N178" t="s">
         <v>17</v>
       </c>
-      <c r="N178">
-        <v>1</v>
-      </c>
       <c r="O178">
         <v>1</v>
       </c>
-      <c r="T178">
+      <c r="P178">
+        <v>1</v>
+      </c>
+      <c r="U178">
         <v>3</v>
       </c>
-      <c r="U178" t="s">
+      <c r="V178" t="s">
         <v>15</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>5</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>9</v>
       </c>
-      <c r="X178" t="s">
+      <c r="Y178" t="s">
         <v>21</v>
       </c>
-      <c r="Y178">
-        <v>1</v>
-      </c>
       <c r="Z178">
         <v>1</v>
       </c>
       <c r="AA178">
+        <v>1</v>
+      </c>
+      <c r="AB178">
         <v>42.857142857142897</v>
       </c>
-      <c r="AB178">
+      <c r="AC178">
         <v>2</v>
       </c>
-      <c r="AC178">
+      <c r="AD178">
         <v>14.285714285714301</v>
       </c>
-      <c r="AD178">
-        <v>1</v>
-      </c>
       <c r="AE178">
+        <v>1</v>
+      </c>
+      <c r="AF178">
         <v>16.6666666666667</v>
       </c>
-      <c r="AF178">
-        <v>1</v>
-      </c>
       <c r="AG178">
+        <v>1</v>
+      </c>
+      <c r="AH178">
         <v>12.5</v>
       </c>
     </row>
-    <row r="179" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="L179">
+    <row r="179" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="M179">
         <v>6</v>
       </c>
-      <c r="M179" t="s">
+      <c r="N179" t="s">
         <v>18</v>
       </c>
-      <c r="N179">
+      <c r="O179">
         <v>8.9686021770364194E-2</v>
       </c>
-      <c r="O179" t="s">
+      <c r="P179" t="s">
         <v>24</v>
       </c>
-      <c r="T179">
+      <c r="U179">
         <v>4</v>
       </c>
-      <c r="U179" t="s">
+      <c r="V179" t="s">
         <v>16</v>
       </c>
-      <c r="V179">
-        <v>1</v>
-      </c>
       <c r="W179">
+        <v>1</v>
+      </c>
+      <c r="X179">
         <v>10</v>
       </c>
-      <c r="X179" t="s">
+      <c r="Y179" t="s">
         <v>22</v>
       </c>
-      <c r="Y179" t="s">
+      <c r="Z179" t="s">
         <v>24</v>
       </c>
-      <c r="Z179">
+      <c r="AA179">
         <v>0.57615012203057903</v>
       </c>
-      <c r="AA179">
-        <v>0</v>
-      </c>
       <c r="AB179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC179">
+        <v>1</v>
+      </c>
+      <c r="AD179">
         <v>16.6666666666667</v>
       </c>
-      <c r="AD179">
-        <v>1</v>
-      </c>
       <c r="AE179">
+        <v>1</v>
+      </c>
+      <c r="AF179">
         <v>33.3333333333333</v>
       </c>
-      <c r="AF179">
-        <v>0</v>
-      </c>
       <c r="AG179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="L180">
+      <c r="AH179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="M180">
         <v>7</v>
       </c>
-      <c r="M180" t="s">
+      <c r="N180" t="s">
         <v>19</v>
-      </c>
-      <c r="N180" t="s">
-        <v>24</v>
       </c>
       <c r="O180" t="s">
         <v>24</v>
       </c>
-      <c r="T180">
+      <c r="P180" t="s">
+        <v>24</v>
+      </c>
+      <c r="U180">
         <v>5</v>
       </c>
-      <c r="U180" t="s">
+      <c r="V180" t="s">
         <v>17</v>
       </c>
-      <c r="V180">
-        <v>1</v>
-      </c>
       <c r="W180">
+        <v>1</v>
+      </c>
+      <c r="X180">
         <v>20</v>
       </c>
-      <c r="X180">
-        <v>0</v>
-      </c>
       <c r="Y180">
         <v>0</v>
       </c>
       <c r="Z180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA180">
+        <v>1</v>
+      </c>
+      <c r="AB180">
         <v>25</v>
       </c>
-      <c r="AB180">
-        <v>1</v>
-      </c>
       <c r="AC180">
+        <v>1</v>
+      </c>
+      <c r="AD180">
         <v>20</v>
       </c>
-      <c r="AD180">
-        <v>0</v>
-      </c>
       <c r="AE180">
         <v>0</v>
       </c>
       <c r="AF180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG180">
+        <v>1</v>
+      </c>
+      <c r="AH180">
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="L181">
+    <row r="181" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="M181">
         <v>8</v>
       </c>
-      <c r="M181" t="s">
+      <c r="N181" t="s">
         <v>20</v>
       </c>
-      <c r="N181">
-        <v>1</v>
-      </c>
       <c r="O181">
         <v>1</v>
       </c>
-      <c r="T181">
+      <c r="P181">
+        <v>1</v>
+      </c>
+      <c r="U181">
         <v>6</v>
       </c>
-      <c r="U181" t="s">
+      <c r="V181" t="s">
         <v>18</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>15</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>83.3333333333333</v>
       </c>
-      <c r="X181">
+      <c r="Y181">
         <v>14</v>
       </c>
-      <c r="Y181">
+      <c r="Z181">
         <v>93.3333333333333</v>
       </c>
-      <c r="Z181">
-        <v>1</v>
-      </c>
       <c r="AA181">
+        <v>1</v>
+      </c>
+      <c r="AB181">
         <v>33.3333333333333</v>
       </c>
-      <c r="AB181">
-        <v>1</v>
-      </c>
       <c r="AC181">
+        <v>1</v>
+      </c>
+      <c r="AD181">
         <v>5.2631578947368398</v>
       </c>
-      <c r="AD181">
-        <v>1</v>
-      </c>
       <c r="AE181">
+        <v>1</v>
+      </c>
+      <c r="AF181">
         <v>6.25</v>
       </c>
-      <c r="AF181">
-        <v>0</v>
-      </c>
       <c r="AG181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="L182">
+      <c r="AH181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="M182">
         <v>9</v>
       </c>
-      <c r="M182" t="s">
+      <c r="N182" t="s">
         <v>21</v>
       </c>
-      <c r="N182">
-        <v>1</v>
-      </c>
       <c r="O182">
         <v>1</v>
       </c>
-      <c r="T182">
+      <c r="P182">
+        <v>1</v>
+      </c>
+      <c r="U182">
         <v>7</v>
       </c>
-      <c r="U182" t="s">
+      <c r="V182" t="s">
         <v>19</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>4</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>100</v>
       </c>
-      <c r="X182">
-        <v>1</v>
-      </c>
       <c r="Y182">
+        <v>1</v>
+      </c>
+      <c r="Z182">
         <v>100</v>
       </c>
-      <c r="Z182">
+      <c r="AA182">
         <v>3</v>
       </c>
-      <c r="AA182">
+      <c r="AB182">
         <v>100</v>
       </c>
-      <c r="AB182">
-        <v>0</v>
-      </c>
       <c r="AC182">
         <v>0</v>
       </c>
@@ -5174,117 +5330,117 @@
       <c r="AG182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="L183">
+      <c r="AH182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="M183">
         <v>10</v>
       </c>
-      <c r="M183" t="s">
+      <c r="N183" t="s">
         <v>22</v>
       </c>
-      <c r="N183" t="s">
+      <c r="O183" t="s">
         <v>24</v>
       </c>
-      <c r="O183">
-        <v>1</v>
-      </c>
-      <c r="T183">
+      <c r="P183">
+        <v>1</v>
+      </c>
+      <c r="U183">
         <v>8</v>
       </c>
-      <c r="U183" t="s">
+      <c r="V183" t="s">
         <v>20</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>21</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>75</v>
       </c>
-      <c r="X183">
+      <c r="Y183">
         <v>16</v>
       </c>
-      <c r="Y183">
+      <c r="Z183">
         <v>76.190476190476204</v>
       </c>
-      <c r="Z183">
+      <c r="AA183">
         <v>5</v>
       </c>
-      <c r="AA183">
+      <c r="AB183">
         <v>71.428571428571402</v>
       </c>
-      <c r="AB183">
+      <c r="AC183">
         <v>2</v>
       </c>
-      <c r="AC183">
+      <c r="AD183">
         <v>6.8965517241379297</v>
       </c>
-      <c r="AD183">
+      <c r="AE183">
         <v>2</v>
       </c>
-      <c r="AE183">
+      <c r="AF183">
         <v>9.0909090909090899</v>
       </c>
-      <c r="AF183">
-        <v>0</v>
-      </c>
       <c r="AG183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="T184">
+      <c r="AH183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="U184">
         <v>9</v>
       </c>
-      <c r="U184" t="s">
+      <c r="V184" t="s">
         <v>21</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>6</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>75</v>
       </c>
-      <c r="X184">
-        <v>1</v>
-      </c>
       <c r="Y184">
+        <v>1</v>
+      </c>
+      <c r="Z184">
         <v>50</v>
       </c>
-      <c r="Z184">
+      <c r="AA184">
         <v>5</v>
       </c>
-      <c r="AA184">
+      <c r="AB184">
         <v>83.3333333333333</v>
       </c>
-      <c r="AB184">
-        <v>1</v>
-      </c>
       <c r="AC184">
+        <v>1</v>
+      </c>
+      <c r="AD184">
         <v>12.5</v>
       </c>
-      <c r="AD184">
-        <v>0</v>
-      </c>
       <c r="AE184">
         <v>0</v>
       </c>
       <c r="AF184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG184">
+        <v>1</v>
+      </c>
+      <c r="AH184">
         <v>16.6666666666667</v>
       </c>
     </row>
-    <row r="185" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="T185">
+    <row r="185" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="U185">
         <v>10</v>
       </c>
-      <c r="U185" t="s">
+      <c r="V185" t="s">
         <v>22</v>
       </c>
-      <c r="V185">
-        <v>0</v>
-      </c>
       <c r="W185">
         <v>0</v>
       </c>
@@ -5301,547 +5457,2114 @@
         <v>0</v>
       </c>
       <c r="AB185">
+        <v>0</v>
+      </c>
+      <c r="AC185">
         <v>2</v>
       </c>
-      <c r="AC185">
+      <c r="AD185">
         <v>40</v>
       </c>
-      <c r="AD185">
+      <c r="AE185">
         <v>2</v>
       </c>
-      <c r="AE185">
+      <c r="AF185">
         <v>66.6666666666667</v>
       </c>
-      <c r="AF185">
-        <v>0</v>
-      </c>
       <c r="AG185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="T186">
+      <c r="AH185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="U186">
         <v>11</v>
       </c>
-      <c r="U186" t="s">
+      <c r="V186" t="s">
         <v>23</v>
       </c>
-      <c r="V186">
-        <v>0</v>
-      </c>
       <c r="W186">
         <v>0</v>
       </c>
       <c r="X186">
         <v>0</v>
       </c>
-      <c r="Y186" t="s">
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186" t="s">
         <v>24</v>
       </c>
-      <c r="Z186">
-        <v>0</v>
-      </c>
       <c r="AA186">
         <v>0</v>
       </c>
       <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
         <v>3</v>
       </c>
-      <c r="AC186">
+      <c r="AD186">
         <v>50</v>
       </c>
-      <c r="AD186">
-        <v>0</v>
-      </c>
-      <c r="AE186" t="s">
+      <c r="AE186">
+        <v>0</v>
+      </c>
+      <c r="AF186" t="s">
         <v>24</v>
       </c>
-      <c r="AF186">
+      <c r="AG186">
         <v>3</v>
       </c>
-      <c r="AG186">
+      <c r="AH186">
         <v>50</v>
       </c>
     </row>
-    <row r="190" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="U190" t="s">
-        <v>0</v>
-      </c>
+    <row r="190" spans="12:34" x14ac:dyDescent="0.2">
       <c r="V190" t="s">
+        <v>0</v>
+      </c>
+      <c r="W190" t="s">
         <v>114</v>
       </c>
-      <c r="W190" t="s">
+      <c r="X190" t="s">
         <v>115</v>
       </c>
-      <c r="AA190" t="s">
-        <v>0</v>
-      </c>
       <c r="AB190" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC190" t="s">
         <v>114</v>
       </c>
-      <c r="AC190" t="s">
+      <c r="AD190" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="191" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="U191">
-        <v>1</v>
-      </c>
-      <c r="V191" t="s">
+    <row r="191" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="V191">
+        <v>1</v>
+      </c>
+      <c r="W191" t="s">
         <v>13</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>2.5688980693231302E-3</v>
       </c>
-      <c r="X191">
+      <c r="Y191">
         <v>0.24458276581563701</v>
       </c>
-      <c r="AA191">
-        <v>1</v>
-      </c>
-      <c r="AB191" t="s">
+      <c r="AB191">
+        <v>1</v>
+      </c>
+      <c r="AC191" t="s">
         <v>13</v>
       </c>
-      <c r="AC191">
+      <c r="AD191">
         <v>2.5688980693231302E-3</v>
       </c>
-      <c r="AD191">
+      <c r="AE191">
         <v>0.24458276581563701</v>
       </c>
     </row>
-    <row r="192" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K192" t="s">
+    <row r="192" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="L192" t="s">
         <v>64</v>
       </c>
-      <c r="L192" t="s">
+      <c r="M192" t="s">
         <v>65</v>
       </c>
-      <c r="M192" t="s">
+      <c r="N192" t="s">
         <v>66</v>
       </c>
-      <c r="N192" t="s">
+      <c r="O192" t="s">
         <v>67</v>
       </c>
-      <c r="O192" t="s">
+      <c r="P192" t="s">
         <v>68</v>
       </c>
-      <c r="P192" t="s">
+      <c r="Q192" t="s">
         <v>69</v>
       </c>
-      <c r="Q192" t="s">
+      <c r="R192" t="s">
         <v>70</v>
       </c>
-      <c r="R192" t="s">
+      <c r="S192" t="s">
         <v>116</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>2</v>
       </c>
-      <c r="V192" t="s">
+      <c r="W192" t="s">
         <v>14</v>
       </c>
-      <c r="W192">
-        <v>1</v>
-      </c>
       <c r="X192">
+        <v>1</v>
+      </c>
+      <c r="Y192">
         <v>0.79151773533647396</v>
       </c>
-      <c r="AA192">
+      <c r="AB192">
         <v>2</v>
       </c>
-      <c r="AB192" t="s">
+      <c r="AC192" t="s">
         <v>14</v>
       </c>
-      <c r="AC192">
-        <v>1</v>
-      </c>
       <c r="AD192">
+        <v>1</v>
+      </c>
+      <c r="AE192">
         <v>0.79151773533647396</v>
       </c>
     </row>
-    <row r="193" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="K193">
-        <v>1</v>
-      </c>
-      <c r="L193" t="s">
+    <row r="193" spans="5:31" x14ac:dyDescent="0.2">
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193" t="s">
         <v>71</v>
       </c>
-      <c r="M193">
+      <c r="N193">
         <v>109</v>
       </c>
-      <c r="N193">
+      <c r="O193">
         <v>86.507936507936506</v>
       </c>
-      <c r="O193">
+      <c r="P193">
         <v>55</v>
       </c>
-      <c r="P193">
+      <c r="Q193">
         <v>90.163934426229503</v>
       </c>
-      <c r="Q193">
+      <c r="R193">
         <v>54</v>
       </c>
-      <c r="R193">
+      <c r="S193">
         <v>83.076923076923094</v>
       </c>
-      <c r="S193">
+      <c r="T193">
         <v>0.24458276581563701</v>
       </c>
-      <c r="T193" t="s">
+      <c r="U193" t="s">
         <v>116</v>
       </c>
-      <c r="W193">
-        <v>1</v>
-      </c>
       <c r="X193">
         <v>1</v>
       </c>
-      <c r="AA193">
+      <c r="Y193">
+        <v>1</v>
+      </c>
+      <c r="AB193">
         <v>3</v>
       </c>
-      <c r="AB193" t="s">
+      <c r="AC193" t="s">
         <v>15</v>
       </c>
-      <c r="AC193">
-        <v>1</v>
-      </c>
       <c r="AD193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="K194">
+      <c r="AE193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="5:31" x14ac:dyDescent="0.2">
+      <c r="L194">
         <v>2</v>
       </c>
-      <c r="L194" t="s">
+      <c r="M194" t="s">
         <v>72</v>
       </c>
-      <c r="M194">
+      <c r="N194">
         <v>97</v>
       </c>
-      <c r="N194">
+      <c r="O194">
         <v>76.984126984127002</v>
       </c>
-      <c r="O194">
+      <c r="P194">
         <v>46</v>
       </c>
-      <c r="P194">
+      <c r="Q194">
         <v>75.409836065573799</v>
       </c>
-      <c r="Q194">
+      <c r="R194">
         <v>51</v>
       </c>
-      <c r="R194">
+      <c r="S194">
         <v>78.461538461538495</v>
       </c>
-      <c r="S194">
+      <c r="T194">
         <v>0.79151773533647396</v>
       </c>
-      <c r="T194">
+      <c r="U194">
         <v>83.076923076923094</v>
-      </c>
-      <c r="U194">
-        <v>0.24458276581563701</v>
       </c>
       <c r="V194">
         <v>0.24458276581563701</v>
       </c>
       <c r="W194">
+        <v>0.24458276581563701</v>
+      </c>
+      <c r="X194">
         <v>0.81947697677752096</v>
       </c>
-      <c r="X194">
-        <v>1</v>
-      </c>
-      <c r="AA194">
+      <c r="Y194">
+        <v>1</v>
+      </c>
+      <c r="AB194">
         <v>4</v>
       </c>
-      <c r="AB194" t="s">
+      <c r="AC194" t="s">
         <v>16</v>
       </c>
-      <c r="AC194">
+      <c r="AD194">
         <v>0.81947697677752096</v>
       </c>
-      <c r="AD194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="K195" t="s">
+      <c r="AE194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="5:31" x14ac:dyDescent="0.2">
+      <c r="L195" t="s">
         <v>117</v>
       </c>
-      <c r="T195">
+      <c r="U195">
         <v>78.461538461538495</v>
-      </c>
-      <c r="U195">
-        <v>0.79151773533647396</v>
       </c>
       <c r="V195">
         <v>0.79151773533647396</v>
       </c>
       <c r="W195">
-        <v>1</v>
+        <v>0.79151773533647396</v>
       </c>
       <c r="X195">
         <v>1</v>
       </c>
-      <c r="AA195">
+      <c r="Y195">
+        <v>1</v>
+      </c>
+      <c r="AB195">
         <v>5</v>
       </c>
-      <c r="AB195" t="s">
+      <c r="AC195" t="s">
         <v>17</v>
       </c>
-      <c r="AC195">
-        <v>1</v>
-      </c>
       <c r="AD195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="M196" t="s">
+      <c r="AE195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="5:31" x14ac:dyDescent="0.2">
+      <c r="N196" t="s">
         <v>117</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>8.9686021770364194E-2</v>
       </c>
-      <c r="X196">
-        <v>1</v>
-      </c>
-      <c r="AA196">
+      <c r="Y196">
+        <v>1</v>
+      </c>
+      <c r="AB196">
         <v>6</v>
       </c>
-      <c r="AB196" t="s">
+      <c r="AC196" t="s">
         <v>18</v>
       </c>
-      <c r="AC196">
+      <c r="AD196">
         <v>8.9686021770364194E-2</v>
       </c>
-      <c r="AD196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="U197">
+      <c r="AE196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="5:31" x14ac:dyDescent="0.2">
+      <c r="V197">
         <v>7</v>
       </c>
-      <c r="V197" t="s">
+      <c r="W197" t="s">
         <v>19</v>
-      </c>
-      <c r="W197" t="s">
-        <v>24</v>
       </c>
       <c r="X197" t="s">
         <v>24</v>
       </c>
-      <c r="AA197">
+      <c r="Y197" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB197">
         <v>7</v>
       </c>
-      <c r="AB197" t="s">
+      <c r="AC197" t="s">
         <v>19</v>
-      </c>
-      <c r="AC197" t="s">
-        <v>24</v>
       </c>
       <c r="AD197" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="198" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="U198">
+      <c r="AE197" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="5:31" x14ac:dyDescent="0.2">
+      <c r="V198">
         <v>8</v>
       </c>
-      <c r="V198" t="s">
+      <c r="W198" t="s">
         <v>20</v>
       </c>
-      <c r="W198">
-        <v>1</v>
-      </c>
       <c r="X198">
         <v>1</v>
       </c>
-      <c r="AA198">
+      <c r="Y198">
+        <v>1</v>
+      </c>
+      <c r="AB198">
         <v>8</v>
       </c>
-      <c r="AB198" t="s">
+      <c r="AC198" t="s">
         <v>20</v>
       </c>
-      <c r="AC198">
-        <v>1</v>
-      </c>
       <c r="AD198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="5:30" x14ac:dyDescent="0.2">
+      <c r="AE198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="5:31" x14ac:dyDescent="0.2">
       <c r="E199" s="3"/>
-      <c r="M199" t="str">
-        <f>_xlfn.CONCAT(M193,", ",ROUND(N193,0), "%")</f>
+      <c r="N199" t="str">
+        <f>_xlfn.CONCAT(N193,", ",ROUND(O193,0), "%")</f>
         <v>109, 87%</v>
       </c>
-      <c r="O199" t="str">
-        <f>_xlfn.CONCAT(O193,", ",ROUND(P193,0), "%")</f>
+      <c r="P199" t="str">
+        <f>_xlfn.CONCAT(P193,", ",ROUND(Q193,0), "%")</f>
         <v>55, 90%</v>
       </c>
-      <c r="Q199" t="str">
-        <f>_xlfn.CONCAT(Q193,", ",ROUND(R193,0), "%")</f>
+      <c r="R199" t="str">
+        <f>_xlfn.CONCAT(R193,", ",ROUND(S193,0), "%")</f>
         <v>54, 83%</v>
       </c>
-      <c r="R199">
+      <c r="S199">
         <v>0.24458276581563701</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>9</v>
       </c>
-      <c r="V199" t="s">
+      <c r="W199" t="s">
         <v>21</v>
       </c>
-      <c r="W199">
-        <v>1</v>
-      </c>
       <c r="X199">
         <v>1</v>
       </c>
-      <c r="AA199">
+      <c r="Y199">
+        <v>1</v>
+      </c>
+      <c r="AB199">
         <v>9</v>
       </c>
-      <c r="AB199" t="s">
+      <c r="AC199" t="s">
         <v>21</v>
       </c>
-      <c r="AC199">
-        <v>1</v>
-      </c>
       <c r="AD199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="M200" t="str">
-        <f>_xlfn.CONCAT(M194,", ",ROUND(N194,0), "%")</f>
+      <c r="AE199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="5:31" x14ac:dyDescent="0.2">
+      <c r="N200" t="str">
+        <f>_xlfn.CONCAT(N194,", ",ROUND(O194,0), "%")</f>
         <v>97, 77%</v>
       </c>
-      <c r="O200" t="str">
-        <f>_xlfn.CONCAT(O194,", ",ROUND(P194,0), "%")</f>
+      <c r="P200" t="str">
+        <f>_xlfn.CONCAT(P194,", ",ROUND(Q194,0), "%")</f>
         <v>46, 75%</v>
       </c>
-      <c r="Q200" t="str">
-        <f>_xlfn.CONCAT(Q194,", ",ROUND(R194,0), "%")</f>
+      <c r="R200" t="str">
+        <f>_xlfn.CONCAT(R194,", ",ROUND(S194,0), "%")</f>
         <v>51, 78%</v>
       </c>
-      <c r="R200">
+      <c r="S200">
         <v>0.79151773533647396</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>10</v>
       </c>
-      <c r="V200" t="s">
+      <c r="W200" t="s">
         <v>22</v>
       </c>
-      <c r="W200" t="s">
+      <c r="X200" t="s">
         <v>24</v>
       </c>
-      <c r="X200">
+      <c r="Y200">
         <v>0.57615012203057903</v>
       </c>
-      <c r="AA200">
+      <c r="AB200">
         <v>10</v>
       </c>
-      <c r="AB200" t="s">
+      <c r="AC200" t="s">
         <v>22</v>
       </c>
-      <c r="AC200" t="s">
+      <c r="AD200" t="s">
         <v>24</v>
       </c>
-      <c r="AD200">
+      <c r="AE200">
         <v>0.57615012203057903</v>
       </c>
     </row>
-    <row r="203" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="K203" t="s">
+    <row r="203" spans="5:31" x14ac:dyDescent="0.2">
+      <c r="L203" t="s">
         <v>118</v>
       </c>
-      <c r="L203" t="s">
+      <c r="M203" t="s">
         <v>74</v>
       </c>
-      <c r="M203" t="s">
+      <c r="N203" t="s">
         <v>119</v>
       </c>
-      <c r="N203">
+      <c r="O203">
         <v>0.24458276581563701</v>
       </c>
     </row>
-    <row r="204" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="K204" t="s">
+    <row r="204" spans="5:31" x14ac:dyDescent="0.2">
+      <c r="L204" t="s">
         <v>120</v>
       </c>
-      <c r="L204" t="s">
+      <c r="M204" t="s">
         <v>106</v>
       </c>
-      <c r="M204" t="s">
+      <c r="N204" t="s">
         <v>121</v>
       </c>
-      <c r="N204">
+      <c r="O204">
         <v>0.79151773533647396</v>
       </c>
     </row>
-    <row r="207" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="L207" s="3"/>
-    </row>
-    <row r="208" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="N208" s="3"/>
+    <row r="207" spans="5:31" x14ac:dyDescent="0.2">
+      <c r="M207" s="3"/>
+    </row>
+    <row r="208" spans="5:31" x14ac:dyDescent="0.2">
+      <c r="O208" s="3"/>
+    </row>
+    <row r="209" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="P209" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>1</v>
+      </c>
+      <c r="R209" t="s">
+        <v>2</v>
+      </c>
+      <c r="S209" t="s">
+        <v>3</v>
+      </c>
+      <c r="T209" t="s">
+        <v>4</v>
+      </c>
+      <c r="U209" t="s">
+        <v>5</v>
+      </c>
+      <c r="V209" t="s">
+        <v>6</v>
+      </c>
+      <c r="W209" t="s">
+        <v>7</v>
+      </c>
+      <c r="X209" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O210">
+        <v>1</v>
+      </c>
+      <c r="P210" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q210">
+        <v>56</v>
+      </c>
+      <c r="R210">
+        <v>47.058823529411796</v>
+      </c>
+      <c r="S210">
+        <v>36</v>
+      </c>
+      <c r="T210">
+        <v>62.068965517241402</v>
+      </c>
+      <c r="U210">
+        <v>20</v>
+      </c>
+      <c r="V210">
+        <v>32.786885245901601</v>
+      </c>
+      <c r="W210">
+        <v>25</v>
+      </c>
+      <c r="X210">
+        <v>19.841269841269799</v>
+      </c>
+      <c r="Y210">
+        <v>9</v>
+      </c>
+      <c r="Z210">
+        <v>14.7540983606557</v>
+      </c>
+      <c r="AA210">
+        <v>16</v>
+      </c>
+      <c r="AB210">
+        <v>24.615384615384599</v>
+      </c>
+    </row>
+    <row r="211" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O211">
+        <v>2</v>
+      </c>
+      <c r="P211" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q211">
+        <v>3</v>
+      </c>
+      <c r="R211">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="S211">
+        <v>1</v>
+      </c>
+      <c r="T211">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
+      <c r="V211">
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="W211">
+        <v>12</v>
+      </c>
+      <c r="X211">
+        <v>40</v>
+      </c>
+      <c r="Y211">
+        <v>2</v>
+      </c>
+      <c r="Z211">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="AA211">
+        <v>10</v>
+      </c>
+      <c r="AB211">
+        <v>43.478260869565197</v>
+      </c>
+    </row>
+    <row r="212" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O212">
+        <v>3</v>
+      </c>
+      <c r="P212" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q212">
+        <v>5</v>
+      </c>
+      <c r="R212">
+        <v>38.461538461538503</v>
+      </c>
+      <c r="S212">
+        <v>2</v>
+      </c>
+      <c r="T212">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="U212">
+        <v>3</v>
+      </c>
+      <c r="V212">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="W212">
+        <v>2</v>
+      </c>
+      <c r="X212">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Y212">
+        <v>1</v>
+      </c>
+      <c r="Z212">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="AA212">
+        <v>1</v>
+      </c>
+      <c r="AB212">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="213" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O213">
+        <v>4</v>
+      </c>
+      <c r="P213" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q213">
+        <v>1</v>
+      </c>
+      <c r="R213">
+        <v>20</v>
+      </c>
+      <c r="S213">
+        <v>1</v>
+      </c>
+      <c r="T213">
+        <v>50</v>
+      </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
+      <c r="V213">
+        <v>0</v>
+      </c>
+      <c r="W213">
+        <v>1</v>
+      </c>
+      <c r="X213">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="Y213">
+        <v>1</v>
+      </c>
+      <c r="Z213">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+      <c r="AB213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O214">
+        <v>5</v>
+      </c>
+      <c r="P214" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q214">
+        <v>1</v>
+      </c>
+      <c r="R214">
+        <v>20</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>1</v>
+      </c>
+      <c r="V214">
+        <v>25</v>
+      </c>
+      <c r="W214">
+        <v>1</v>
+      </c>
+      <c r="X214">
+        <v>20</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>1</v>
+      </c>
+      <c r="AB214">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O215">
+        <v>6</v>
+      </c>
+      <c r="P215" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q215">
+        <v>15</v>
+      </c>
+      <c r="R215">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="S215">
+        <v>14</v>
+      </c>
+      <c r="T215">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="U215">
+        <v>1</v>
+      </c>
+      <c r="V215">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="W215">
+        <v>1</v>
+      </c>
+      <c r="X215">
+        <v>5.2631578947368398</v>
+      </c>
+      <c r="Y215">
+        <v>1</v>
+      </c>
+      <c r="Z215">
+        <v>6.25</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+      <c r="AB215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O216">
+        <v>7</v>
+      </c>
+      <c r="P216" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q216">
+        <v>4</v>
+      </c>
+      <c r="R216">
+        <v>100</v>
+      </c>
+      <c r="S216">
+        <v>1</v>
+      </c>
+      <c r="T216">
+        <v>100</v>
+      </c>
+      <c r="U216">
+        <v>3</v>
+      </c>
+      <c r="V216">
+        <v>100</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+      <c r="AB216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O217">
+        <v>8</v>
+      </c>
+      <c r="P217" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q217">
+        <v>21</v>
+      </c>
+      <c r="R217">
+        <v>75</v>
+      </c>
+      <c r="S217">
+        <v>16</v>
+      </c>
+      <c r="T217">
+        <v>76.190476190476204</v>
+      </c>
+      <c r="U217">
+        <v>5</v>
+      </c>
+      <c r="V217">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="W217">
+        <v>2</v>
+      </c>
+      <c r="X217">
+        <v>6.8965517241379297</v>
+      </c>
+      <c r="Y217">
+        <v>2</v>
+      </c>
+      <c r="Z217">
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+      <c r="AB217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O218">
+        <v>9</v>
+      </c>
+      <c r="P218" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q218">
+        <v>6</v>
+      </c>
+      <c r="R218">
+        <v>75</v>
+      </c>
+      <c r="S218">
+        <v>1</v>
+      </c>
+      <c r="T218">
+        <v>50</v>
+      </c>
+      <c r="U218">
+        <v>5</v>
+      </c>
+      <c r="V218">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="W218">
+        <v>1</v>
+      </c>
+      <c r="X218">
+        <v>12.5</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>1</v>
+      </c>
+      <c r="AB218">
+        <v>16.6666666666667</v>
+      </c>
+    </row>
+    <row r="219" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O219">
+        <v>10</v>
+      </c>
+      <c r="P219" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>0</v>
+      </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+      <c r="W219">
+        <v>2</v>
+      </c>
+      <c r="X219">
+        <v>40</v>
+      </c>
+      <c r="Y219">
+        <v>2</v>
+      </c>
+      <c r="Z219">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+      <c r="AB219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <v>11</v>
+      </c>
+      <c r="O220" t="s">
+        <v>23</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="S220" t="s">
+        <v>24</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>0</v>
+      </c>
+      <c r="V220">
+        <v>3</v>
+      </c>
+      <c r="W220">
+        <v>50</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z220">
+        <v>3</v>
+      </c>
+      <c r="AA220">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="M222" t="str">
+        <f>_xlfn.CONCAT(Q210," (",ROUND(R210,0),")")</f>
+        <v>56 (47)</v>
+      </c>
+      <c r="O222" t="str">
+        <f>_xlfn.CONCAT(S210," (",ROUND(T210,0),")")</f>
+        <v>36 (62)</v>
+      </c>
+      <c r="Q222" t="str">
+        <f>_xlfn.CONCAT(U210," (",ROUND(V210,0),")")</f>
+        <v>20 (33)</v>
+      </c>
+      <c r="S222" t="str">
+        <f>_xlfn.CONCAT(W210," (",ROUND(X210,0),")")</f>
+        <v>25 (20)</v>
+      </c>
+      <c r="U222" t="str">
+        <f>_xlfn.CONCAT(Y210," (",ROUND(Z210,0),")")</f>
+        <v>9 (15)</v>
+      </c>
+      <c r="W222" t="str">
+        <f>_xlfn.CONCAT(AA210," (",ROUND(AB210,0),")")</f>
+        <v>16 (25)</v>
+      </c>
+    </row>
+    <row r="223" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D223" t="s">
+        <v>123</v>
+      </c>
+      <c r="E223" t="s">
+        <v>124</v>
+      </c>
+      <c r="F223" t="s">
+        <v>125</v>
+      </c>
+      <c r="H223" t="s">
+        <v>146</v>
+      </c>
+      <c r="I223" t="s">
+        <v>147</v>
+      </c>
+      <c r="J223" t="s">
+        <v>148</v>
+      </c>
+      <c r="L223" t="str">
+        <f t="shared" ref="L223:L231" si="6">_xlfn.CONCAT(Q211," (",ROUND(R211,0),")")</f>
+        <v>3 (10)</v>
+      </c>
+      <c r="N223" t="str">
+        <f t="shared" ref="N223:N231" si="7">_xlfn.CONCAT(S211," (",ROUND(T211,0),")")</f>
+        <v>1 (14)</v>
+      </c>
+      <c r="P223" t="str">
+        <f t="shared" ref="P223:P231" si="8">_xlfn.CONCAT(U211," (",ROUND(V211,0),")")</f>
+        <v>2 (9)</v>
+      </c>
+      <c r="R223" t="str">
+        <f t="shared" ref="R223:R231" si="9">_xlfn.CONCAT(W211," (",ROUND(X211,0),")")</f>
+        <v>12 (40)</v>
+      </c>
+      <c r="T223" t="str">
+        <f t="shared" ref="T223:T231" si="10">_xlfn.CONCAT(Y211," (",ROUND(Z211,0),")")</f>
+        <v>2 (29)</v>
+      </c>
+      <c r="V223" t="str">
+        <f t="shared" ref="V223:V231" si="11">_xlfn.CONCAT(AA211," (",ROUND(AB211,0),")")</f>
+        <v>10 (43)</v>
+      </c>
+    </row>
+    <row r="224" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D224" t="s">
+        <v>126</v>
+      </c>
+      <c r="E224" t="s">
+        <v>127</v>
+      </c>
+      <c r="F224" t="s">
+        <v>128</v>
+      </c>
+      <c r="H224" t="s">
+        <v>149</v>
+      </c>
+      <c r="I224" t="s">
+        <v>150</v>
+      </c>
+      <c r="J224" t="s">
+        <v>151</v>
+      </c>
+      <c r="L224" t="str">
+        <f t="shared" si="6"/>
+        <v>5 (38)</v>
+      </c>
+      <c r="N224" t="str">
+        <f t="shared" si="7"/>
+        <v>2 (33)</v>
+      </c>
+      <c r="P224" t="str">
+        <f t="shared" si="8"/>
+        <v>3 (43)</v>
+      </c>
+      <c r="R224" t="str">
+        <f t="shared" si="9"/>
+        <v>2 (14)</v>
+      </c>
+      <c r="T224" t="str">
+        <f t="shared" si="10"/>
+        <v>1 (17)</v>
+      </c>
+      <c r="V224" t="str">
+        <f t="shared" si="11"/>
+        <v>1 (13)</v>
+      </c>
+    </row>
+    <row r="225" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D225" t="s">
+        <v>129</v>
+      </c>
+      <c r="E225" t="s">
+        <v>130</v>
+      </c>
+      <c r="F225" t="s">
+        <v>131</v>
+      </c>
+      <c r="H225" t="s">
+        <v>152</v>
+      </c>
+      <c r="I225" t="s">
+        <v>153</v>
+      </c>
+      <c r="J225" t="s">
+        <v>154</v>
+      </c>
+      <c r="L225" t="str">
+        <f t="shared" si="6"/>
+        <v>1 (20)</v>
+      </c>
+      <c r="N225" t="str">
+        <f t="shared" si="7"/>
+        <v>1 (50)</v>
+      </c>
+      <c r="P225" t="str">
+        <f t="shared" si="8"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="R225" t="str">
+        <f t="shared" si="9"/>
+        <v>1 (17)</v>
+      </c>
+      <c r="T225" t="str">
+        <f t="shared" si="10"/>
+        <v>1 (33)</v>
+      </c>
+      <c r="V225" t="str">
+        <f t="shared" si="11"/>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="226" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D226" t="s">
+        <v>132</v>
+      </c>
+      <c r="E226" t="s">
+        <v>133</v>
+      </c>
+      <c r="F226" t="s">
+        <v>122</v>
+      </c>
+      <c r="H226" t="s">
+        <v>153</v>
+      </c>
+      <c r="I226" t="s">
+        <v>137</v>
+      </c>
+      <c r="J226" t="s">
+        <v>122</v>
+      </c>
+      <c r="L226" t="str">
+        <f t="shared" si="6"/>
+        <v>1 (20)</v>
+      </c>
+      <c r="N226" t="str">
+        <f t="shared" si="7"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="P226" t="str">
+        <f t="shared" si="8"/>
+        <v>1 (25)</v>
+      </c>
+      <c r="R226" t="str">
+        <f t="shared" si="9"/>
+        <v>1 (20)</v>
+      </c>
+      <c r="T226" t="str">
+        <f t="shared" si="10"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="V226" t="str">
+        <f t="shared" si="11"/>
+        <v>1 (25)</v>
+      </c>
+    </row>
+    <row r="227" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D227" t="s">
+        <v>132</v>
+      </c>
+      <c r="E227" t="s">
+        <v>122</v>
+      </c>
+      <c r="F227" t="s">
+        <v>134</v>
+      </c>
+      <c r="H227" t="s">
+        <v>132</v>
+      </c>
+      <c r="I227" t="s">
+        <v>122</v>
+      </c>
+      <c r="J227" t="s">
+        <v>134</v>
+      </c>
+      <c r="L227" t="str">
+        <f t="shared" si="6"/>
+        <v>15 (83)</v>
+      </c>
+      <c r="N227" t="str">
+        <f t="shared" si="7"/>
+        <v>14 (93)</v>
+      </c>
+      <c r="P227" t="str">
+        <f t="shared" si="8"/>
+        <v>1 (33)</v>
+      </c>
+      <c r="R227" t="str">
+        <f t="shared" si="9"/>
+        <v>1 (5)</v>
+      </c>
+      <c r="T227" t="str">
+        <f t="shared" si="10"/>
+        <v>1 (6)</v>
+      </c>
+      <c r="V227" t="str">
+        <f t="shared" si="11"/>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="228" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D228" t="s">
+        <v>135</v>
+      </c>
+      <c r="E228" t="s">
+        <v>136</v>
+      </c>
+      <c r="F228" t="s">
+        <v>137</v>
+      </c>
+      <c r="H228" t="s">
+        <v>155</v>
+      </c>
+      <c r="I228" t="s">
+        <v>156</v>
+      </c>
+      <c r="J228" t="s">
+        <v>122</v>
+      </c>
+      <c r="L228" t="str">
+        <f t="shared" si="6"/>
+        <v>4 (100)</v>
+      </c>
+      <c r="N228" t="str">
+        <f t="shared" si="7"/>
+        <v>1 (100)</v>
+      </c>
+      <c r="P228" t="str">
+        <f t="shared" si="8"/>
+        <v>3 (100)</v>
+      </c>
+      <c r="R228" t="str">
+        <f t="shared" si="9"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="T228" t="str">
+        <f t="shared" si="10"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="V228" t="str">
+        <f t="shared" si="11"/>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="229" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D229" t="s">
+        <v>138</v>
+      </c>
+      <c r="E229" t="s">
+        <v>139</v>
+      </c>
+      <c r="F229" t="s">
+        <v>140</v>
+      </c>
+      <c r="H229" t="s">
+        <v>122</v>
+      </c>
+      <c r="I229" t="s">
+        <v>122</v>
+      </c>
+      <c r="J229" t="s">
+        <v>122</v>
+      </c>
+      <c r="L229" t="str">
+        <f t="shared" si="6"/>
+        <v>21 (75)</v>
+      </c>
+      <c r="N229" t="str">
+        <f t="shared" si="7"/>
+        <v>16 (76)</v>
+      </c>
+      <c r="P229" t="str">
+        <f t="shared" si="8"/>
+        <v>5 (71)</v>
+      </c>
+      <c r="R229" t="str">
+        <f t="shared" si="9"/>
+        <v>2 (7)</v>
+      </c>
+      <c r="T229" t="str">
+        <f t="shared" si="10"/>
+        <v>2 (9)</v>
+      </c>
+      <c r="V229" t="str">
+        <f t="shared" si="11"/>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="230" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D230" t="s">
+        <v>141</v>
+      </c>
+      <c r="E230" t="s">
+        <v>142</v>
+      </c>
+      <c r="F230" t="s">
+        <v>143</v>
+      </c>
+      <c r="H230" t="s">
+        <v>157</v>
+      </c>
+      <c r="I230" t="s">
+        <v>128</v>
+      </c>
+      <c r="J230" t="s">
+        <v>122</v>
+      </c>
+      <c r="L230" t="str">
+        <f t="shared" si="6"/>
+        <v>6 (75)</v>
+      </c>
+      <c r="N230" t="str">
+        <f t="shared" si="7"/>
+        <v>1 (50)</v>
+      </c>
+      <c r="P230" t="str">
+        <f t="shared" si="8"/>
+        <v>5 (83)</v>
+      </c>
+      <c r="R230" t="str">
+        <f t="shared" si="9"/>
+        <v>1 (13)</v>
+      </c>
+      <c r="T230" t="str">
+        <f t="shared" si="10"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="V230" t="str">
+        <f t="shared" si="11"/>
+        <v>1 (17)</v>
+      </c>
+    </row>
+    <row r="231" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D231" t="s">
+        <v>144</v>
+      </c>
+      <c r="E231" t="s">
+        <v>133</v>
+      </c>
+      <c r="F231" t="s">
+        <v>145</v>
+      </c>
+      <c r="H231" t="s">
+        <v>154</v>
+      </c>
+      <c r="I231" t="s">
+        <v>122</v>
+      </c>
+      <c r="J231" t="s">
+        <v>153</v>
+      </c>
+      <c r="L231" t="str">
+        <f t="shared" si="6"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="N231" t="str">
+        <f t="shared" si="7"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="P231" t="str">
+        <f t="shared" si="8"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="R231" t="str">
+        <f t="shared" si="9"/>
+        <v>2 (40)</v>
+      </c>
+      <c r="T231" t="str">
+        <f t="shared" si="10"/>
+        <v>2 (67)</v>
+      </c>
+      <c r="V231" t="str">
+        <f t="shared" si="11"/>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="232" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D232" t="s">
+        <v>122</v>
+      </c>
+      <c r="E232" t="s">
+        <v>122</v>
+      </c>
+      <c r="F232" t="s">
+        <v>122</v>
+      </c>
+      <c r="H232" t="s">
+        <v>158</v>
+      </c>
+      <c r="I232" t="s">
+        <v>159</v>
+      </c>
+      <c r="J232" t="s">
+        <v>122</v>
+      </c>
+      <c r="L232" t="str">
+        <f>_xlfn.CONCAT(P220," (",ROUND(Q220,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="N232" t="s">
+        <v>122</v>
+      </c>
+      <c r="P232" t="str">
+        <f t="shared" ref="P232" si="12">_xlfn.CONCAT(T220," (",ROUND(U220,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="R232" t="str">
+        <f>_xlfn.CONCAT(V220," (",ROUND(W220,0),")")</f>
+        <v>3 (50)</v>
+      </c>
+      <c r="T232" t="s">
+        <v>122</v>
+      </c>
+      <c r="V232" t="str">
+        <f t="shared" ref="V232" si="13">_xlfn.CONCAT(Z220," (",ROUND(AA220,0),")")</f>
+        <v>3 (50)</v>
+      </c>
+    </row>
+    <row r="233" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D233" t="s">
+        <v>122</v>
+      </c>
+      <c r="E233" t="s">
+        <v>122</v>
+      </c>
+      <c r="F233" t="s">
+        <v>122</v>
+      </c>
+      <c r="H233" t="s">
+        <v>160</v>
+      </c>
+      <c r="I233" t="s">
+        <v>122</v>
+      </c>
+      <c r="J233" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="236" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="N236" t="s">
+        <v>64</v>
+      </c>
+      <c r="O236" t="s">
+        <v>65</v>
+      </c>
+      <c r="P236" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>67</v>
+      </c>
+      <c r="R236" t="s">
+        <v>68</v>
+      </c>
+      <c r="S236" t="s">
+        <v>69</v>
+      </c>
+      <c r="T236" t="s">
+        <v>70</v>
+      </c>
+      <c r="U236" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z236" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC236">
+        <v>2.5688980693231302E-3</v>
+      </c>
+      <c r="AD236" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE236" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF236" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG236">
+        <v>0.24458276581563701</v>
+      </c>
+    </row>
+    <row r="237" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="O237" t="s">
+        <v>71</v>
+      </c>
+      <c r="P237">
+        <v>105</v>
+      </c>
+      <c r="Q237">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="R237">
+        <v>54</v>
+      </c>
+      <c r="S237">
+        <v>88.524590163934405</v>
+      </c>
+      <c r="T237">
+        <v>51</v>
+      </c>
+      <c r="U237">
+        <v>78.461538461538495</v>
+      </c>
+      <c r="V237">
+        <v>0.24458276581563701</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC237">
+        <v>0.62350304511988497</v>
+      </c>
+      <c r="AE237" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF237" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG237">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>72</v>
+      </c>
+      <c r="P238">
+        <v>97</v>
+      </c>
+      <c r="Q238">
+        <v>76.984126984127002</v>
+      </c>
+      <c r="R238">
+        <v>46</v>
+      </c>
+      <c r="S238">
+        <v>75.409836065573799</v>
+      </c>
+      <c r="T238">
+        <v>51</v>
+      </c>
+      <c r="U238">
+        <v>78.461538461538495</v>
+      </c>
+      <c r="V238">
+        <v>0.79151773533647396</v>
+      </c>
+    </row>
+    <row r="239" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="P239" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>66</v>
+      </c>
+      <c r="R239" t="s">
+        <v>67</v>
+      </c>
+      <c r="S239" t="s">
+        <v>68</v>
+      </c>
+      <c r="T239" t="s">
+        <v>69</v>
+      </c>
+      <c r="U239" t="s">
+        <v>70</v>
+      </c>
+      <c r="V239" t="s">
+        <v>116</v>
+      </c>
+      <c r="W239" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="240" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="H240" t="s">
+        <v>123</v>
+      </c>
+      <c r="I240" t="s">
+        <v>124</v>
+      </c>
+      <c r="J240" t="s">
+        <v>125</v>
+      </c>
+      <c r="P240" t="str">
+        <f>_xlfn.CONCAT(P237," (",ROUND(Q237,0),")")</f>
+        <v>105 (83)</v>
+      </c>
+      <c r="R240" t="str">
+        <f>_xlfn.CONCAT(R237," (",ROUND(S237,0),")")</f>
+        <v>54 (89)</v>
+      </c>
+      <c r="T240" t="str">
+        <f>_xlfn.CONCAT(T237," (",ROUND(U237,0),")")</f>
+        <v>51 (78)</v>
+      </c>
+      <c r="U240">
+        <v>0.24458276581563701</v>
+      </c>
+    </row>
+    <row r="241" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="H241" t="s">
+        <v>126</v>
+      </c>
+      <c r="I241" t="s">
+        <v>127</v>
+      </c>
+      <c r="J241" t="s">
+        <v>128</v>
+      </c>
+      <c r="P241" t="str">
+        <f>_xlfn.CONCAT(P238," (",ROUND(Q238,0),")")</f>
+        <v>97 (77)</v>
+      </c>
+      <c r="R241" t="str">
+        <f>_xlfn.CONCAT(R238," (",ROUND(S238,0),")")</f>
+        <v>46 (75)</v>
+      </c>
+      <c r="T241" t="str">
+        <f>_xlfn.CONCAT(T238," (",ROUND(U238,0),")")</f>
+        <v>51 (78)</v>
+      </c>
+      <c r="U241">
+        <v>0.79151773533647396</v>
+      </c>
+    </row>
+    <row r="242" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="H242" t="s">
+        <v>129</v>
+      </c>
+      <c r="I242" t="s">
+        <v>130</v>
+      </c>
+      <c r="J242" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="243" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="H243" t="s">
+        <v>132</v>
+      </c>
+      <c r="I243" t="s">
+        <v>133</v>
+      </c>
+      <c r="J243" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="244" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="H244" t="s">
+        <v>132</v>
+      </c>
+      <c r="I244" t="s">
+        <v>122</v>
+      </c>
+      <c r="J244" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="245" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="H245" t="s">
+        <v>135</v>
+      </c>
+      <c r="I245" t="s">
+        <v>136</v>
+      </c>
+      <c r="J245" t="s">
+        <v>137</v>
+      </c>
+      <c r="L245" t="s">
+        <v>161</v>
+      </c>
+      <c r="M245" t="s">
+        <v>162</v>
+      </c>
+      <c r="N245" t="s">
+        <v>163</v>
+      </c>
+      <c r="O245">
+        <v>0.24458276581563701</v>
+      </c>
+    </row>
+    <row r="246" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="H246" t="s">
+        <v>138</v>
+      </c>
+      <c r="I246" t="s">
+        <v>139</v>
+      </c>
+      <c r="J246" t="s">
+        <v>140</v>
+      </c>
+      <c r="L246" t="s">
+        <v>164</v>
+      </c>
+      <c r="M246" t="s">
+        <v>165</v>
+      </c>
+      <c r="N246" t="s">
+        <v>163</v>
+      </c>
+      <c r="O246">
+        <v>0.79151773533647396</v>
+      </c>
+      <c r="W246" t="s">
+        <v>1</v>
+      </c>
+      <c r="X246" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE246" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF246" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH246" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI246" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ246" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="247" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="H247" t="s">
+        <v>141</v>
+      </c>
+      <c r="I247" t="s">
+        <v>142</v>
+      </c>
+      <c r="J247" t="s">
+        <v>143</v>
+      </c>
+      <c r="V247" t="s">
+        <v>168</v>
+      </c>
+      <c r="W247">
+        <v>56</v>
+      </c>
+      <c r="X247">
+        <v>47.058823529411796</v>
+      </c>
+      <c r="Y247">
+        <v>36</v>
+      </c>
+      <c r="Z247">
+        <v>62.068965517241402</v>
+      </c>
+      <c r="AA247">
+        <v>20</v>
+      </c>
+      <c r="AB247">
+        <v>44.827586206896598</v>
+      </c>
+      <c r="AC247">
+        <v>2.5688980693231302E-3</v>
+      </c>
+      <c r="AD247">
+        <v>25</v>
+      </c>
+      <c r="AE247">
+        <v>19.841269841269799</v>
+      </c>
+      <c r="AF247">
+        <v>9</v>
+      </c>
+      <c r="AG247">
+        <v>14.7540983606557</v>
+      </c>
+      <c r="AH247">
+        <v>16</v>
+      </c>
+      <c r="AI247">
+        <v>24.615384615384599</v>
+      </c>
+      <c r="AJ247">
+        <v>0.24458276581563701</v>
+      </c>
+    </row>
+    <row r="248" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="H248" t="s">
+        <v>144</v>
+      </c>
+      <c r="I248" t="s">
+        <v>133</v>
+      </c>
+      <c r="J248" t="s">
+        <v>145</v>
+      </c>
+      <c r="P248">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q248">
+        <v>0.24</v>
+      </c>
+      <c r="V248" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y248">
+        <v>43</v>
+      </c>
+      <c r="Z248">
+        <v>47.7777777777778</v>
+      </c>
+      <c r="AA248">
+        <v>13</v>
+      </c>
+      <c r="AB248">
+        <v>44.827586206896598</v>
+      </c>
+      <c r="AC248">
+        <v>0.62350304511988497</v>
+      </c>
+      <c r="AF248">
+        <v>19</v>
+      </c>
+      <c r="AG248">
+        <v>20.212765957446798</v>
+      </c>
+      <c r="AH248">
+        <v>6</v>
+      </c>
+      <c r="AI248">
+        <v>18.75</v>
+      </c>
+      <c r="AJ248">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="H249" t="s">
+        <v>122</v>
+      </c>
+      <c r="I249" t="s">
+        <v>122</v>
+      </c>
+      <c r="J249" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="250" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="H250" t="s">
+        <v>122</v>
+      </c>
+      <c r="I250" t="s">
+        <v>122</v>
+      </c>
+      <c r="J250" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="251" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="W251" t="str">
+        <f>_xlfn.CONCAT(W247," (",ROUND(X247,0),")")</f>
+        <v>56 (47)</v>
+      </c>
+      <c r="Y251" t="str">
+        <f>_xlfn.CONCAT(Y247," (",ROUND(Z247,0),")")</f>
+        <v>36 (62)</v>
+      </c>
+      <c r="AA251" t="str">
+        <f>_xlfn.CONCAT(AA247," (",ROUND(AB247,0),")")</f>
+        <v>20 (45)</v>
+      </c>
+      <c r="AD251" t="str">
+        <f>_xlfn.CONCAT(AD247," (",ROUND(AE247,0),")")</f>
+        <v>25 (20)</v>
+      </c>
+      <c r="AF251" t="str">
+        <f>_xlfn.CONCAT(AF247," (",ROUND(AG247,0),")")</f>
+        <v>9 (15)</v>
+      </c>
+      <c r="AH251" t="str">
+        <f>_xlfn.CONCAT(AH247," (",ROUND(AI247,0),")")</f>
+        <v>16 (25)</v>
+      </c>
+    </row>
+    <row r="252" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="Y252" t="str">
+        <f>_xlfn.CONCAT(Y248," (",ROUND(Z248,0),")")</f>
+        <v>43 (48)</v>
+      </c>
+      <c r="AA252" t="str">
+        <f>_xlfn.CONCAT(AA248," (",ROUND(AB248,0),")")</f>
+        <v>13 (45)</v>
+      </c>
+      <c r="AF252" t="str">
+        <f>_xlfn.CONCAT(AF248," (",ROUND(AG248,0),")")</f>
+        <v>19 (20)</v>
+      </c>
+      <c r="AH252" t="str">
+        <f>_xlfn.CONCAT(AH248," (",ROUND(AI248,0),")")</f>
+        <v>6 (19)</v>
+      </c>
+    </row>
+    <row r="256" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C256" t="s">
+        <v>168</v>
+      </c>
+      <c r="D256" t="s">
+        <v>123</v>
+      </c>
+      <c r="E256" t="s">
+        <v>124</v>
+      </c>
+      <c r="F256" t="s">
+        <v>170</v>
+      </c>
+      <c r="G256">
+        <v>2.5688980693231302E-3</v>
+      </c>
+      <c r="H256" t="s">
+        <v>146</v>
+      </c>
+      <c r="I256" t="s">
+        <v>147</v>
+      </c>
+      <c r="J256" t="s">
+        <v>148</v>
+      </c>
+      <c r="K256">
+        <v>0.24458276581563701</v>
+      </c>
+    </row>
+    <row r="257" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C257" t="s">
+        <v>169</v>
+      </c>
+      <c r="E257" t="s">
+        <v>171</v>
+      </c>
+      <c r="F257" t="s">
+        <v>172</v>
+      </c>
+      <c r="G257">
+        <v>0.62350304511988497</v>
+      </c>
+      <c r="I257" t="s">
+        <v>173</v>
+      </c>
+      <c r="J257" t="s">
+        <v>174</v>
+      </c>
+      <c r="K257">
+        <v>0.999999999999999</v>
+      </c>
     </row>
     <row r="666" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E666" s="3"/>
     </row>
-    <row r="674" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L674" s="3"/>
-    </row>
-    <row r="675" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="N675" s="3"/>
-    </row>
-    <row r="723" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="674" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M674" s="3"/>
+    </row>
+    <row r="675" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="O675" s="3"/>
+    </row>
+    <row r="723" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E723" s="3"/>
     </row>
-    <row r="731" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="L731" s="3"/>
-    </row>
-    <row r="732" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="N732" s="3"/>
+    <row r="731" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="M731" s="3"/>
+    </row>
+    <row r="732" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O732" s="3"/>
     </row>
     <row r="828" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E828" s="3"/>
     </row>
-    <row r="836" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L836" s="3"/>
-    </row>
-    <row r="837" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="N837" s="3"/>
-    </row>
-    <row r="885" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="836" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M836" s="3"/>
+    </row>
+    <row r="837" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="O837" s="3"/>
+    </row>
+    <row r="885" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E885" s="3"/>
     </row>
-    <row r="893" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="L893" s="3"/>
-    </row>
-    <row r="894" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="N894" s="3"/>
+    <row r="893" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="M893" s="3"/>
+    </row>
+    <row r="894" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O894" s="3"/>
     </row>
     <row r="938" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E938" s="3"/>
     </row>
-    <row r="946" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L946" s="3"/>
-    </row>
-    <row r="947" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="N947" s="3"/>
+    <row r="946" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M946" s="3"/>
+    </row>
+    <row r="947" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="O947" s="3"/>
     </row>
     <row r="1004" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E1004" s="3"/>
     </row>
-    <row r="1012" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L1012" s="3"/>
-    </row>
-    <row r="1013" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="N1013" s="3"/>
+    <row r="1012" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M1012" s="3"/>
+    </row>
+    <row r="1013" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="O1013" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tablemaker.xlsx
+++ b/tablemaker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4AE1B2-FA11-2F41-B58C-5ED570190365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD25E45-0D43-B141-AB07-6584FEE4CED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{2FB3896E-F88D-7047-98A3-66046D85A977}"/>
+    <workbookView xWindow="9440" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{2FB3896E-F88D-7047-98A3-66046D85A977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="242">
   <si>
     <t>Indication</t>
   </si>
@@ -562,6 +562,207 @@
   </si>
   <si>
     <t>6 (19)</t>
+  </si>
+  <si>
+    <t>Positivitynumbers</t>
+  </si>
+  <si>
+    <t>Positivityrate</t>
+  </si>
+  <si>
+    <t>Terminationnumbers</t>
+  </si>
+  <si>
+    <t>Temination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preceded </t>
+  </si>
+  <si>
+    <t>Ambi</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>7 (22)</t>
+  </si>
+  <si>
+    <t>10 (30)</t>
+  </si>
+  <si>
+    <t>4 (24)</t>
+  </si>
+  <si>
+    <t>7 (41)</t>
+  </si>
+  <si>
+    <t>3 (20)</t>
+  </si>
+  <si>
+    <t>3 (19)</t>
+  </si>
+  <si>
+    <t>61 (48)</t>
+  </si>
+  <si>
+    <t>17 (13)</t>
+  </si>
+  <si>
+    <t>16 (13)</t>
+  </si>
+  <si>
+    <t>32 (25)</t>
+  </si>
+  <si>
+    <t>7 (23)</t>
+  </si>
+  <si>
+    <t>6 (20)</t>
+  </si>
+  <si>
+    <t>10 (33)</t>
+  </si>
+  <si>
+    <t>6 (43)</t>
+  </si>
+  <si>
+    <t>4 (29)</t>
+  </si>
+  <si>
+    <t>4 (80)</t>
+  </si>
+  <si>
+    <t>16 (84)</t>
+  </si>
+  <si>
+    <t>3 (16)</t>
+  </si>
+  <si>
+    <t>21 (72)</t>
+  </si>
+  <si>
+    <t>5 (17)</t>
+  </si>
+  <si>
+    <t>1 (3)</t>
+  </si>
+  <si>
+    <t>2 (25)</t>
+  </si>
+  <si>
+    <t>5 (63)</t>
+  </si>
+  <si>
+    <t>3 (60)</t>
+  </si>
+  <si>
+    <t>62 (49)</t>
+  </si>
+  <si>
+    <t>15 (12)</t>
+  </si>
+  <si>
+    <t>22 (76)</t>
+  </si>
+  <si>
+    <t>4 (14)</t>
+  </si>
+  <si>
+    <t>4 (57)</t>
+  </si>
+  <si>
+    <t>36 (61)</t>
+  </si>
+  <si>
+    <t>11 (34)</t>
+  </si>
+  <si>
+    <t>3 (21)</t>
+  </si>
+  <si>
+    <t>4 (27)</t>
+  </si>
+  <si>
+    <t>Precedednumbers</t>
+  </si>
+  <si>
+    <t>Precededrates</t>
+  </si>
+  <si>
+    <t>Negativenumb</t>
+  </si>
+  <si>
+    <t>Negativerate</t>
+  </si>
+  <si>
+    <t>NAnumber</t>
+  </si>
+  <si>
+    <t>NArates</t>
+  </si>
+  <si>
+    <t>TBnumber</t>
+  </si>
+  <si>
+    <t>TBrates</t>
+  </si>
+  <si>
+    <t>Positivity Rate</t>
+  </si>
+  <si>
+    <t>Termination Rate</t>
+  </si>
+  <si>
+    <t>Preceded</t>
+  </si>
+  <si>
+    <t>Neg</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Precededdenominator</t>
+  </si>
+  <si>
+    <t>Negdenominator</t>
+  </si>
+  <si>
+    <t>NAPrecededdenominator</t>
+  </si>
+  <si>
+    <t>TBdenominator</t>
+  </si>
+  <si>
+    <t>6/32 (19)</t>
+  </si>
+  <si>
+    <t>4/15 (27)</t>
+  </si>
+  <si>
+    <t>7/17 (41)</t>
+  </si>
+  <si>
+    <t>9/62 (15)</t>
+  </si>
+  <si>
+    <t>13/29 (45)</t>
+  </si>
+  <si>
+    <t>3/14 (21)</t>
+  </si>
+  <si>
+    <t>4/17 (24)</t>
+  </si>
+  <si>
+    <t>36/59 (61)</t>
   </si>
 </sst>
 </file>
@@ -571,13 +772,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -600,11 +814,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1719,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294E0594-3744-E74C-86C9-C5E21F32E816}">
   <dimension ref="A4:AJ1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="C256" sqref="C256:K257"/>
+    <sheetView tabSelected="1" topLeftCell="I331" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N349" sqref="K349:N350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7489,7 +7707,7 @@
         <v>0.24458276581563701</v>
       </c>
     </row>
-    <row r="257" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C257" t="s">
         <v>169</v>
       </c>
@@ -7510,6 +7728,1784 @@
       </c>
       <c r="K257">
         <v>0.999999999999999</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>0</v>
+      </c>
+      <c r="R257" t="s">
+        <v>175</v>
+      </c>
+      <c r="S257" t="s">
+        <v>176</v>
+      </c>
+      <c r="T257" t="s">
+        <v>177</v>
+      </c>
+      <c r="U257" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="258" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="P258">
+        <v>1</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>179</v>
+      </c>
+      <c r="R258">
+        <v>36</v>
+      </c>
+      <c r="S258">
+        <v>62.068965517241402</v>
+      </c>
+      <c r="T258">
+        <v>9</v>
+      </c>
+      <c r="U258">
+        <v>14.7540983606557</v>
+      </c>
+      <c r="W258" t="s">
+        <v>0</v>
+      </c>
+      <c r="X258" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="259" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="P259">
+        <v>2</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>180</v>
+      </c>
+      <c r="R259">
+        <v>7</v>
+      </c>
+      <c r="S259">
+        <v>21.875</v>
+      </c>
+      <c r="T259">
+        <v>10</v>
+      </c>
+      <c r="U259">
+        <v>30.303030303030301</v>
+      </c>
+      <c r="W259">
+        <v>1</v>
+      </c>
+      <c r="X259" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y259">
+        <v>36</v>
+      </c>
+      <c r="Z259">
+        <v>62.068965517241402</v>
+      </c>
+      <c r="AA259">
+        <v>9</v>
+      </c>
+      <c r="AB259">
+        <v>14.7540983606557</v>
+      </c>
+    </row>
+    <row r="260" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="P260">
+        <v>3</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>181</v>
+      </c>
+      <c r="R260">
+        <v>13</v>
+      </c>
+      <c r="S260">
+        <v>44.827586206896598</v>
+      </c>
+      <c r="T260">
+        <v>6</v>
+      </c>
+      <c r="U260">
+        <v>18.75</v>
+      </c>
+      <c r="W260">
+        <v>2</v>
+      </c>
+      <c r="X260" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y260">
+        <v>7</v>
+      </c>
+      <c r="Z260">
+        <v>21.875</v>
+      </c>
+      <c r="AA260">
+        <v>10</v>
+      </c>
+      <c r="AB260">
+        <v>30.303030303030301</v>
+      </c>
+    </row>
+    <row r="261" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="W261">
+        <v>3</v>
+      </c>
+      <c r="X261" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y261">
+        <v>4</v>
+      </c>
+      <c r="Z261">
+        <v>23.529411764705898</v>
+      </c>
+      <c r="AA261">
+        <v>7</v>
+      </c>
+      <c r="AB261">
+        <v>41.176470588235297</v>
+      </c>
+    </row>
+    <row r="262" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="R262" t="str">
+        <f>_xlfn.CONCAT(R258," (",ROUND(S258,0),")")</f>
+        <v>36 (62)</v>
+      </c>
+      <c r="S262" t="str">
+        <f>_xlfn.CONCAT(T258," (",ROUND(U258,0),")")</f>
+        <v>9 (15)</v>
+      </c>
+      <c r="W262">
+        <v>4</v>
+      </c>
+      <c r="X262" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y262">
+        <v>3</v>
+      </c>
+      <c r="Z262">
+        <v>20</v>
+      </c>
+      <c r="AA262">
+        <v>3</v>
+      </c>
+      <c r="AB262">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="263" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="R263" t="str">
+        <f t="shared" ref="R263:R264" si="14">_xlfn.CONCAT(R259," (",ROUND(S259,0),")")</f>
+        <v>7 (22)</v>
+      </c>
+      <c r="S263" t="str">
+        <f t="shared" ref="S263:S264" si="15">_xlfn.CONCAT(T259," (",ROUND(U259,0),")")</f>
+        <v>10 (30)</v>
+      </c>
+      <c r="W263">
+        <v>5</v>
+      </c>
+      <c r="X263" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y263">
+        <v>13</v>
+      </c>
+      <c r="Z263">
+        <v>44.827586206896598</v>
+      </c>
+      <c r="AA263">
+        <v>6</v>
+      </c>
+      <c r="AB263">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="264" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="R264" t="str">
+        <f t="shared" si="14"/>
+        <v>13 (45)</v>
+      </c>
+      <c r="S264" t="str">
+        <f t="shared" si="15"/>
+        <v>6 (19)</v>
+      </c>
+    </row>
+    <row r="265" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Y265" t="str">
+        <f>_xlfn.CONCAT(Y259," (",ROUND(Z259,0),")")</f>
+        <v>36 (62)</v>
+      </c>
+      <c r="AA265" t="str">
+        <f>_xlfn.CONCAT(AA259," (",ROUND(AB259,0),")")</f>
+        <v>9 (15)</v>
+      </c>
+    </row>
+    <row r="266" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Y266" t="str">
+        <f t="shared" ref="Y266" si="16">_xlfn.CONCAT(Y260," (",ROUND(Z260,0),")")</f>
+        <v>7 (22)</v>
+      </c>
+      <c r="AA266" t="str">
+        <f t="shared" ref="AA266" si="17">_xlfn.CONCAT(AA260," (",ROUND(AB260,0),")")</f>
+        <v>10 (30)</v>
+      </c>
+    </row>
+    <row r="267" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="X267" t="str">
+        <f>_xlfn.CONCAT(Y261," (",ROUND(Z261,0),")")</f>
+        <v>4 (24)</v>
+      </c>
+      <c r="Z267" t="str">
+        <f>_xlfn.CONCAT(AA261," (",ROUND(AB261,0),")")</f>
+        <v>7 (41)</v>
+      </c>
+    </row>
+    <row r="268" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="X268" t="str">
+        <f>_xlfn.CONCAT(Y262," (",ROUND(Z262,0),")")</f>
+        <v>3 (20)</v>
+      </c>
+      <c r="Z268" t="str">
+        <f>_xlfn.CONCAT(AA262," (",ROUND(AB262,0),")")</f>
+        <v>3 (19)</v>
+      </c>
+    </row>
+    <row r="269" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="J269" t="s">
+        <v>124</v>
+      </c>
+      <c r="K269" t="s">
+        <v>147</v>
+      </c>
+      <c r="X269" t="str">
+        <f>_xlfn.CONCAT(Y263," (",ROUND(Z263,0),")")</f>
+        <v>13 (45)</v>
+      </c>
+      <c r="Z269" t="str">
+        <f>_xlfn.CONCAT(AA263," (",ROUND(AB263,0),")")</f>
+        <v>6 (19)</v>
+      </c>
+    </row>
+    <row r="270" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="J270" t="s">
+        <v>184</v>
+      </c>
+      <c r="K270" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="271" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="J271" t="s">
+        <v>186</v>
+      </c>
+      <c r="K271" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="272" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="J272" t="s">
+        <v>188</v>
+      </c>
+      <c r="K272" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="273" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="J273" t="s">
+        <v>172</v>
+      </c>
+      <c r="K273" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="279" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N279" t="s">
+        <v>0</v>
+      </c>
+      <c r="O279" t="s">
+        <v>79</v>
+      </c>
+      <c r="P279" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>81</v>
+      </c>
+      <c r="R279" t="s">
+        <v>108</v>
+      </c>
+      <c r="S279" t="s">
+        <v>109</v>
+      </c>
+      <c r="T279" t="s">
+        <v>110</v>
+      </c>
+      <c r="U279" t="s">
+        <v>111</v>
+      </c>
+      <c r="V279" t="s">
+        <v>84</v>
+      </c>
+      <c r="W279" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="280" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N280">
+        <v>1</v>
+      </c>
+      <c r="O280" t="s">
+        <v>86</v>
+      </c>
+      <c r="P280">
+        <v>126</v>
+      </c>
+      <c r="Q280">
+        <v>62</v>
+      </c>
+      <c r="R280">
+        <v>49.206349206349202</v>
+      </c>
+      <c r="S280">
+        <v>17</v>
+      </c>
+      <c r="T280">
+        <v>13.492063492063499</v>
+      </c>
+      <c r="U280">
+        <v>15</v>
+      </c>
+      <c r="V280">
+        <v>11.9047619047619</v>
+      </c>
+      <c r="W280">
+        <v>32</v>
+      </c>
+      <c r="X280">
+        <v>25.396825396825399</v>
+      </c>
+    </row>
+    <row r="281" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281" t="s">
+        <v>14</v>
+      </c>
+      <c r="P281">
+        <v>30</v>
+      </c>
+      <c r="Q281">
+        <v>7</v>
+      </c>
+      <c r="R281">
+        <v>23.3333333333333</v>
+      </c>
+      <c r="S281">
+        <v>7</v>
+      </c>
+      <c r="T281">
+        <v>23.3333333333333</v>
+      </c>
+      <c r="U281">
+        <v>6</v>
+      </c>
+      <c r="V281">
+        <v>20</v>
+      </c>
+      <c r="W281">
+        <v>10</v>
+      </c>
+      <c r="X281">
+        <v>33.3333333333333</v>
+      </c>
+    </row>
+    <row r="282" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="O282" t="s">
+        <v>15</v>
+      </c>
+      <c r="P282">
+        <v>14</v>
+      </c>
+      <c r="Q282">
+        <v>6</v>
+      </c>
+      <c r="R282">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="S282">
+        <v>0</v>
+      </c>
+      <c r="T282">
+        <v>0</v>
+      </c>
+      <c r="U282">
+        <v>4</v>
+      </c>
+      <c r="V282">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="W282">
+        <v>4</v>
+      </c>
+      <c r="X282">
+        <v>28.571428571428601</v>
+      </c>
+    </row>
+    <row r="283" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N283">
+        <v>4</v>
+      </c>
+      <c r="O283" t="s">
+        <v>16</v>
+      </c>
+      <c r="P283">
+        <v>5</v>
+      </c>
+      <c r="Q283">
+        <v>3</v>
+      </c>
+      <c r="R283">
+        <v>60</v>
+      </c>
+      <c r="S283">
+        <v>1</v>
+      </c>
+      <c r="T283">
+        <v>20</v>
+      </c>
+      <c r="U283">
+        <v>1</v>
+      </c>
+      <c r="V283">
+        <v>20</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N284">
+        <v>5</v>
+      </c>
+      <c r="O284" t="s">
+        <v>17</v>
+      </c>
+      <c r="P284">
+        <v>5</v>
+      </c>
+      <c r="Q284">
+        <v>1</v>
+      </c>
+      <c r="R284">
+        <v>20</v>
+      </c>
+      <c r="S284">
+        <v>2</v>
+      </c>
+      <c r="T284">
+        <v>40</v>
+      </c>
+      <c r="U284">
+        <v>1</v>
+      </c>
+      <c r="V284">
+        <v>20</v>
+      </c>
+      <c r="W284">
+        <v>1</v>
+      </c>
+      <c r="X284">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N285">
+        <v>6</v>
+      </c>
+      <c r="O285" t="s">
+        <v>18</v>
+      </c>
+      <c r="P285">
+        <v>19</v>
+      </c>
+      <c r="Q285">
+        <v>16</v>
+      </c>
+      <c r="R285">
+        <v>84.210526315789494</v>
+      </c>
+      <c r="S285">
+        <v>0</v>
+      </c>
+      <c r="T285">
+        <v>0</v>
+      </c>
+      <c r="U285">
+        <v>0</v>
+      </c>
+      <c r="V285">
+        <v>0</v>
+      </c>
+      <c r="W285">
+        <v>3</v>
+      </c>
+      <c r="X285">
+        <v>15.789473684210501</v>
+      </c>
+    </row>
+    <row r="286" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N286">
+        <v>7</v>
+      </c>
+      <c r="O286" t="s">
+        <v>88</v>
+      </c>
+      <c r="P286">
+        <v>4</v>
+      </c>
+      <c r="Q286">
+        <v>1</v>
+      </c>
+      <c r="R286">
+        <v>25</v>
+      </c>
+      <c r="S286">
+        <v>1</v>
+      </c>
+      <c r="T286">
+        <v>25</v>
+      </c>
+      <c r="U286">
+        <v>1</v>
+      </c>
+      <c r="V286">
+        <v>25</v>
+      </c>
+      <c r="W286">
+        <v>1</v>
+      </c>
+      <c r="X286">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N287">
+        <v>8</v>
+      </c>
+      <c r="O287" t="s">
+        <v>20</v>
+      </c>
+      <c r="P287">
+        <v>29</v>
+      </c>
+      <c r="Q287">
+        <v>22</v>
+      </c>
+      <c r="R287">
+        <v>75.862068965517196</v>
+      </c>
+      <c r="S287">
+        <v>4</v>
+      </c>
+      <c r="T287">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="U287">
+        <v>0</v>
+      </c>
+      <c r="V287">
+        <v>0</v>
+      </c>
+      <c r="W287">
+        <v>3</v>
+      </c>
+      <c r="X287">
+        <v>10.3448275862069</v>
+      </c>
+    </row>
+    <row r="288" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N288">
+        <v>9</v>
+      </c>
+      <c r="O288" t="s">
+        <v>21</v>
+      </c>
+      <c r="P288">
+        <v>8</v>
+      </c>
+      <c r="Q288">
+        <v>2</v>
+      </c>
+      <c r="R288">
+        <v>25</v>
+      </c>
+      <c r="S288">
+        <v>1</v>
+      </c>
+      <c r="T288">
+        <v>12.5</v>
+      </c>
+      <c r="U288">
+        <v>0</v>
+      </c>
+      <c r="V288">
+        <v>0</v>
+      </c>
+      <c r="W288">
+        <v>5</v>
+      </c>
+      <c r="X288">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="289" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="N289">
+        <v>10</v>
+      </c>
+      <c r="O289" t="s">
+        <v>22</v>
+      </c>
+      <c r="P289">
+        <v>5</v>
+      </c>
+      <c r="Q289">
+        <v>3</v>
+      </c>
+      <c r="R289">
+        <v>60</v>
+      </c>
+      <c r="S289">
+        <v>0</v>
+      </c>
+      <c r="T289">
+        <v>0</v>
+      </c>
+      <c r="U289">
+        <v>1</v>
+      </c>
+      <c r="V289">
+        <v>20</v>
+      </c>
+      <c r="W289">
+        <v>1</v>
+      </c>
+      <c r="X289">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="N290">
+        <v>11</v>
+      </c>
+      <c r="O290" t="s">
+        <v>23</v>
+      </c>
+      <c r="P290">
+        <v>7</v>
+      </c>
+      <c r="Q290">
+        <v>1</v>
+      </c>
+      <c r="R290">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="S290">
+        <v>1</v>
+      </c>
+      <c r="T290">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="U290">
+        <v>1</v>
+      </c>
+      <c r="V290">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="W290">
+        <v>4</v>
+      </c>
+      <c r="X290">
+        <v>57.142857142857103</v>
+      </c>
+    </row>
+    <row r="293" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="N293" t="str">
+        <f t="shared" ref="N293:N303" si="18">_xlfn.CONCAT(Q280," (",ROUND(R280,0),")")</f>
+        <v>62 (49)</v>
+      </c>
+      <c r="P293" t="str">
+        <f>_xlfn.CONCAT(S280," (",ROUND(T280,0),")")</f>
+        <v>17 (13)</v>
+      </c>
+      <c r="R293" t="str">
+        <f>_xlfn.CONCAT(U280," (",ROUND(V280,0),")")</f>
+        <v>15 (12)</v>
+      </c>
+      <c r="T293" t="str">
+        <f>_xlfn.CONCAT(W280," (",ROUND(X280,0),")")</f>
+        <v>32 (25)</v>
+      </c>
+    </row>
+    <row r="294" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H294" t="s">
+        <v>190</v>
+      </c>
+      <c r="I294" t="s">
+        <v>191</v>
+      </c>
+      <c r="J294" t="s">
+        <v>192</v>
+      </c>
+      <c r="K294" t="s">
+        <v>193</v>
+      </c>
+      <c r="N294" t="str">
+        <f t="shared" si="18"/>
+        <v>7 (23)</v>
+      </c>
+      <c r="P294" t="str">
+        <f t="shared" ref="P294:P303" si="19">_xlfn.CONCAT(S281," (",ROUND(T281,0),")")</f>
+        <v>7 (23)</v>
+      </c>
+      <c r="R294" t="str">
+        <f t="shared" ref="R294:R303" si="20">_xlfn.CONCAT(U281," (",ROUND(V281,0),")")</f>
+        <v>6 (20)</v>
+      </c>
+      <c r="T294" t="str">
+        <f t="shared" ref="T294:T303" si="21">_xlfn.CONCAT(W281," (",ROUND(X281,0),")")</f>
+        <v>10 (33)</v>
+      </c>
+    </row>
+    <row r="295" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H295" t="s">
+        <v>194</v>
+      </c>
+      <c r="I295" t="s">
+        <v>194</v>
+      </c>
+      <c r="J295" t="s">
+        <v>195</v>
+      </c>
+      <c r="K295" t="s">
+        <v>196</v>
+      </c>
+      <c r="N295" t="str">
+        <f t="shared" si="18"/>
+        <v>6 (43)</v>
+      </c>
+      <c r="P295" t="str">
+        <f t="shared" si="19"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="R295" t="str">
+        <f t="shared" si="20"/>
+        <v>4 (29)</v>
+      </c>
+      <c r="T295" t="str">
+        <f t="shared" si="21"/>
+        <v>4 (29)</v>
+      </c>
+    </row>
+    <row r="296" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H296" t="s">
+        <v>197</v>
+      </c>
+      <c r="I296" t="s">
+        <v>122</v>
+      </c>
+      <c r="J296" t="s">
+        <v>198</v>
+      </c>
+      <c r="K296" t="s">
+        <v>198</v>
+      </c>
+      <c r="N296" t="str">
+        <f t="shared" si="18"/>
+        <v>3 (60)</v>
+      </c>
+      <c r="P296" t="str">
+        <f t="shared" si="19"/>
+        <v>1 (20)</v>
+      </c>
+      <c r="R296" t="str">
+        <f t="shared" si="20"/>
+        <v>1 (20)</v>
+      </c>
+      <c r="T296" t="str">
+        <f t="shared" si="21"/>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="297" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H297" t="s">
+        <v>199</v>
+      </c>
+      <c r="I297" t="s">
+        <v>122</v>
+      </c>
+      <c r="J297" t="s">
+        <v>132</v>
+      </c>
+      <c r="K297" t="s">
+        <v>122</v>
+      </c>
+      <c r="N297" t="str">
+        <f t="shared" si="18"/>
+        <v>1 (20)</v>
+      </c>
+      <c r="P297" t="str">
+        <f t="shared" si="19"/>
+        <v>2 (40)</v>
+      </c>
+      <c r="R297" t="str">
+        <f t="shared" si="20"/>
+        <v>1 (20)</v>
+      </c>
+      <c r="T297" t="str">
+        <f t="shared" si="21"/>
+        <v>1 (20)</v>
+      </c>
+    </row>
+    <row r="298" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H298" t="s">
+        <v>132</v>
+      </c>
+      <c r="I298" t="s">
+        <v>158</v>
+      </c>
+      <c r="J298" t="s">
+        <v>132</v>
+      </c>
+      <c r="K298" t="s">
+        <v>132</v>
+      </c>
+      <c r="N298" t="str">
+        <f t="shared" si="18"/>
+        <v>16 (84)</v>
+      </c>
+      <c r="P298" t="str">
+        <f t="shared" si="19"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="R298" t="str">
+        <f t="shared" si="20"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="T298" t="str">
+        <f t="shared" si="21"/>
+        <v>3 (16)</v>
+      </c>
+    </row>
+    <row r="299" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H299" t="s">
+        <v>200</v>
+      </c>
+      <c r="I299" t="s">
+        <v>122</v>
+      </c>
+      <c r="J299" t="s">
+        <v>122</v>
+      </c>
+      <c r="K299" t="s">
+        <v>201</v>
+      </c>
+      <c r="N299" t="str">
+        <f t="shared" si="18"/>
+        <v>1 (25)</v>
+      </c>
+      <c r="P299" t="str">
+        <f t="shared" si="19"/>
+        <v>1 (25)</v>
+      </c>
+      <c r="R299" t="str">
+        <f t="shared" si="20"/>
+        <v>1 (25)</v>
+      </c>
+      <c r="T299" t="str">
+        <f t="shared" si="21"/>
+        <v>1 (25)</v>
+      </c>
+    </row>
+    <row r="300" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H300" t="s">
+        <v>134</v>
+      </c>
+      <c r="I300" t="s">
+        <v>134</v>
+      </c>
+      <c r="J300" t="s">
+        <v>134</v>
+      </c>
+      <c r="K300" t="s">
+        <v>134</v>
+      </c>
+      <c r="N300" t="str">
+        <f t="shared" si="18"/>
+        <v>22 (76)</v>
+      </c>
+      <c r="P300" t="str">
+        <f t="shared" si="19"/>
+        <v>4 (14)</v>
+      </c>
+      <c r="R300" t="str">
+        <f t="shared" si="20"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="T300" t="str">
+        <f t="shared" si="21"/>
+        <v>3 (10)</v>
+      </c>
+    </row>
+    <row r="301" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H301" t="s">
+        <v>202</v>
+      </c>
+      <c r="I301" t="s">
+        <v>203</v>
+      </c>
+      <c r="J301" t="s">
+        <v>204</v>
+      </c>
+      <c r="K301" t="s">
+        <v>157</v>
+      </c>
+      <c r="N301" t="str">
+        <f t="shared" si="18"/>
+        <v>2 (25)</v>
+      </c>
+      <c r="P301" t="str">
+        <f t="shared" si="19"/>
+        <v>1 (13)</v>
+      </c>
+      <c r="R301" t="str">
+        <f t="shared" si="20"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="T301" t="str">
+        <f t="shared" si="21"/>
+        <v>5 (63)</v>
+      </c>
+    </row>
+    <row r="302" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H302" t="s">
+        <v>205</v>
+      </c>
+      <c r="I302" t="s">
+        <v>154</v>
+      </c>
+      <c r="J302" t="s">
+        <v>122</v>
+      </c>
+      <c r="K302" t="s">
+        <v>206</v>
+      </c>
+      <c r="N302" t="str">
+        <f t="shared" si="18"/>
+        <v>3 (60)</v>
+      </c>
+      <c r="P302" t="str">
+        <f t="shared" si="19"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="R302" t="str">
+        <f t="shared" si="20"/>
+        <v>1 (20)</v>
+      </c>
+      <c r="T302" t="str">
+        <f t="shared" si="21"/>
+        <v>1 (20)</v>
+      </c>
+    </row>
+    <row r="303" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H303" t="s">
+        <v>207</v>
+      </c>
+      <c r="I303" t="s">
+        <v>122</v>
+      </c>
+      <c r="J303" t="s">
+        <v>132</v>
+      </c>
+      <c r="K303" t="s">
+        <v>132</v>
+      </c>
+      <c r="N303" t="str">
+        <f t="shared" si="18"/>
+        <v>1 (14)</v>
+      </c>
+      <c r="P303" t="str">
+        <f t="shared" si="19"/>
+        <v>1 (14)</v>
+      </c>
+      <c r="R303" t="str">
+        <f t="shared" si="20"/>
+        <v>1 (14)</v>
+      </c>
+      <c r="T303" t="str">
+        <f t="shared" si="21"/>
+        <v>4 (57)</v>
+      </c>
+    </row>
+    <row r="304" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H304" t="s">
+        <v>122</v>
+      </c>
+      <c r="I304" t="s">
+        <v>127</v>
+      </c>
+      <c r="J304" t="s">
+        <v>127</v>
+      </c>
+      <c r="K304" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="308" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H308" t="s">
+        <v>208</v>
+      </c>
+      <c r="I308" t="s">
+        <v>191</v>
+      </c>
+      <c r="J308" t="s">
+        <v>209</v>
+      </c>
+      <c r="K308" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="309" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H309" t="s">
+        <v>194</v>
+      </c>
+      <c r="I309" t="s">
+        <v>194</v>
+      </c>
+      <c r="J309" t="s">
+        <v>195</v>
+      </c>
+      <c r="K309" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="310" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H310" t="s">
+        <v>197</v>
+      </c>
+      <c r="I310" t="s">
+        <v>122</v>
+      </c>
+      <c r="J310" t="s">
+        <v>198</v>
+      </c>
+      <c r="K310" t="s">
+        <v>198</v>
+      </c>
+      <c r="N310" s="4"/>
+      <c r="O310" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P310" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>176</v>
+      </c>
+      <c r="R310" t="s">
+        <v>177</v>
+      </c>
+      <c r="S310" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="311" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H311" t="s">
+        <v>207</v>
+      </c>
+      <c r="I311" t="s">
+        <v>132</v>
+      </c>
+      <c r="J311" t="s">
+        <v>132</v>
+      </c>
+      <c r="K311" t="s">
+        <v>122</v>
+      </c>
+      <c r="N311" s="4">
+        <v>1</v>
+      </c>
+      <c r="O311" t="s">
+        <v>179</v>
+      </c>
+      <c r="P311">
+        <v>36</v>
+      </c>
+      <c r="Q311">
+        <v>61.016949152542402</v>
+      </c>
+      <c r="R311">
+        <v>9</v>
+      </c>
+      <c r="S311">
+        <v>14.5161290322581</v>
+      </c>
+    </row>
+    <row r="312" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H312" t="s">
+        <v>132</v>
+      </c>
+      <c r="I312" t="s">
+        <v>158</v>
+      </c>
+      <c r="J312" t="s">
+        <v>132</v>
+      </c>
+      <c r="K312" t="s">
+        <v>132</v>
+      </c>
+      <c r="N312" s="4">
+        <v>2</v>
+      </c>
+      <c r="O312" t="s">
+        <v>180</v>
+      </c>
+      <c r="P312">
+        <v>7</v>
+      </c>
+      <c r="Q312">
+        <v>22.580645161290299</v>
+      </c>
+      <c r="R312">
+        <v>11</v>
+      </c>
+      <c r="S312">
+        <v>34.375</v>
+      </c>
+    </row>
+    <row r="313" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H313" t="s">
+        <v>200</v>
+      </c>
+      <c r="I313" t="s">
+        <v>122</v>
+      </c>
+      <c r="J313" t="s">
+        <v>122</v>
+      </c>
+      <c r="K313" t="s">
+        <v>201</v>
+      </c>
+      <c r="N313" s="4">
+        <v>3</v>
+      </c>
+      <c r="O313" t="s">
+        <v>182</v>
+      </c>
+      <c r="P313">
+        <v>4</v>
+      </c>
+      <c r="Q313">
+        <v>23.529411764705898</v>
+      </c>
+      <c r="R313">
+        <v>7</v>
+      </c>
+      <c r="S313">
+        <v>41.176470588235297</v>
+      </c>
+    </row>
+    <row r="314" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H314" t="s">
+        <v>134</v>
+      </c>
+      <c r="I314" t="s">
+        <v>134</v>
+      </c>
+      <c r="J314" t="s">
+        <v>134</v>
+      </c>
+      <c r="K314" t="s">
+        <v>134</v>
+      </c>
+      <c r="N314" s="4">
+        <v>4</v>
+      </c>
+      <c r="O314" t="s">
+        <v>183</v>
+      </c>
+      <c r="P314">
+        <v>3</v>
+      </c>
+      <c r="Q314">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="R314">
+        <v>4</v>
+      </c>
+      <c r="S314">
+        <v>26.6666666666667</v>
+      </c>
+    </row>
+    <row r="315" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H315" t="s">
+        <v>210</v>
+      </c>
+      <c r="I315" t="s">
+        <v>211</v>
+      </c>
+      <c r="J315" t="s">
+        <v>122</v>
+      </c>
+      <c r="K315" t="s">
+        <v>126</v>
+      </c>
+      <c r="N315" s="4">
+        <v>5</v>
+      </c>
+      <c r="O315" t="s">
+        <v>181</v>
+      </c>
+      <c r="P315">
+        <v>13</v>
+      </c>
+      <c r="Q315">
+        <v>44.827586206896598</v>
+      </c>
+      <c r="R315">
+        <v>6</v>
+      </c>
+      <c r="S315">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="316" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H316" t="s">
+        <v>205</v>
+      </c>
+      <c r="I316" t="s">
+        <v>154</v>
+      </c>
+      <c r="J316" t="s">
+        <v>122</v>
+      </c>
+      <c r="K316" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="317" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H317" t="s">
+        <v>207</v>
+      </c>
+      <c r="I317" t="s">
+        <v>122</v>
+      </c>
+      <c r="J317" t="s">
+        <v>132</v>
+      </c>
+      <c r="K317" t="s">
+        <v>132</v>
+      </c>
+      <c r="P317" t="str">
+        <f>_xlfn.CONCAT(P311," (",ROUND(Q311,0),")")</f>
+        <v>36 (61)</v>
+      </c>
+      <c r="R317" t="str">
+        <f>_xlfn.CONCAT(R311," (",ROUND(S311,0),")")</f>
+        <v>9 (15)</v>
+      </c>
+    </row>
+    <row r="318" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H318" t="s">
+        <v>127</v>
+      </c>
+      <c r="I318" t="s">
+        <v>127</v>
+      </c>
+      <c r="J318" t="s">
+        <v>127</v>
+      </c>
+      <c r="K318" t="s">
+        <v>212</v>
+      </c>
+      <c r="P318" t="str">
+        <f t="shared" ref="P318:R321" si="22">_xlfn.CONCAT(P312," (",ROUND(Q312,0),")")</f>
+        <v>7 (23)</v>
+      </c>
+      <c r="R318" t="str">
+        <f t="shared" si="22"/>
+        <v>11 (34)</v>
+      </c>
+    </row>
+    <row r="319" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="P319" t="str">
+        <f t="shared" si="22"/>
+        <v>4 (24)</v>
+      </c>
+      <c r="R319" t="str">
+        <f t="shared" si="22"/>
+        <v>7 (41)</v>
+      </c>
+    </row>
+    <row r="320" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="P320" t="str">
+        <f t="shared" si="22"/>
+        <v>3 (21)</v>
+      </c>
+      <c r="R320" t="str">
+        <f t="shared" si="22"/>
+        <v>4 (27)</v>
+      </c>
+    </row>
+    <row r="321" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="P321" t="str">
+        <f t="shared" si="22"/>
+        <v>13 (45)</v>
+      </c>
+      <c r="R321" t="str">
+        <f t="shared" si="22"/>
+        <v>6 (19)</v>
+      </c>
+    </row>
+    <row r="322" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K322" t="s">
+        <v>213</v>
+      </c>
+      <c r="L322" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="323" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K323" t="s">
+        <v>194</v>
+      </c>
+      <c r="L323" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="324" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K324" t="s">
+        <v>186</v>
+      </c>
+      <c r="L324" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="325" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K325" t="s">
+        <v>215</v>
+      </c>
+      <c r="L325" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="326" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K326" t="s">
+        <v>172</v>
+      </c>
+      <c r="L326" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="327" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="Q327">
+        <v>4.4916877761857401E-3</v>
+      </c>
+      <c r="R327">
+        <v>0.14697207115386901</v>
+      </c>
+    </row>
+    <row r="329" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="Q329">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R329">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="332" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="N332" t="s">
+        <v>0</v>
+      </c>
+      <c r="O332" t="s">
+        <v>217</v>
+      </c>
+      <c r="P332" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>219</v>
+      </c>
+      <c r="R332" t="s">
+        <v>220</v>
+      </c>
+      <c r="S332" t="s">
+        <v>221</v>
+      </c>
+      <c r="T332" t="s">
+        <v>222</v>
+      </c>
+      <c r="U332" t="s">
+        <v>223</v>
+      </c>
+      <c r="V332" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="333" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="N333">
+        <v>1</v>
+      </c>
+      <c r="O333" t="s">
+        <v>225</v>
+      </c>
+      <c r="P333">
+        <v>36</v>
+      </c>
+      <c r="Q333">
+        <v>61.016949152542402</v>
+      </c>
+      <c r="R333">
+        <v>4</v>
+      </c>
+      <c r="S333">
+        <v>23.529411764705898</v>
+      </c>
+      <c r="T333">
+        <v>3</v>
+      </c>
+      <c r="U333">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="V333">
+        <v>13</v>
+      </c>
+      <c r="W333">
+        <v>44.827586206896598</v>
+      </c>
+    </row>
+    <row r="334" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="N334">
+        <v>2</v>
+      </c>
+      <c r="O334" t="s">
+        <v>226</v>
+      </c>
+      <c r="P334">
+        <v>9</v>
+      </c>
+      <c r="Q334">
+        <v>14.5161290322581</v>
+      </c>
+      <c r="R334">
+        <v>7</v>
+      </c>
+      <c r="S334">
+        <v>41.176470588235297</v>
+      </c>
+      <c r="T334">
+        <v>4</v>
+      </c>
+      <c r="U334">
+        <v>26.6666666666667</v>
+      </c>
+      <c r="V334">
+        <v>6</v>
+      </c>
+      <c r="W334">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="336" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="P336" t="str">
+        <f>_xlfn.CONCAT(P333," (",ROUND(Q333,0),")")</f>
+        <v>36 (61)</v>
+      </c>
+      <c r="R336" t="str">
+        <f>_xlfn.CONCAT(R333," (",ROUND(S333,0),")")</f>
+        <v>4 (24)</v>
+      </c>
+      <c r="T336" t="str">
+        <f>_xlfn.CONCAT(T333," (",ROUND(U333,0),")")</f>
+        <v>3 (21)</v>
+      </c>
+      <c r="V336" t="str">
+        <f>_xlfn.CONCAT(V333," (",ROUND(W333,0),")")</f>
+        <v>13 (45)</v>
+      </c>
+    </row>
+    <row r="337" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="P337" t="str">
+        <f>_xlfn.CONCAT(P334," (",ROUND(Q334,0),")")</f>
+        <v>9 (15)</v>
+      </c>
+      <c r="R337" t="str">
+        <f>_xlfn.CONCAT(R334," (",ROUND(S334,0),")")</f>
+        <v>7 (41)</v>
+      </c>
+      <c r="T337" t="str">
+        <f>_xlfn.CONCAT(T334," (",ROUND(U334,0),")")</f>
+        <v>4 (27)</v>
+      </c>
+      <c r="V337" t="str">
+        <f>_xlfn.CONCAT(V334," (",ROUND(W334,0),")")</f>
+        <v>6 (19)</v>
+      </c>
+    </row>
+    <row r="341" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="K341" t="s">
+        <v>227</v>
+      </c>
+      <c r="L341" t="s">
+        <v>228</v>
+      </c>
+      <c r="M341" t="s">
+        <v>24</v>
+      </c>
+      <c r="N341" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="342" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J342" t="s">
+        <v>225</v>
+      </c>
+      <c r="K342" t="s">
+        <v>213</v>
+      </c>
+      <c r="L342" t="s">
+        <v>186</v>
+      </c>
+      <c r="M342" t="s">
+        <v>215</v>
+      </c>
+      <c r="N342" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="343" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J343" t="s">
+        <v>226</v>
+      </c>
+      <c r="K343" t="s">
+        <v>147</v>
+      </c>
+      <c r="L343" t="s">
+        <v>187</v>
+      </c>
+      <c r="M343" t="s">
+        <v>216</v>
+      </c>
+      <c r="N343" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="344" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="Q344" t="s">
+        <v>0</v>
+      </c>
+      <c r="R344" t="s">
+        <v>217</v>
+      </c>
+      <c r="S344" t="s">
+        <v>230</v>
+      </c>
+      <c r="T344" t="s">
+        <v>218</v>
+      </c>
+      <c r="U344" t="s">
+        <v>219</v>
+      </c>
+      <c r="V344" t="s">
+        <v>231</v>
+      </c>
+      <c r="W344" t="s">
+        <v>220</v>
+      </c>
+      <c r="X344" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y344" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z344" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB344" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC344" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="345" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="Q345">
+        <v>1</v>
+      </c>
+      <c r="R345" t="s">
+        <v>225</v>
+      </c>
+      <c r="S345">
+        <v>36</v>
+      </c>
+      <c r="T345">
+        <v>59</v>
+      </c>
+      <c r="U345">
+        <v>61.016949152542402</v>
+      </c>
+      <c r="V345">
+        <v>4</v>
+      </c>
+      <c r="W345">
+        <v>17</v>
+      </c>
+      <c r="X345">
+        <v>23.529411764705898</v>
+      </c>
+      <c r="Y345">
+        <v>3</v>
+      </c>
+      <c r="Z345">
+        <v>14</v>
+      </c>
+      <c r="AA345">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="AB345">
+        <v>13</v>
+      </c>
+      <c r="AC345">
+        <v>29</v>
+      </c>
+      <c r="AD345">
+        <v>44.827586206896598</v>
+      </c>
+    </row>
+    <row r="346" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="Q346">
+        <v>2</v>
+      </c>
+      <c r="R346" t="s">
+        <v>226</v>
+      </c>
+      <c r="S346">
+        <v>9</v>
+      </c>
+      <c r="T346">
+        <v>62</v>
+      </c>
+      <c r="U346">
+        <v>14.5161290322581</v>
+      </c>
+      <c r="V346">
+        <v>7</v>
+      </c>
+      <c r="W346">
+        <v>17</v>
+      </c>
+      <c r="X346">
+        <v>41.176470588235297</v>
+      </c>
+      <c r="Y346">
+        <v>4</v>
+      </c>
+      <c r="Z346">
+        <v>15</v>
+      </c>
+      <c r="AA346">
+        <v>26.6666666666667</v>
+      </c>
+      <c r="AB346">
+        <v>6</v>
+      </c>
+      <c r="AC346">
+        <v>32</v>
+      </c>
+      <c r="AD346">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="348" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="S348" s="5" t="str">
+        <f>_xlfn.CONCAT(S345,"/",T345," (",ROUND(U345,0),")")</f>
+        <v>36/59 (61)</v>
+      </c>
+      <c r="V348" s="5" t="str">
+        <f>_xlfn.CONCAT(V345,"/",W345," (",ROUND(X345,0),")")</f>
+        <v>4/17 (24)</v>
+      </c>
+      <c r="Y348" s="5" t="str">
+        <f>_xlfn.CONCAT(Y345,"/",Z345," (",ROUND(AA345,0),")")</f>
+        <v>3/14 (21)</v>
+      </c>
+      <c r="AB348" s="5" t="str">
+        <f>_xlfn.CONCAT(AB345,"/",AC345," (",ROUND(AD345,0),")")</f>
+        <v>13/29 (45)</v>
+      </c>
+    </row>
+    <row r="349" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="K349" t="s">
+        <v>241</v>
+      </c>
+      <c r="L349" t="s">
+        <v>240</v>
+      </c>
+      <c r="M349" t="s">
+        <v>239</v>
+      </c>
+      <c r="N349" t="s">
+        <v>238</v>
+      </c>
+      <c r="P349" s="5" t="str">
+        <f>_xlfn.CONCAT(V346,"/",W346," (",ROUND(X346,0),")")</f>
+        <v>7/17 (41)</v>
+      </c>
+      <c r="S349" s="5" t="str">
+        <f>_xlfn.CONCAT(Y346,"/",Z346," (",ROUND(AA346,0),")")</f>
+        <v>4/15 (27)</v>
+      </c>
+      <c r="V349" s="5" t="str">
+        <f>_xlfn.CONCAT(AB346,"/",AC346," (",ROUND(AD346,0),")")</f>
+        <v>6/32 (19)</v>
+      </c>
+    </row>
+    <row r="350" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="K350" t="s">
+        <v>237</v>
+      </c>
+      <c r="L350" t="s">
+        <v>236</v>
+      </c>
+      <c r="M350" t="s">
+        <v>235</v>
+      </c>
+      <c r="N350" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="666" spans="5:5" x14ac:dyDescent="0.2">

--- a/tablemaker.xlsx
+++ b/tablemaker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD25E45-0D43-B141-AB07-6584FEE4CED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537061D4-614D-FA4A-9F9C-A312FBCB6A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{2FB3896E-F88D-7047-98A3-66046D85A977}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2FB3896E-F88D-7047-98A3-66046D85A977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="287">
   <si>
     <t>Indication</t>
   </si>
@@ -763,6 +763,141 @@
   </si>
   <si>
     <t>36/59 (61)</t>
+  </si>
+  <si>
+    <t>19 (17)</t>
+  </si>
+  <si>
+    <t>15 (13)</t>
+  </si>
+  <si>
+    <t>21 (19)</t>
+  </si>
+  <si>
+    <t>9 (30)</t>
+  </si>
+  <si>
+    <t>8 (27)</t>
+  </si>
+  <si>
+    <t>5 (50)</t>
+  </si>
+  <si>
+    <t>4 (40)</t>
+  </si>
+  <si>
+    <t>1 (10)</t>
+  </si>
+  <si>
+    <t>2 (50)</t>
+  </si>
+  <si>
+    <t>15 (94)</t>
+  </si>
+  <si>
+    <t>19 (73)</t>
+  </si>
+  <si>
+    <t>4 (15)</t>
+  </si>
+  <si>
+    <t>3 (12)</t>
+  </si>
+  <si>
+    <t>4 (67)</t>
+  </si>
+  <si>
+    <t>94 (83)</t>
+  </si>
+  <si>
+    <t>52 (88)</t>
+  </si>
+  <si>
+    <t>42 (78)</t>
+  </si>
+  <si>
+    <t>12 (22)</t>
+  </si>
+  <si>
+    <t>33/58 (57)</t>
+  </si>
+  <si>
+    <t>5/19 (26)</t>
+  </si>
+  <si>
+    <t>8/18 (44)</t>
+  </si>
+  <si>
+    <t>9/59 (15)</t>
+  </si>
+  <si>
+    <t>6/19 (32)</t>
+  </si>
+  <si>
+    <t>6/21 (29)</t>
+  </si>
+  <si>
+    <t>NPBypassN</t>
+  </si>
+  <si>
+    <t>NPBypasspercent</t>
+  </si>
+  <si>
+    <t>BEBypassN</t>
+  </si>
+  <si>
+    <t>BEBypasspercent</t>
+  </si>
+  <si>
+    <t>TrueBypassN</t>
+  </si>
+  <si>
+    <t>TrueBypasspercent</t>
+  </si>
+  <si>
+    <t>18 (95)</t>
+  </si>
+  <si>
+    <t>10 (67)</t>
+  </si>
+  <si>
+    <t>14 (70)</t>
+  </si>
+  <si>
+    <t>2 (11)</t>
+  </si>
+  <si>
+    <t>2 (13)</t>
+  </si>
+  <si>
+    <t>8 (40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of gadolinium-enhancing lesions </t>
+  </si>
+  <si>
+    <t>16 (94)</t>
+  </si>
+  <si>
+    <t>2 (12)</t>
+  </si>
+  <si>
+    <t>34/60 (57)</t>
+  </si>
+  <si>
+    <t>8/17 (47)</t>
+  </si>
+  <si>
+    <t>9/61 (15)</t>
+  </si>
+  <si>
+    <t>6/17 (35)</t>
+  </si>
+  <si>
+    <t>3/15 (20)</t>
+  </si>
+  <si>
+    <t>6/20 (30)</t>
   </si>
 </sst>
 </file>
@@ -772,7 +907,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -790,6 +925,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -814,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -823,6 +964,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1937,13 +2079,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294E0594-3744-E74C-86C9-C5E21F32E816}">
   <dimension ref="A4:AJ1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I331" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N349" sqref="K349:N350"/>
+    <sheetView tabSelected="1" topLeftCell="N430" zoomScale="125" workbookViewId="0">
+      <selection activeCell="Q447" sqref="Q447:T448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -9508,6 +9651,2243 @@
         <v>234</v>
       </c>
     </row>
+    <row r="353" spans="11:30" x14ac:dyDescent="0.2">
+      <c r="L353" t="s">
+        <v>0</v>
+      </c>
+      <c r="M353" t="s">
+        <v>217</v>
+      </c>
+      <c r="N353" t="s">
+        <v>230</v>
+      </c>
+      <c r="O353" t="s">
+        <v>218</v>
+      </c>
+      <c r="P353" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>231</v>
+      </c>
+      <c r="R353" t="s">
+        <v>220</v>
+      </c>
+      <c r="S353" t="s">
+        <v>221</v>
+      </c>
+      <c r="T353" t="s">
+        <v>232</v>
+      </c>
+      <c r="U353" t="s">
+        <v>222</v>
+      </c>
+      <c r="V353" t="s">
+        <v>223</v>
+      </c>
+      <c r="W353" t="s">
+        <v>233</v>
+      </c>
+      <c r="X353" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="354" spans="11:30" x14ac:dyDescent="0.2">
+      <c r="K354">
+        <v>1</v>
+      </c>
+      <c r="L354" t="s">
+        <v>225</v>
+      </c>
+      <c r="M354">
+        <v>33</v>
+      </c>
+      <c r="N354">
+        <v>55</v>
+      </c>
+      <c r="O354">
+        <v>60</v>
+      </c>
+      <c r="P354">
+        <v>4</v>
+      </c>
+      <c r="Q354">
+        <v>17</v>
+      </c>
+      <c r="R354">
+        <v>23.529411764705898</v>
+      </c>
+      <c r="S354">
+        <v>3</v>
+      </c>
+      <c r="T354">
+        <v>13</v>
+      </c>
+      <c r="U354">
+        <v>23.076923076923102</v>
+      </c>
+      <c r="V354">
+        <v>9</v>
+      </c>
+      <c r="W354">
+        <v>23</v>
+      </c>
+      <c r="X354">
+        <v>39.130434782608702</v>
+      </c>
+    </row>
+    <row r="355" spans="11:30" x14ac:dyDescent="0.2">
+      <c r="K355">
+        <v>2</v>
+      </c>
+      <c r="L355" t="s">
+        <v>226</v>
+      </c>
+      <c r="M355">
+        <v>8</v>
+      </c>
+      <c r="N355">
+        <v>56</v>
+      </c>
+      <c r="O355">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="P355">
+        <v>7</v>
+      </c>
+      <c r="Q355">
+        <v>17</v>
+      </c>
+      <c r="R355">
+        <v>41.176470588235297</v>
+      </c>
+      <c r="S355">
+        <v>3</v>
+      </c>
+      <c r="T355">
+        <v>14</v>
+      </c>
+      <c r="U355">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="V355">
+        <v>6</v>
+      </c>
+      <c r="W355">
+        <v>26</v>
+      </c>
+      <c r="X355">
+        <v>23.076923076923102</v>
+      </c>
+    </row>
+    <row r="361" spans="11:30" x14ac:dyDescent="0.2">
+      <c r="L361" t="s">
+        <v>64</v>
+      </c>
+      <c r="M361" t="s">
+        <v>65</v>
+      </c>
+      <c r="N361" t="s">
+        <v>66</v>
+      </c>
+      <c r="O361" t="s">
+        <v>67</v>
+      </c>
+      <c r="P361" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>69</v>
+      </c>
+      <c r="R361" t="s">
+        <v>70</v>
+      </c>
+      <c r="S361" t="s">
+        <v>116</v>
+      </c>
+      <c r="U361" t="s">
+        <v>79</v>
+      </c>
+      <c r="V361" t="s">
+        <v>80</v>
+      </c>
+      <c r="W361" t="s">
+        <v>81</v>
+      </c>
+      <c r="X361" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y361" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z361" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA361" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB361" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC361" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="362" spans="11:30" x14ac:dyDescent="0.2">
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362" t="s">
+        <v>71</v>
+      </c>
+      <c r="N362">
+        <v>94</v>
+      </c>
+      <c r="O362">
+        <v>83.185840707964601</v>
+      </c>
+      <c r="P362">
+        <v>52</v>
+      </c>
+      <c r="Q362">
+        <v>88.135593220339004</v>
+      </c>
+      <c r="R362">
+        <v>42</v>
+      </c>
+      <c r="S362">
+        <v>77.7777777777778</v>
+      </c>
+      <c r="T362">
+        <v>0.22291958535735401</v>
+      </c>
+      <c r="U362" t="s">
+        <v>86</v>
+      </c>
+      <c r="V362">
+        <v>113</v>
+      </c>
+      <c r="W362">
+        <v>59</v>
+      </c>
+      <c r="X362">
+        <v>52.212389380531</v>
+      </c>
+      <c r="Y362">
+        <v>19</v>
+      </c>
+      <c r="Z362">
+        <v>16.814159292035399</v>
+      </c>
+      <c r="AA362">
+        <v>15</v>
+      </c>
+      <c r="AB362">
+        <v>13.2743362831858</v>
+      </c>
+      <c r="AC362">
+        <v>21</v>
+      </c>
+      <c r="AD362">
+        <v>18.5840707964602</v>
+      </c>
+    </row>
+    <row r="363" spans="11:30" x14ac:dyDescent="0.2">
+      <c r="L363">
+        <v>2</v>
+      </c>
+      <c r="M363" t="s">
+        <v>72</v>
+      </c>
+      <c r="N363">
+        <v>21</v>
+      </c>
+      <c r="O363">
+        <v>18.5840707964602</v>
+      </c>
+      <c r="P363">
+        <v>9</v>
+      </c>
+      <c r="Q363">
+        <v>15.254237288135601</v>
+      </c>
+      <c r="R363">
+        <v>12</v>
+      </c>
+      <c r="S363">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="T363">
+        <v>0.47825909200247302</v>
+      </c>
+      <c r="U363" t="s">
+        <v>14</v>
+      </c>
+      <c r="V363">
+        <v>30</v>
+      </c>
+      <c r="W363">
+        <v>9</v>
+      </c>
+      <c r="X363">
+        <v>30</v>
+      </c>
+      <c r="Y363">
+        <v>8</v>
+      </c>
+      <c r="Z363">
+        <v>26.6666666666667</v>
+      </c>
+      <c r="AA363">
+        <v>7</v>
+      </c>
+      <c r="AB363">
+        <v>23.3333333333333</v>
+      </c>
+      <c r="AC363">
+        <v>7</v>
+      </c>
+      <c r="AD363">
+        <v>23.3333333333333</v>
+      </c>
+    </row>
+    <row r="364" spans="11:30" x14ac:dyDescent="0.2">
+      <c r="T364">
+        <v>3</v>
+      </c>
+      <c r="U364" t="s">
+        <v>15</v>
+      </c>
+      <c r="V364">
+        <v>10</v>
+      </c>
+      <c r="W364">
+        <v>5</v>
+      </c>
+      <c r="X364">
+        <v>50</v>
+      </c>
+      <c r="Y364">
+        <v>0</v>
+      </c>
+      <c r="Z364">
+        <v>0</v>
+      </c>
+      <c r="AA364">
+        <v>4</v>
+      </c>
+      <c r="AB364">
+        <v>40</v>
+      </c>
+      <c r="AC364">
+        <v>1</v>
+      </c>
+      <c r="AD364">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="11:30" x14ac:dyDescent="0.2">
+      <c r="N365" t="str">
+        <f>_xlfn.CONCAT(N362," (",ROUND(O362,0),")")</f>
+        <v>94 (83)</v>
+      </c>
+      <c r="P365" t="str">
+        <f>_xlfn.CONCAT(P362," (",ROUND(Q362,0),")")</f>
+        <v>52 (88)</v>
+      </c>
+      <c r="R365" t="str">
+        <f>_xlfn.CONCAT(R362," (",ROUND(S362,0),")")</f>
+        <v>42 (78)</v>
+      </c>
+      <c r="T365">
+        <v>4</v>
+      </c>
+      <c r="U365" t="s">
+        <v>16</v>
+      </c>
+      <c r="V365">
+        <v>5</v>
+      </c>
+      <c r="W365">
+        <v>3</v>
+      </c>
+      <c r="X365">
+        <v>60</v>
+      </c>
+      <c r="Y365">
+        <v>2</v>
+      </c>
+      <c r="Z365">
+        <v>40</v>
+      </c>
+      <c r="AA365">
+        <v>0</v>
+      </c>
+      <c r="AB365">
+        <v>0</v>
+      </c>
+      <c r="AC365">
+        <v>0</v>
+      </c>
+      <c r="AD365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="11:30" x14ac:dyDescent="0.2">
+      <c r="N366" t="str">
+        <f>_xlfn.CONCAT(N363," (",ROUND(O363,0),")")</f>
+        <v>21 (19)</v>
+      </c>
+      <c r="P366" t="str">
+        <f>_xlfn.CONCAT(P363," (",ROUND(Q363,0),")")</f>
+        <v>9 (15)</v>
+      </c>
+      <c r="R366" t="str">
+        <f>_xlfn.CONCAT(R363," (",ROUND(S363,0),")")</f>
+        <v>12 (22)</v>
+      </c>
+      <c r="T366">
+        <v>5</v>
+      </c>
+      <c r="U366" t="s">
+        <v>17</v>
+      </c>
+      <c r="V366">
+        <v>4</v>
+      </c>
+      <c r="W366">
+        <v>1</v>
+      </c>
+      <c r="X366">
+        <v>25</v>
+      </c>
+      <c r="Y366">
+        <v>2</v>
+      </c>
+      <c r="Z366">
+        <v>50</v>
+      </c>
+      <c r="AA366">
+        <v>1</v>
+      </c>
+      <c r="AB366">
+        <v>25</v>
+      </c>
+      <c r="AC366">
+        <v>0</v>
+      </c>
+      <c r="AD366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="11:30" x14ac:dyDescent="0.2">
+      <c r="T367">
+        <v>6</v>
+      </c>
+      <c r="U367" t="s">
+        <v>18</v>
+      </c>
+      <c r="V367">
+        <v>16</v>
+      </c>
+      <c r="W367">
+        <v>15</v>
+      </c>
+      <c r="X367">
+        <v>93.75</v>
+      </c>
+      <c r="Y367">
+        <v>0</v>
+      </c>
+      <c r="Z367">
+        <v>0</v>
+      </c>
+      <c r="AA367">
+        <v>1</v>
+      </c>
+      <c r="AB367">
+        <v>6.25</v>
+      </c>
+      <c r="AC367">
+        <v>0</v>
+      </c>
+      <c r="AD367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="11:30" x14ac:dyDescent="0.2">
+      <c r="T368">
+        <v>7</v>
+      </c>
+      <c r="U368" t="s">
+        <v>88</v>
+      </c>
+      <c r="V368">
+        <v>4</v>
+      </c>
+      <c r="W368">
+        <v>1</v>
+      </c>
+      <c r="X368">
+        <v>25</v>
+      </c>
+      <c r="Y368">
+        <v>1</v>
+      </c>
+      <c r="Z368">
+        <v>25</v>
+      </c>
+      <c r="AA368">
+        <v>1</v>
+      </c>
+      <c r="AB368">
+        <v>25</v>
+      </c>
+      <c r="AC368">
+        <v>1</v>
+      </c>
+      <c r="AD368">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="369" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="T369">
+        <v>8</v>
+      </c>
+      <c r="U369" t="s">
+        <v>20</v>
+      </c>
+      <c r="V369">
+        <v>26</v>
+      </c>
+      <c r="W369">
+        <v>19</v>
+      </c>
+      <c r="X369">
+        <v>73.076923076923094</v>
+      </c>
+      <c r="Y369">
+        <v>4</v>
+      </c>
+      <c r="Z369">
+        <v>15.384615384615399</v>
+      </c>
+      <c r="AA369">
+        <v>0</v>
+      </c>
+      <c r="AB369">
+        <v>0</v>
+      </c>
+      <c r="AC369">
+        <v>3</v>
+      </c>
+      <c r="AD369">
+        <v>11.538461538461499</v>
+      </c>
+    </row>
+    <row r="370" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="R370">
+        <v>9</v>
+      </c>
+      <c r="S370" t="s">
+        <v>21</v>
+      </c>
+      <c r="T370">
+        <v>7</v>
+      </c>
+      <c r="U370">
+        <v>2</v>
+      </c>
+      <c r="V370">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="W370">
+        <v>1</v>
+      </c>
+      <c r="X370">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Y370">
+        <v>0</v>
+      </c>
+      <c r="Z370">
+        <v>0</v>
+      </c>
+      <c r="AA370">
+        <v>4</v>
+      </c>
+      <c r="AB370">
+        <v>57.142857142857103</v>
+      </c>
+    </row>
+    <row r="371" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="N371" t="s">
+        <v>256</v>
+      </c>
+      <c r="O371" t="s">
+        <v>257</v>
+      </c>
+      <c r="P371" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q371">
+        <v>0.22291958535735401</v>
+      </c>
+      <c r="R371">
+        <v>10</v>
+      </c>
+      <c r="S371" t="s">
+        <v>22</v>
+      </c>
+      <c r="T371">
+        <v>5</v>
+      </c>
+      <c r="U371">
+        <v>3</v>
+      </c>
+      <c r="V371">
+        <v>60</v>
+      </c>
+      <c r="W371">
+        <v>0</v>
+      </c>
+      <c r="X371">
+        <v>0</v>
+      </c>
+      <c r="Y371">
+        <v>1</v>
+      </c>
+      <c r="Z371">
+        <v>20</v>
+      </c>
+      <c r="AA371">
+        <v>1</v>
+      </c>
+      <c r="AB371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="372" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="N372" t="s">
+        <v>244</v>
+      </c>
+      <c r="O372" t="s">
+        <v>147</v>
+      </c>
+      <c r="P372" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q372">
+        <v>0.47825909200247302</v>
+      </c>
+      <c r="R372">
+        <v>11</v>
+      </c>
+      <c r="S372" t="s">
+        <v>23</v>
+      </c>
+      <c r="T372">
+        <v>6</v>
+      </c>
+      <c r="U372">
+        <v>1</v>
+      </c>
+      <c r="V372">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="W372">
+        <v>1</v>
+      </c>
+      <c r="X372">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="Y372">
+        <v>0</v>
+      </c>
+      <c r="Z372">
+        <v>0</v>
+      </c>
+      <c r="AA372">
+        <v>4</v>
+      </c>
+      <c r="AB372">
+        <v>66.6666666666667</v>
+      </c>
+    </row>
+    <row r="374" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="U374">
+        <v>113</v>
+      </c>
+      <c r="V374" t="str">
+        <f>_xlfn.CONCAT(W362," (",ROUND(X362,0),")")</f>
+        <v>59 (52)</v>
+      </c>
+      <c r="X374" t="str">
+        <f>_xlfn.CONCAT(Y362," (",ROUND(Z362,0),")")</f>
+        <v>19 (17)</v>
+      </c>
+      <c r="Z374" t="str">
+        <f>_xlfn.CONCAT(AA362," (",ROUND(AB362,0),")")</f>
+        <v>15 (13)</v>
+      </c>
+      <c r="AB374" t="str">
+        <f>_xlfn.CONCAT(AC362," (",ROUND(AD362,0),")")</f>
+        <v>21 (19)</v>
+      </c>
+    </row>
+    <row r="375" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="V375">
+        <v>30</v>
+      </c>
+      <c r="W375" t="str">
+        <f t="shared" ref="W375:Y380" si="23">_xlfn.CONCAT(W363," (",ROUND(X363,0),")")</f>
+        <v>9 (30)</v>
+      </c>
+      <c r="Y375" t="str">
+        <f t="shared" si="23"/>
+        <v>8 (27)</v>
+      </c>
+      <c r="AA375" t="str">
+        <f t="shared" ref="AA375" si="24">_xlfn.CONCAT(AA363," (",ROUND(AB363,0),")")</f>
+        <v>7 (23)</v>
+      </c>
+      <c r="AC375" t="str">
+        <f t="shared" ref="AC375" si="25">_xlfn.CONCAT(AC363," (",ROUND(AD363,0),")")</f>
+        <v>7 (23)</v>
+      </c>
+    </row>
+    <row r="376" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="V376">
+        <v>10</v>
+      </c>
+      <c r="W376" t="str">
+        <f t="shared" si="23"/>
+        <v>5 (50)</v>
+      </c>
+      <c r="Y376" t="str">
+        <f t="shared" si="23"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="AA376" t="str">
+        <f t="shared" ref="AA376" si="26">_xlfn.CONCAT(AA364," (",ROUND(AB364,0),")")</f>
+        <v>4 (40)</v>
+      </c>
+      <c r="AC376" t="str">
+        <f t="shared" ref="AC376" si="27">_xlfn.CONCAT(AC364," (",ROUND(AD364,0),")")</f>
+        <v>1 (10)</v>
+      </c>
+    </row>
+    <row r="377" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="V377">
+        <v>5</v>
+      </c>
+      <c r="W377" t="str">
+        <f t="shared" si="23"/>
+        <v>3 (60)</v>
+      </c>
+      <c r="Y377" t="str">
+        <f t="shared" si="23"/>
+        <v>2 (40)</v>
+      </c>
+      <c r="AA377" t="str">
+        <f t="shared" ref="AA377" si="28">_xlfn.CONCAT(AA365," (",ROUND(AB365,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AC377" t="str">
+        <f t="shared" ref="AC377" si="29">_xlfn.CONCAT(AC365," (",ROUND(AD365,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="378" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="V378">
+        <v>4</v>
+      </c>
+      <c r="W378" t="str">
+        <f t="shared" si="23"/>
+        <v>1 (25)</v>
+      </c>
+      <c r="Y378" t="str">
+        <f t="shared" si="23"/>
+        <v>2 (50)</v>
+      </c>
+      <c r="AA378" t="str">
+        <f t="shared" ref="AA378" si="30">_xlfn.CONCAT(AA366," (",ROUND(AB366,0),")")</f>
+        <v>1 (25)</v>
+      </c>
+      <c r="AC378" t="str">
+        <f t="shared" ref="AC378" si="31">_xlfn.CONCAT(AC366," (",ROUND(AD366,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="379" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="V379">
+        <v>16</v>
+      </c>
+      <c r="W379" t="str">
+        <f t="shared" si="23"/>
+        <v>15 (94)</v>
+      </c>
+      <c r="Y379" t="str">
+        <f t="shared" si="23"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="AA379" t="str">
+        <f t="shared" ref="AA379" si="32">_xlfn.CONCAT(AA367," (",ROUND(AB367,0),")")</f>
+        <v>1 (6)</v>
+      </c>
+      <c r="AC379" t="str">
+        <f t="shared" ref="AC379" si="33">_xlfn.CONCAT(AC367," (",ROUND(AD367,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="380" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="V380">
+        <v>4</v>
+      </c>
+      <c r="W380" t="str">
+        <f t="shared" si="23"/>
+        <v>1 (25)</v>
+      </c>
+      <c r="Y380" t="str">
+        <f t="shared" si="23"/>
+        <v>1 (25)</v>
+      </c>
+      <c r="AA380" t="str">
+        <f t="shared" ref="AA380" si="34">_xlfn.CONCAT(AA368," (",ROUND(AB368,0),")")</f>
+        <v>1 (25)</v>
+      </c>
+      <c r="AC380" t="str">
+        <f t="shared" ref="AC380" si="35">_xlfn.CONCAT(AC368," (",ROUND(AD368,0),")")</f>
+        <v>1 (25)</v>
+      </c>
+    </row>
+    <row r="381" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="L381" t="s">
+        <v>0</v>
+      </c>
+      <c r="M381" t="s">
+        <v>217</v>
+      </c>
+      <c r="N381" t="s">
+        <v>230</v>
+      </c>
+      <c r="O381" t="s">
+        <v>218</v>
+      </c>
+      <c r="P381" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q381" t="s">
+        <v>231</v>
+      </c>
+      <c r="R381" t="s">
+        <v>220</v>
+      </c>
+      <c r="S381" t="s">
+        <v>221</v>
+      </c>
+      <c r="T381" t="s">
+        <v>232</v>
+      </c>
+      <c r="U381" t="s">
+        <v>222</v>
+      </c>
+      <c r="V381" t="s">
+        <v>223</v>
+      </c>
+      <c r="W381" t="s">
+        <v>233</v>
+      </c>
+      <c r="X381" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA381" t="str">
+        <f t="shared" ref="AA381" si="36">_xlfn.CONCAT(AA369," (",ROUND(AB369,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AC381" t="str">
+        <f t="shared" ref="AC381" si="37">_xlfn.CONCAT(AC369," (",ROUND(AD369,0),")")</f>
+        <v>3 (12)</v>
+      </c>
+    </row>
+    <row r="382" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="L382">
+        <v>1</v>
+      </c>
+      <c r="M382" t="s">
+        <v>225</v>
+      </c>
+      <c r="N382">
+        <v>33</v>
+      </c>
+      <c r="O382">
+        <v>58</v>
+      </c>
+      <c r="P382">
+        <v>56.8965517241379</v>
+      </c>
+      <c r="Q382">
+        <v>5</v>
+      </c>
+      <c r="R382">
+        <v>19</v>
+      </c>
+      <c r="S382">
+        <v>26.315789473684202</v>
+      </c>
+      <c r="T382">
+        <v>3</v>
+      </c>
+      <c r="U382">
+        <v>14</v>
+      </c>
+      <c r="V382">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="W382">
+        <v>8</v>
+      </c>
+      <c r="X382">
+        <v>18</v>
+      </c>
+      <c r="Y382">
+        <v>44.4444444444444</v>
+      </c>
+      <c r="AA382" t="str">
+        <f t="shared" ref="AA382" si="38">_xlfn.CONCAT(Y370," (",ROUND(Z370,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AC382" t="str">
+        <f t="shared" ref="AC382" si="39">_xlfn.CONCAT(AA370," (",ROUND(AB370,0),")")</f>
+        <v>4 (57)</v>
+      </c>
+    </row>
+    <row r="383" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="L383">
+        <v>2</v>
+      </c>
+      <c r="M383" t="s">
+        <v>226</v>
+      </c>
+      <c r="N383">
+        <v>9</v>
+      </c>
+      <c r="O383">
+        <v>59</v>
+      </c>
+      <c r="P383">
+        <v>15.254237288135601</v>
+      </c>
+      <c r="Q383">
+        <v>6</v>
+      </c>
+      <c r="R383">
+        <v>19</v>
+      </c>
+      <c r="S383">
+        <v>31.578947368421101</v>
+      </c>
+      <c r="T383">
+        <v>4</v>
+      </c>
+      <c r="U383">
+        <v>15</v>
+      </c>
+      <c r="V383">
+        <v>26.6666666666667</v>
+      </c>
+      <c r="W383">
+        <v>6</v>
+      </c>
+      <c r="X383">
+        <v>21</v>
+      </c>
+      <c r="Y383">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="AA383" t="str">
+        <f t="shared" ref="AA383" si="40">_xlfn.CONCAT(Y371," (",ROUND(Z371,0),")")</f>
+        <v>1 (20)</v>
+      </c>
+      <c r="AC383" t="str">
+        <f t="shared" ref="AC383" si="41">_xlfn.CONCAT(AA371," (",ROUND(AB371,0),")")</f>
+        <v>1 (20)</v>
+      </c>
+    </row>
+    <row r="384" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="V384">
+        <v>6</v>
+      </c>
+      <c r="W384" t="str">
+        <f>_xlfn.CONCAT(U372," (",ROUND(V372,0),")")</f>
+        <v>1 (17)</v>
+      </c>
+      <c r="Y384" t="str">
+        <f>_xlfn.CONCAT(W372," (",ROUND(X372,0),")")</f>
+        <v>1 (17)</v>
+      </c>
+      <c r="AA384" t="str">
+        <f t="shared" ref="AA384" si="42">_xlfn.CONCAT(Y372," (",ROUND(Z372,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AC384" t="str">
+        <f t="shared" ref="AC384" si="43">_xlfn.CONCAT(AA372," (",ROUND(AB372,0),")")</f>
+        <v>4 (67)</v>
+      </c>
+    </row>
+    <row r="385" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="N385" s="5" t="str">
+        <f>_xlfn.CONCAT(N382,"/",O382," (",ROUND(P382,0),")")</f>
+        <v>33/58 (57)</v>
+      </c>
+      <c r="Q385" s="5" t="str">
+        <f>_xlfn.CONCAT(Q382,"/",R382," (",ROUND(S382,0),")")</f>
+        <v>5/19 (26)</v>
+      </c>
+      <c r="T385" s="5" t="str">
+        <f>_xlfn.CONCAT(T382,"/",U382," (",ROUND(V382,0),")")</f>
+        <v>3/14 (21)</v>
+      </c>
+      <c r="W385" s="5" t="str">
+        <f>_xlfn.CONCAT(W382,"/",X382," (",ROUND(Y382,0),")")</f>
+        <v>8/18 (44)</v>
+      </c>
+    </row>
+    <row r="386" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="N386" s="5" t="str">
+        <f>_xlfn.CONCAT(N383,"/",O383," (",ROUND(P383,0),")")</f>
+        <v>9/59 (15)</v>
+      </c>
+      <c r="Q386" s="5" t="str">
+        <f>_xlfn.CONCAT(Q383,"/",R383," (",ROUND(S383,0),")")</f>
+        <v>6/19 (32)</v>
+      </c>
+      <c r="T386" s="5" t="str">
+        <f>_xlfn.CONCAT(T383,"/",U383," (",ROUND(V383,0),")")</f>
+        <v>4/15 (27)</v>
+      </c>
+      <c r="W386" s="5" t="str">
+        <f>_xlfn.CONCAT(W383,"/",X383," (",ROUND(Y383,0),")")</f>
+        <v>6/21 (29)</v>
+      </c>
+      <c r="X386" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y386" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z386" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="387" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="U387" t="s">
+        <v>245</v>
+      </c>
+      <c r="V387" t="s">
+        <v>246</v>
+      </c>
+      <c r="W387" t="s">
+        <v>194</v>
+      </c>
+      <c r="X387" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="388" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="P388">
+        <v>10</v>
+      </c>
+      <c r="Q388" t="s">
+        <v>247</v>
+      </c>
+      <c r="R388" t="s">
+        <v>122</v>
+      </c>
+      <c r="S388" t="s">
+        <v>248</v>
+      </c>
+      <c r="T388" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="389" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="L389" t="s">
+        <v>260</v>
+      </c>
+      <c r="M389" t="s">
+        <v>261</v>
+      </c>
+      <c r="N389" t="s">
+        <v>239</v>
+      </c>
+      <c r="O389" t="s">
+        <v>262</v>
+      </c>
+      <c r="P389">
+        <v>5</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>207</v>
+      </c>
+      <c r="R389" t="s">
+        <v>158</v>
+      </c>
+      <c r="S389" t="s">
+        <v>122</v>
+      </c>
+      <c r="T389" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="390" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="L390" t="s">
+        <v>263</v>
+      </c>
+      <c r="M390" t="s">
+        <v>264</v>
+      </c>
+      <c r="N390" t="s">
+        <v>235</v>
+      </c>
+      <c r="O390" t="s">
+        <v>265</v>
+      </c>
+      <c r="P390">
+        <v>4</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>134</v>
+      </c>
+      <c r="R390" t="s">
+        <v>250</v>
+      </c>
+      <c r="S390" t="s">
+        <v>134</v>
+      </c>
+      <c r="T390" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="391" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="P391">
+        <v>16</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>251</v>
+      </c>
+      <c r="R391" t="s">
+        <v>122</v>
+      </c>
+      <c r="S391" t="s">
+        <v>156</v>
+      </c>
+      <c r="T391" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="392" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="V392">
+        <v>4</v>
+      </c>
+      <c r="W392" t="s">
+        <v>134</v>
+      </c>
+      <c r="X392" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y392" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z392" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="393" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="V393">
+        <v>26</v>
+      </c>
+      <c r="W393" t="s">
+        <v>252</v>
+      </c>
+      <c r="X393" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y393" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z393" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="394" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="V394">
+        <v>7</v>
+      </c>
+      <c r="W394" t="s">
+        <v>150</v>
+      </c>
+      <c r="X394" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y394" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z394" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="395" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="V395">
+        <v>5</v>
+      </c>
+      <c r="W395" t="s">
+        <v>207</v>
+      </c>
+      <c r="X395" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y395" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z395" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="396" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="L396" t="s">
+        <v>0</v>
+      </c>
+      <c r="M396" t="s">
+        <v>217</v>
+      </c>
+      <c r="N396" t="s">
+        <v>230</v>
+      </c>
+      <c r="O396" t="s">
+        <v>218</v>
+      </c>
+      <c r="P396" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>231</v>
+      </c>
+      <c r="R396" t="s">
+        <v>220</v>
+      </c>
+      <c r="S396" t="s">
+        <v>221</v>
+      </c>
+      <c r="T396" t="s">
+        <v>232</v>
+      </c>
+      <c r="U396" t="s">
+        <v>222</v>
+      </c>
+      <c r="V396" t="s">
+        <v>223</v>
+      </c>
+      <c r="W396" t="s">
+        <v>233</v>
+      </c>
+      <c r="X396" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z396" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="397" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="L397">
+        <v>1</v>
+      </c>
+      <c r="M397" t="s">
+        <v>225</v>
+      </c>
+      <c r="N397">
+        <v>33</v>
+      </c>
+      <c r="O397">
+        <v>58</v>
+      </c>
+      <c r="P397">
+        <v>56.8965517241379</v>
+      </c>
+      <c r="Q397">
+        <v>5</v>
+      </c>
+      <c r="R397">
+        <v>19</v>
+      </c>
+      <c r="S397">
+        <v>26.315789473684202</v>
+      </c>
+      <c r="T397">
+        <v>3</v>
+      </c>
+      <c r="U397">
+        <v>14</v>
+      </c>
+      <c r="V397">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="W397">
+        <v>8</v>
+      </c>
+      <c r="X397">
+        <v>18</v>
+      </c>
+      <c r="Y397">
+        <v>44.4444444444444</v>
+      </c>
+    </row>
+    <row r="398" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="L398">
+        <v>2</v>
+      </c>
+      <c r="M398" t="s">
+        <v>226</v>
+      </c>
+      <c r="N398">
+        <v>9</v>
+      </c>
+      <c r="O398">
+        <v>59</v>
+      </c>
+      <c r="P398">
+        <v>15.254237288135601</v>
+      </c>
+      <c r="Q398">
+        <v>6</v>
+      </c>
+      <c r="R398">
+        <v>19</v>
+      </c>
+      <c r="S398">
+        <v>31.578947368421101</v>
+      </c>
+      <c r="T398">
+        <v>4</v>
+      </c>
+      <c r="U398">
+        <v>15</v>
+      </c>
+      <c r="V398">
+        <v>26.6666666666667</v>
+      </c>
+      <c r="W398">
+        <v>6</v>
+      </c>
+      <c r="X398">
+        <v>21</v>
+      </c>
+      <c r="Y398">
+        <v>28.571428571428601</v>
+      </c>
+    </row>
+    <row r="402" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L402" t="s">
+        <v>0</v>
+      </c>
+      <c r="M402" t="s">
+        <v>217</v>
+      </c>
+      <c r="N402" t="s">
+        <v>230</v>
+      </c>
+      <c r="O402" t="s">
+        <v>218</v>
+      </c>
+      <c r="P402" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>231</v>
+      </c>
+      <c r="R402" t="s">
+        <v>220</v>
+      </c>
+      <c r="S402" t="s">
+        <v>221</v>
+      </c>
+      <c r="T402" t="s">
+        <v>232</v>
+      </c>
+      <c r="U402" t="s">
+        <v>222</v>
+      </c>
+      <c r="V402" t="s">
+        <v>223</v>
+      </c>
+      <c r="W402" t="s">
+        <v>233</v>
+      </c>
+      <c r="X402" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="403" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L403">
+        <v>1</v>
+      </c>
+      <c r="M403" t="s">
+        <v>225</v>
+      </c>
+      <c r="N403">
+        <v>33</v>
+      </c>
+      <c r="O403">
+        <v>58</v>
+      </c>
+      <c r="P403">
+        <v>56.8965517241379</v>
+      </c>
+      <c r="Q403">
+        <v>5</v>
+      </c>
+      <c r="R403">
+        <v>19</v>
+      </c>
+      <c r="S403">
+        <v>26.315789473684202</v>
+      </c>
+      <c r="T403">
+        <v>3</v>
+      </c>
+      <c r="U403">
+        <v>13</v>
+      </c>
+      <c r="V403">
+        <v>23.076923076923102</v>
+      </c>
+      <c r="W403">
+        <v>8</v>
+      </c>
+      <c r="X403">
+        <v>18</v>
+      </c>
+      <c r="Y403">
+        <v>44.4444444444444</v>
+      </c>
+    </row>
+    <row r="404" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L404">
+        <v>2</v>
+      </c>
+      <c r="M404" t="s">
+        <v>226</v>
+      </c>
+      <c r="N404">
+        <v>9</v>
+      </c>
+      <c r="O404">
+        <v>59</v>
+      </c>
+      <c r="P404">
+        <v>15.254237288135601</v>
+      </c>
+      <c r="Q404">
+        <v>6</v>
+      </c>
+      <c r="R404">
+        <v>19</v>
+      </c>
+      <c r="S404">
+        <v>31.578947368421101</v>
+      </c>
+      <c r="T404">
+        <v>3</v>
+      </c>
+      <c r="U404">
+        <v>14</v>
+      </c>
+      <c r="V404">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="W404">
+        <v>6</v>
+      </c>
+      <c r="X404">
+        <v>21</v>
+      </c>
+      <c r="Y404">
+        <v>28.571428571428601</v>
+      </c>
+    </row>
+    <row r="406" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="M406" t="s">
+        <v>0</v>
+      </c>
+      <c r="N406" t="s">
+        <v>217</v>
+      </c>
+      <c r="O406" t="s">
+        <v>230</v>
+      </c>
+      <c r="P406" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>219</v>
+      </c>
+      <c r="R406" t="s">
+        <v>231</v>
+      </c>
+      <c r="S406" t="s">
+        <v>220</v>
+      </c>
+      <c r="T406" t="s">
+        <v>221</v>
+      </c>
+      <c r="U406" t="s">
+        <v>232</v>
+      </c>
+      <c r="V406" t="s">
+        <v>222</v>
+      </c>
+      <c r="W406" t="s">
+        <v>223</v>
+      </c>
+      <c r="X406" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y406" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="407" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="M407">
+        <v>1</v>
+      </c>
+      <c r="N407" t="s">
+        <v>225</v>
+      </c>
+      <c r="O407">
+        <v>33</v>
+      </c>
+      <c r="P407">
+        <v>58</v>
+      </c>
+      <c r="Q407">
+        <v>56.8965517241379</v>
+      </c>
+      <c r="R407">
+        <v>5</v>
+      </c>
+      <c r="S407">
+        <v>19</v>
+      </c>
+      <c r="T407">
+        <v>26.315789473684202</v>
+      </c>
+      <c r="U407">
+        <v>3</v>
+      </c>
+      <c r="V407">
+        <v>14</v>
+      </c>
+      <c r="W407">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="X407">
+        <v>8</v>
+      </c>
+      <c r="Y407">
+        <v>17</v>
+      </c>
+      <c r="Z407">
+        <v>47.058823529411796</v>
+      </c>
+    </row>
+    <row r="408" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="M408">
+        <v>2</v>
+      </c>
+      <c r="N408" t="s">
+        <v>226</v>
+      </c>
+      <c r="O408">
+        <v>9</v>
+      </c>
+      <c r="P408">
+        <v>59</v>
+      </c>
+      <c r="Q408">
+        <v>15.254237288135601</v>
+      </c>
+      <c r="R408">
+        <v>6</v>
+      </c>
+      <c r="S408">
+        <v>19</v>
+      </c>
+      <c r="T408">
+        <v>31.578947368421101</v>
+      </c>
+      <c r="U408">
+        <v>3</v>
+      </c>
+      <c r="V408">
+        <v>15</v>
+      </c>
+      <c r="W408">
+        <v>20</v>
+      </c>
+      <c r="X408">
+        <v>6</v>
+      </c>
+      <c r="Y408">
+        <v>20</v>
+      </c>
+      <c r="Z408">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="410" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="M410" t="s">
+        <v>64</v>
+      </c>
+      <c r="N410" t="s">
+        <v>65</v>
+      </c>
+      <c r="O410" t="s">
+        <v>66</v>
+      </c>
+      <c r="P410" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>68</v>
+      </c>
+      <c r="R410" t="s">
+        <v>266</v>
+      </c>
+      <c r="S410" t="s">
+        <v>267</v>
+      </c>
+      <c r="T410" t="s">
+        <v>268</v>
+      </c>
+      <c r="U410" t="s">
+        <v>269</v>
+      </c>
+      <c r="V410" t="s">
+        <v>270</v>
+      </c>
+      <c r="W410" t="s">
+        <v>271</v>
+      </c>
+      <c r="X410" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="411" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="M411">
+        <v>1</v>
+      </c>
+      <c r="N411" t="s">
+        <v>71</v>
+      </c>
+      <c r="O411">
+        <v>94</v>
+      </c>
+      <c r="P411">
+        <v>83.185840707964601</v>
+      </c>
+      <c r="Q411">
+        <v>52</v>
+      </c>
+      <c r="R411">
+        <v>88.135593220339004</v>
+      </c>
+      <c r="S411">
+        <v>18</v>
+      </c>
+      <c r="T411">
+        <v>94.736842105263193</v>
+      </c>
+      <c r="U411">
+        <v>10</v>
+      </c>
+      <c r="V411">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="W411">
+        <v>14</v>
+      </c>
+      <c r="X411">
+        <v>70</v>
+      </c>
+      <c r="Y411">
+        <v>0.20765074965505101</v>
+      </c>
+    </row>
+    <row r="412" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="M412">
+        <v>2</v>
+      </c>
+      <c r="N412" t="s">
+        <v>72</v>
+      </c>
+      <c r="O412">
+        <v>21</v>
+      </c>
+      <c r="P412">
+        <v>18.5840707964602</v>
+      </c>
+      <c r="Q412">
+        <v>9</v>
+      </c>
+      <c r="R412">
+        <v>15.254237288135601</v>
+      </c>
+      <c r="S412">
+        <v>2</v>
+      </c>
+      <c r="T412">
+        <v>10.526315789473699</v>
+      </c>
+      <c r="U412">
+        <v>2</v>
+      </c>
+      <c r="V412">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="W412">
+        <v>8</v>
+      </c>
+      <c r="X412">
+        <v>40</v>
+      </c>
+      <c r="Y412">
+        <v>0.46838177731075797</v>
+      </c>
+    </row>
+    <row r="414" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="O414" t="str">
+        <f>_xlfn.CONCAT(O411," (",ROUND(P411,0),")")</f>
+        <v>94 (83)</v>
+      </c>
+      <c r="Q414" t="str">
+        <f>_xlfn.CONCAT(Q411," (",ROUND(R411,0),")")</f>
+        <v>52 (88)</v>
+      </c>
+      <c r="S414" t="str">
+        <f>_xlfn.CONCAT(S411," (",ROUND(T411,0),")")</f>
+        <v>18 (95)</v>
+      </c>
+      <c r="U414" t="str">
+        <f>_xlfn.CONCAT(U411," (",ROUND(V411,0),")")</f>
+        <v>10 (67)</v>
+      </c>
+      <c r="W414" t="str">
+        <f>_xlfn.CONCAT(W411," (",ROUND(X411,0),")")</f>
+        <v>14 (70)</v>
+      </c>
+    </row>
+    <row r="415" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="O415" t="str">
+        <f>_xlfn.CONCAT(O412," (",ROUND(P412,0),")")</f>
+        <v>21 (19)</v>
+      </c>
+      <c r="Q415" t="str">
+        <f>_xlfn.CONCAT(Q412," (",ROUND(R412,0),")")</f>
+        <v>9 (15)</v>
+      </c>
+      <c r="S415" t="str">
+        <f>_xlfn.CONCAT(S412," (",ROUND(T412,0),")")</f>
+        <v>2 (11)</v>
+      </c>
+      <c r="U415" t="str">
+        <f>_xlfn.CONCAT(U412," (",ROUND(V412,0),")")</f>
+        <v>2 (13)</v>
+      </c>
+      <c r="W415" t="str">
+        <f>_xlfn.CONCAT(W412," (",ROUND(X412,0),")")</f>
+        <v>8 (40)</v>
+      </c>
+    </row>
+    <row r="416" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="K416" t="s">
+        <v>256</v>
+      </c>
+      <c r="M416" t="s">
+        <v>257</v>
+      </c>
+      <c r="O416" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>273</v>
+      </c>
+      <c r="S416" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="417" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K417" t="s">
+        <v>244</v>
+      </c>
+      <c r="M417" t="s">
+        <v>147</v>
+      </c>
+      <c r="O417" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q417" t="s">
+        <v>276</v>
+      </c>
+      <c r="S417" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="419" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="R419" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="420" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="O420" t="s">
+        <v>272</v>
+      </c>
+      <c r="P420" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="421" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="O421" t="s">
+        <v>275</v>
+      </c>
+      <c r="P421" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q421" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="423" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="L423" t="s">
+        <v>64</v>
+      </c>
+      <c r="M423" t="s">
+        <v>64</v>
+      </c>
+      <c r="N423" t="s">
+        <v>65</v>
+      </c>
+      <c r="O423" t="s">
+        <v>66</v>
+      </c>
+      <c r="P423" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>68</v>
+      </c>
+      <c r="R423" t="s">
+        <v>266</v>
+      </c>
+      <c r="S423" t="s">
+        <v>267</v>
+      </c>
+      <c r="T423" t="s">
+        <v>268</v>
+      </c>
+      <c r="U423" t="s">
+        <v>269</v>
+      </c>
+      <c r="V423" t="s">
+        <v>270</v>
+      </c>
+      <c r="W423" t="s">
+        <v>271</v>
+      </c>
+      <c r="X423" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="424" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="L424">
+        <v>1</v>
+      </c>
+      <c r="M424" t="s">
+        <v>71</v>
+      </c>
+      <c r="N424">
+        <v>94</v>
+      </c>
+      <c r="O424">
+        <v>83.185840707964601</v>
+      </c>
+      <c r="P424">
+        <v>54</v>
+      </c>
+      <c r="Q424">
+        <v>88.524590163934405</v>
+      </c>
+      <c r="R424">
+        <v>16</v>
+      </c>
+      <c r="S424">
+        <v>94.117647058823493</v>
+      </c>
+      <c r="T424">
+        <v>10</v>
+      </c>
+      <c r="U424">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="V424">
+        <v>14</v>
+      </c>
+      <c r="W424">
+        <v>70</v>
+      </c>
+      <c r="X424">
+        <v>0.131281167902289</v>
+      </c>
+    </row>
+    <row r="425" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="L425">
+        <v>2</v>
+      </c>
+      <c r="M425" t="s">
+        <v>72</v>
+      </c>
+      <c r="N425">
+        <v>21</v>
+      </c>
+      <c r="O425">
+        <v>18.5840707964602</v>
+      </c>
+      <c r="P425">
+        <v>9</v>
+      </c>
+      <c r="Q425">
+        <v>14.7540983606557</v>
+      </c>
+      <c r="R425">
+        <v>2</v>
+      </c>
+      <c r="S425">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="T425">
+        <v>2</v>
+      </c>
+      <c r="U425">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="V425">
+        <v>8</v>
+      </c>
+      <c r="W425">
+        <v>40</v>
+      </c>
+      <c r="X425">
+        <v>0.33318315372989699</v>
+      </c>
+    </row>
+    <row r="427" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="O427" t="s">
+        <v>272</v>
+      </c>
+      <c r="P427" t="str">
+        <f>_xlfn.CONCAT(P424," (",ROUND(Q424,0),")")</f>
+        <v>54 (89)</v>
+      </c>
+      <c r="R427" t="str">
+        <f>_xlfn.CONCAT(R424," (",ROUND(S424,0),")")</f>
+        <v>16 (94)</v>
+      </c>
+      <c r="T427" t="str">
+        <f>_xlfn.CONCAT(T424," (",ROUND(U424,0),")")</f>
+        <v>10 (67)</v>
+      </c>
+      <c r="V427" t="str">
+        <f>_xlfn.CONCAT(V424," (",ROUND(W424,0),")")</f>
+        <v>14 (70)</v>
+      </c>
+      <c r="W427">
+        <v>0.131281167902289</v>
+      </c>
+    </row>
+    <row r="428" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="P428" t="str">
+        <f>_xlfn.CONCAT(P425," (",ROUND(Q425,0),")")</f>
+        <v>9 (15)</v>
+      </c>
+      <c r="R428" t="str">
+        <f>_xlfn.CONCAT(R425," (",ROUND(S425,0),")")</f>
+        <v>2 (12)</v>
+      </c>
+      <c r="T428" t="str">
+        <f>_xlfn.CONCAT(T425," (",ROUND(U425,0),")")</f>
+        <v>2 (13)</v>
+      </c>
+      <c r="V428" t="str">
+        <f>_xlfn.CONCAT(V425," (",ROUND(W425,0),")")</f>
+        <v>8 (40)</v>
+      </c>
+      <c r="W428">
+        <v>0.33318315372989699</v>
+      </c>
+    </row>
+    <row r="431" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="P431" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>279</v>
+      </c>
+      <c r="R431" t="s">
+        <v>273</v>
+      </c>
+      <c r="S431" t="s">
+        <v>274</v>
+      </c>
+      <c r="T431">
+        <v>0.131281167902289</v>
+      </c>
+      <c r="V431" t="s">
+        <v>274</v>
+      </c>
+      <c r="W431">
+        <v>0.131281167902289</v>
+      </c>
+    </row>
+    <row r="432" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="P432" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q432" t="s">
+        <v>280</v>
+      </c>
+      <c r="R432" t="s">
+        <v>276</v>
+      </c>
+      <c r="S432" t="s">
+        <v>277</v>
+      </c>
+      <c r="T432">
+        <v>0.33318315372989699</v>
+      </c>
+      <c r="V432" t="s">
+        <v>277</v>
+      </c>
+      <c r="W432">
+        <v>0.33318315372989699</v>
+      </c>
+    </row>
+    <row r="436" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="P436" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q436" t="s">
+        <v>217</v>
+      </c>
+      <c r="R436" t="s">
+        <v>230</v>
+      </c>
+      <c r="S436" t="s">
+        <v>218</v>
+      </c>
+      <c r="T436" t="s">
+        <v>219</v>
+      </c>
+      <c r="U436" t="s">
+        <v>231</v>
+      </c>
+      <c r="V436" t="s">
+        <v>220</v>
+      </c>
+      <c r="W436" t="s">
+        <v>221</v>
+      </c>
+      <c r="X436" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y436" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z436" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA436" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB436" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="437" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O437">
+        <v>1</v>
+      </c>
+      <c r="P437" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q437">
+        <v>34</v>
+      </c>
+      <c r="R437">
+        <v>60</v>
+      </c>
+      <c r="S437">
+        <v>56.6666666666667</v>
+      </c>
+      <c r="T437">
+        <v>4</v>
+      </c>
+      <c r="U437">
+        <v>17</v>
+      </c>
+      <c r="V437">
+        <v>23.529411764705898</v>
+      </c>
+      <c r="W437">
+        <v>3</v>
+      </c>
+      <c r="X437">
+        <v>14</v>
+      </c>
+      <c r="Y437">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="Z437">
+        <v>8</v>
+      </c>
+      <c r="AA437">
+        <v>17</v>
+      </c>
+      <c r="AB437">
+        <v>47.058823529411796</v>
+      </c>
+    </row>
+    <row r="438" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O438">
+        <v>2</v>
+      </c>
+      <c r="P438" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q438">
+        <v>9</v>
+      </c>
+      <c r="R438">
+        <v>61</v>
+      </c>
+      <c r="S438">
+        <v>14.7540983606557</v>
+      </c>
+      <c r="T438">
+        <v>6</v>
+      </c>
+      <c r="U438">
+        <v>17</v>
+      </c>
+      <c r="V438">
+        <v>35.294117647058798</v>
+      </c>
+      <c r="W438">
+        <v>3</v>
+      </c>
+      <c r="X438">
+        <v>15</v>
+      </c>
+      <c r="Y438">
+        <v>20</v>
+      </c>
+      <c r="Z438">
+        <v>6</v>
+      </c>
+      <c r="AA438">
+        <v>20</v>
+      </c>
+      <c r="AB438">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="440" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="Q440" s="5" t="str">
+        <f>_xlfn.CONCAT(Q437,"/",R437," (",ROUND(S437,0),")")</f>
+        <v>34/60 (57)</v>
+      </c>
+      <c r="T440" s="5" t="str">
+        <f>_xlfn.CONCAT(T437,"/",U437," (",ROUND(V437,0),")")</f>
+        <v>4/17 (24)</v>
+      </c>
+      <c r="W440" s="5" t="str">
+        <f>_xlfn.CONCAT(W437,"/",X437," (",ROUND(Y437,0),")")</f>
+        <v>3/14 (21)</v>
+      </c>
+      <c r="Z440" s="5" t="str">
+        <f>_xlfn.CONCAT(Z437,"/",AA437," (",ROUND(AB437,0),")")</f>
+        <v>8/17 (47)</v>
+      </c>
+    </row>
+    <row r="441" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="Q441" s="5" t="str">
+        <f>_xlfn.CONCAT(Q438,"/",R438," (",ROUND(S438,0),")")</f>
+        <v>9/61 (15)</v>
+      </c>
+      <c r="T441" s="5" t="str">
+        <f>_xlfn.CONCAT(T438,"/",U438," (",ROUND(V438,0),")")</f>
+        <v>6/17 (35)</v>
+      </c>
+      <c r="W441" s="5" t="str">
+        <f>_xlfn.CONCAT(W438,"/",X438," (",ROUND(Y438,0),")")</f>
+        <v>3/15 (20)</v>
+      </c>
+      <c r="Z441" s="5" t="str">
+        <f>_xlfn.CONCAT(Z438,"/",AA438," (",ROUND(AB438,0),")")</f>
+        <v>6/20 (30)</v>
+      </c>
+    </row>
+    <row r="447" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="Q447" t="s">
+        <v>281</v>
+      </c>
+      <c r="R447" t="s">
+        <v>240</v>
+      </c>
+      <c r="S447" t="s">
+        <v>239</v>
+      </c>
+      <c r="T447" t="s">
+        <v>282</v>
+      </c>
+      <c r="W447" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z447" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="448" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="Q448" t="s">
+        <v>283</v>
+      </c>
+      <c r="R448" t="s">
+        <v>284</v>
+      </c>
+      <c r="S448" t="s">
+        <v>285</v>
+      </c>
+      <c r="T448" t="s">
+        <v>286</v>
+      </c>
+      <c r="W448" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z448" t="s">
+        <v>286</v>
+      </c>
+    </row>
     <row r="666" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E666" s="3"/>
     </row>

--- a/tablemaker.xlsx
+++ b/tablemaker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537061D4-614D-FA4A-9F9C-A312FBCB6A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8BE7F5-A104-1D47-8ABC-2B6FA2037465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2FB3896E-F88D-7047-98A3-66046D85A977}"/>
+    <workbookView xWindow="5020" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{2FB3896E-F88D-7047-98A3-66046D85A977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="302">
   <si>
     <t>Indication</t>
   </si>
@@ -898,6 +898,51 @@
   </si>
   <si>
     <t>6/20 (30)</t>
+  </si>
+  <si>
+    <t>49 (45)</t>
+  </si>
+  <si>
+    <t>34 (57)</t>
+  </si>
+  <si>
+    <t>15 (31)</t>
+  </si>
+  <si>
+    <t>24 (21)</t>
+  </si>
+  <si>
+    <t>15 (29)</t>
+  </si>
+  <si>
+    <t>2 (18)</t>
+  </si>
+  <si>
+    <t>3 (27)</t>
+  </si>
+  <si>
+    <t>9 (47)</t>
+  </si>
+  <si>
+    <t>2 (22)</t>
+  </si>
+  <si>
+    <t>2 (20)</t>
+  </si>
+  <si>
+    <t>14 (88)</t>
+  </si>
+  <si>
+    <t>20 (77)</t>
+  </si>
+  <si>
+    <t>15 (79)</t>
+  </si>
+  <si>
+    <t>2 (8)</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -907,7 +952,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -934,6 +979,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDEDEDE"/>
+      <name val="Monaco"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -955,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -965,6 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2079,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294E0594-3744-E74C-86C9-C5E21F32E816}">
   <dimension ref="A4:AJ1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N430" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q447" sqref="Q447:T448"/>
+    <sheetView tabSelected="1" topLeftCell="L513" workbookViewId="0">
+      <selection activeCell="N533" sqref="N533:S543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11888,6 +11940,2261 @@
         <v>286</v>
       </c>
     </row>
+    <row r="452" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="R452" t="s">
+        <v>0</v>
+      </c>
+      <c r="S452" t="s">
+        <v>1</v>
+      </c>
+      <c r="T452" t="s">
+        <v>2</v>
+      </c>
+      <c r="U452" t="s">
+        <v>3</v>
+      </c>
+      <c r="V452" t="s">
+        <v>4</v>
+      </c>
+      <c r="W452" t="s">
+        <v>5</v>
+      </c>
+      <c r="X452" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y452" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z452" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA452" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB452" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC452" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD452" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q453">
+        <v>1</v>
+      </c>
+      <c r="R453" t="s">
+        <v>13</v>
+      </c>
+      <c r="S453">
+        <v>49</v>
+      </c>
+      <c r="T453">
+        <v>45.370370370370402</v>
+      </c>
+      <c r="U453">
+        <v>34</v>
+      </c>
+      <c r="V453">
+        <v>56.6666666666667</v>
+      </c>
+      <c r="W453">
+        <v>15</v>
+      </c>
+      <c r="X453">
+        <v>31.25</v>
+      </c>
+      <c r="Y453">
+        <v>24</v>
+      </c>
+      <c r="Z453">
+        <v>21.2389380530973</v>
+      </c>
+      <c r="AA453">
+        <v>9</v>
+      </c>
+      <c r="AB453">
+        <v>14.7540983606557</v>
+      </c>
+      <c r="AC453">
+        <v>15</v>
+      </c>
+      <c r="AD453">
+        <v>28.846153846153801</v>
+      </c>
+    </row>
+    <row r="454" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q454">
+        <v>2</v>
+      </c>
+      <c r="R454" t="s">
+        <v>14</v>
+      </c>
+      <c r="S454">
+        <v>3</v>
+      </c>
+      <c r="T454">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="U454">
+        <v>2</v>
+      </c>
+      <c r="V454">
+        <v>18.181818181818201</v>
+      </c>
+      <c r="W454">
+        <v>1</v>
+      </c>
+      <c r="X454">
+        <v>5.5555555555555598</v>
+      </c>
+      <c r="Y454">
+        <v>12</v>
+      </c>
+      <c r="Z454">
+        <v>40</v>
+      </c>
+      <c r="AA454">
+        <v>3</v>
+      </c>
+      <c r="AB454">
+        <v>27.272727272727298</v>
+      </c>
+      <c r="AC454">
+        <v>9</v>
+      </c>
+      <c r="AD454">
+        <v>47.368421052631597</v>
+      </c>
+    </row>
+    <row r="455" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q455">
+        <v>3</v>
+      </c>
+      <c r="R455" t="s">
+        <v>15</v>
+      </c>
+      <c r="S455">
+        <v>2</v>
+      </c>
+      <c r="T455">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="U455">
+        <v>0</v>
+      </c>
+      <c r="V455">
+        <v>0</v>
+      </c>
+      <c r="W455">
+        <v>2</v>
+      </c>
+      <c r="X455">
+        <v>50</v>
+      </c>
+      <c r="Y455">
+        <v>2</v>
+      </c>
+      <c r="Z455">
+        <v>20</v>
+      </c>
+      <c r="AA455">
+        <v>1</v>
+      </c>
+      <c r="AB455">
+        <v>20</v>
+      </c>
+      <c r="AC455">
+        <v>1</v>
+      </c>
+      <c r="AD455">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="456" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q456">
+        <v>4</v>
+      </c>
+      <c r="R456" t="s">
+        <v>16</v>
+      </c>
+      <c r="S456">
+        <v>1</v>
+      </c>
+      <c r="T456">
+        <v>25</v>
+      </c>
+      <c r="U456">
+        <v>1</v>
+      </c>
+      <c r="V456">
+        <v>50</v>
+      </c>
+      <c r="W456">
+        <v>0</v>
+      </c>
+      <c r="X456">
+        <v>0</v>
+      </c>
+      <c r="Y456">
+        <v>1</v>
+      </c>
+      <c r="Z456">
+        <v>20</v>
+      </c>
+      <c r="AA456">
+        <v>1</v>
+      </c>
+      <c r="AB456">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AC456">
+        <v>0</v>
+      </c>
+      <c r="AD456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q457">
+        <v>5</v>
+      </c>
+      <c r="R457" t="s">
+        <v>17</v>
+      </c>
+      <c r="S457">
+        <v>0</v>
+      </c>
+      <c r="T457">
+        <v>0</v>
+      </c>
+      <c r="U457">
+        <v>0</v>
+      </c>
+      <c r="V457">
+        <v>0</v>
+      </c>
+      <c r="W457">
+        <v>0</v>
+      </c>
+      <c r="X457">
+        <v>0</v>
+      </c>
+      <c r="Y457">
+        <v>1</v>
+      </c>
+      <c r="Z457">
+        <v>25</v>
+      </c>
+      <c r="AA457">
+        <v>0</v>
+      </c>
+      <c r="AB457">
+        <v>0</v>
+      </c>
+      <c r="AC457">
+        <v>1</v>
+      </c>
+      <c r="AD457">
+        <v>33.3333333333333</v>
+      </c>
+    </row>
+    <row r="458" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q458">
+        <v>6</v>
+      </c>
+      <c r="R458" t="s">
+        <v>18</v>
+      </c>
+      <c r="S458">
+        <v>14</v>
+      </c>
+      <c r="T458">
+        <v>87.5</v>
+      </c>
+      <c r="U458">
+        <v>14</v>
+      </c>
+      <c r="V458">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="W458">
+        <v>0</v>
+      </c>
+      <c r="X458">
+        <v>0</v>
+      </c>
+      <c r="Y458">
+        <v>0</v>
+      </c>
+      <c r="Z458">
+        <v>0</v>
+      </c>
+      <c r="AA458">
+        <v>0</v>
+      </c>
+      <c r="AB458">
+        <v>0</v>
+      </c>
+      <c r="AC458">
+        <v>0</v>
+      </c>
+      <c r="AD458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q459">
+        <v>7</v>
+      </c>
+      <c r="R459" t="s">
+        <v>19</v>
+      </c>
+      <c r="S459">
+        <v>4</v>
+      </c>
+      <c r="T459">
+        <v>100</v>
+      </c>
+      <c r="U459">
+        <v>1</v>
+      </c>
+      <c r="V459">
+        <v>100</v>
+      </c>
+      <c r="W459">
+        <v>3</v>
+      </c>
+      <c r="X459">
+        <v>100</v>
+      </c>
+      <c r="Y459">
+        <v>0</v>
+      </c>
+      <c r="Z459">
+        <v>0</v>
+      </c>
+      <c r="AA459">
+        <v>0</v>
+      </c>
+      <c r="AB459">
+        <v>0</v>
+      </c>
+      <c r="AC459">
+        <v>0</v>
+      </c>
+      <c r="AD459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q460">
+        <v>8</v>
+      </c>
+      <c r="R460" t="s">
+        <v>20</v>
+      </c>
+      <c r="S460">
+        <v>20</v>
+      </c>
+      <c r="T460">
+        <v>76.923076923076906</v>
+      </c>
+      <c r="U460">
+        <v>15</v>
+      </c>
+      <c r="V460">
+        <v>78.947368421052602</v>
+      </c>
+      <c r="W460">
+        <v>5</v>
+      </c>
+      <c r="X460">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Y460">
+        <v>2</v>
+      </c>
+      <c r="Z460">
+        <v>7.6923076923076898</v>
+      </c>
+      <c r="AA460">
+        <v>2</v>
+      </c>
+      <c r="AB460">
+        <v>10.526315789473699</v>
+      </c>
+      <c r="AC460">
+        <v>0</v>
+      </c>
+      <c r="AD460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q461">
+        <v>9</v>
+      </c>
+      <c r="R461" t="s">
+        <v>21</v>
+      </c>
+      <c r="S461">
+        <v>5</v>
+      </c>
+      <c r="T461">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="U461">
+        <v>1</v>
+      </c>
+      <c r="V461">
+        <v>50</v>
+      </c>
+      <c r="W461">
+        <v>4</v>
+      </c>
+      <c r="X461">
+        <v>80</v>
+      </c>
+      <c r="Y461">
+        <v>1</v>
+      </c>
+      <c r="Z461">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="AA461">
+        <v>0</v>
+      </c>
+      <c r="AB461">
+        <v>0</v>
+      </c>
+      <c r="AC461">
+        <v>1</v>
+      </c>
+      <c r="AD461">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="462" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q462">
+        <v>10</v>
+      </c>
+      <c r="R462" t="s">
+        <v>22</v>
+      </c>
+      <c r="S462">
+        <v>0</v>
+      </c>
+      <c r="T462">
+        <v>0</v>
+      </c>
+      <c r="U462">
+        <v>0</v>
+      </c>
+      <c r="V462">
+        <v>0</v>
+      </c>
+      <c r="W462">
+        <v>0</v>
+      </c>
+      <c r="X462">
+        <v>0</v>
+      </c>
+      <c r="Y462">
+        <v>2</v>
+      </c>
+      <c r="Z462">
+        <v>40</v>
+      </c>
+      <c r="AA462">
+        <v>2</v>
+      </c>
+      <c r="AB462">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="AC462">
+        <v>0</v>
+      </c>
+      <c r="AD462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q463">
+        <v>11</v>
+      </c>
+      <c r="R463" t="s">
+        <v>23</v>
+      </c>
+      <c r="S463">
+        <v>0</v>
+      </c>
+      <c r="T463">
+        <v>0</v>
+      </c>
+      <c r="U463">
+        <v>0</v>
+      </c>
+      <c r="V463">
+        <v>0</v>
+      </c>
+      <c r="W463">
+        <v>0</v>
+      </c>
+      <c r="X463">
+        <v>0</v>
+      </c>
+      <c r="Y463">
+        <v>3</v>
+      </c>
+      <c r="Z463">
+        <v>50</v>
+      </c>
+      <c r="AA463">
+        <v>0</v>
+      </c>
+      <c r="AB463">
+        <v>0</v>
+      </c>
+      <c r="AC463">
+        <v>3</v>
+      </c>
+      <c r="AD463">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="465" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="S465" t="str">
+        <f>_xlfn.CONCAT(S453," (",ROUND(T453,0),")")</f>
+        <v>49 (45)</v>
+      </c>
+      <c r="U465" t="str">
+        <f>_xlfn.CONCAT(U453," (",ROUND(V453,0),")")</f>
+        <v>34 (57)</v>
+      </c>
+      <c r="W465" t="str">
+        <f>_xlfn.CONCAT(W453," (",ROUND(X453,0),")")</f>
+        <v>15 (31)</v>
+      </c>
+      <c r="Y465" t="str">
+        <f>_xlfn.CONCAT(Y453," (",ROUND(Z453,0),")")</f>
+        <v>24 (21)</v>
+      </c>
+      <c r="AA465" t="str">
+        <f>_xlfn.CONCAT(AA453," (",ROUND(AB453,0),")")</f>
+        <v>9 (15)</v>
+      </c>
+      <c r="AC465" t="str">
+        <f>_xlfn.CONCAT(AC453," (",ROUND(AD453,0),")")</f>
+        <v>15 (29)</v>
+      </c>
+    </row>
+    <row r="466" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="S466" t="str">
+        <f t="shared" ref="S466:U475" si="44">_xlfn.CONCAT(S454," (",ROUND(T454,0),")")</f>
+        <v>3 (10)</v>
+      </c>
+      <c r="U466" t="str">
+        <f t="shared" si="44"/>
+        <v>2 (18)</v>
+      </c>
+      <c r="W466" t="str">
+        <f t="shared" ref="W466" si="45">_xlfn.CONCAT(W454," (",ROUND(X454,0),")")</f>
+        <v>1 (6)</v>
+      </c>
+      <c r="Y466" t="str">
+        <f t="shared" ref="Y466" si="46">_xlfn.CONCAT(Y454," (",ROUND(Z454,0),")")</f>
+        <v>12 (40)</v>
+      </c>
+      <c r="AA466" t="str">
+        <f t="shared" ref="AA466" si="47">_xlfn.CONCAT(AA454," (",ROUND(AB454,0),")")</f>
+        <v>3 (27)</v>
+      </c>
+      <c r="AC466" t="str">
+        <f t="shared" ref="AC466" si="48">_xlfn.CONCAT(AC454," (",ROUND(AD454,0),")")</f>
+        <v>9 (47)</v>
+      </c>
+    </row>
+    <row r="467" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="S467" t="str">
+        <f t="shared" si="44"/>
+        <v>2 (22)</v>
+      </c>
+      <c r="U467" t="str">
+        <f t="shared" si="44"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="W467" t="str">
+        <f t="shared" ref="W467" si="49">_xlfn.CONCAT(W455," (",ROUND(X455,0),")")</f>
+        <v>2 (50)</v>
+      </c>
+      <c r="Y467" t="str">
+        <f t="shared" ref="Y467" si="50">_xlfn.CONCAT(Y455," (",ROUND(Z455,0),")")</f>
+        <v>2 (20)</v>
+      </c>
+      <c r="AA467" t="str">
+        <f t="shared" ref="AA467" si="51">_xlfn.CONCAT(AA455," (",ROUND(AB455,0),")")</f>
+        <v>1 (20)</v>
+      </c>
+      <c r="AC467" t="str">
+        <f t="shared" ref="AC467" si="52">_xlfn.CONCAT(AC455," (",ROUND(AD455,0),")")</f>
+        <v>1 (20)</v>
+      </c>
+    </row>
+    <row r="468" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="S468" t="str">
+        <f t="shared" si="44"/>
+        <v>1 (25)</v>
+      </c>
+      <c r="U468" t="str">
+        <f t="shared" si="44"/>
+        <v>1 (50)</v>
+      </c>
+      <c r="W468" t="str">
+        <f t="shared" ref="W468" si="53">_xlfn.CONCAT(W456," (",ROUND(X456,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="Y468" t="str">
+        <f t="shared" ref="Y468" si="54">_xlfn.CONCAT(Y456," (",ROUND(Z456,0),")")</f>
+        <v>1 (20)</v>
+      </c>
+      <c r="AA468" t="str">
+        <f t="shared" ref="AA468" si="55">_xlfn.CONCAT(AA456," (",ROUND(AB456,0),")")</f>
+        <v>1 (33)</v>
+      </c>
+      <c r="AC468" t="str">
+        <f t="shared" ref="AC468" si="56">_xlfn.CONCAT(AC456," (",ROUND(AD456,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="469" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="S469" t="str">
+        <f t="shared" si="44"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="U469" t="str">
+        <f t="shared" si="44"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="W469" t="str">
+        <f t="shared" ref="W469" si="57">_xlfn.CONCAT(W457," (",ROUND(X457,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="Y469" t="str">
+        <f t="shared" ref="Y469" si="58">_xlfn.CONCAT(Y457," (",ROUND(Z457,0),")")</f>
+        <v>1 (25)</v>
+      </c>
+      <c r="AA469" t="str">
+        <f t="shared" ref="AA469" si="59">_xlfn.CONCAT(AA457," (",ROUND(AB457,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AC469" t="str">
+        <f t="shared" ref="AC469" si="60">_xlfn.CONCAT(AC457," (",ROUND(AD457,0),")")</f>
+        <v>1 (33)</v>
+      </c>
+    </row>
+    <row r="470" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="S470" t="str">
+        <f t="shared" si="44"/>
+        <v>14 (88)</v>
+      </c>
+      <c r="U470" t="str">
+        <f t="shared" si="44"/>
+        <v>14 (93)</v>
+      </c>
+      <c r="W470" t="str">
+        <f t="shared" ref="W470" si="61">_xlfn.CONCAT(W458," (",ROUND(X458,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="Y470" t="str">
+        <f t="shared" ref="Y470" si="62">_xlfn.CONCAT(Y458," (",ROUND(Z458,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AA470" t="str">
+        <f t="shared" ref="AA470" si="63">_xlfn.CONCAT(AA458," (",ROUND(AB458,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AC470" t="str">
+        <f t="shared" ref="AC470" si="64">_xlfn.CONCAT(AC458," (",ROUND(AD458,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="471" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="S471" t="str">
+        <f t="shared" si="44"/>
+        <v>4 (100)</v>
+      </c>
+      <c r="U471" t="str">
+        <f t="shared" si="44"/>
+        <v>1 (100)</v>
+      </c>
+      <c r="W471" t="str">
+        <f t="shared" ref="W471" si="65">_xlfn.CONCAT(W459," (",ROUND(X459,0),")")</f>
+        <v>3 (100)</v>
+      </c>
+      <c r="Y471" t="str">
+        <f t="shared" ref="Y471" si="66">_xlfn.CONCAT(Y459," (",ROUND(Z459,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AA471" t="str">
+        <f t="shared" ref="AA471" si="67">_xlfn.CONCAT(AA459," (",ROUND(AB459,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AC471" t="str">
+        <f t="shared" ref="AC471" si="68">_xlfn.CONCAT(AC459," (",ROUND(AD459,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="472" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="S472" t="str">
+        <f t="shared" si="44"/>
+        <v>20 (77)</v>
+      </c>
+      <c r="U472" t="str">
+        <f t="shared" si="44"/>
+        <v>15 (79)</v>
+      </c>
+      <c r="W472" t="str">
+        <f t="shared" ref="W472" si="69">_xlfn.CONCAT(W460," (",ROUND(X460,0),")")</f>
+        <v>5 (71)</v>
+      </c>
+      <c r="Y472" t="str">
+        <f t="shared" ref="Y472" si="70">_xlfn.CONCAT(Y460," (",ROUND(Z460,0),")")</f>
+        <v>2 (8)</v>
+      </c>
+      <c r="AA472" t="str">
+        <f t="shared" ref="AA472" si="71">_xlfn.CONCAT(AA460," (",ROUND(AB460,0),")")</f>
+        <v>2 (11)</v>
+      </c>
+      <c r="AC472" t="str">
+        <f t="shared" ref="AC472" si="72">_xlfn.CONCAT(AC460," (",ROUND(AD460,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="473" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="S473" t="str">
+        <f t="shared" si="44"/>
+        <v>5 (71)</v>
+      </c>
+      <c r="U473" t="str">
+        <f t="shared" si="44"/>
+        <v>1 (50)</v>
+      </c>
+      <c r="W473" t="str">
+        <f t="shared" ref="W473" si="73">_xlfn.CONCAT(W461," (",ROUND(X461,0),")")</f>
+        <v>4 (80)</v>
+      </c>
+      <c r="Y473" t="str">
+        <f t="shared" ref="Y473" si="74">_xlfn.CONCAT(Y461," (",ROUND(Z461,0),")")</f>
+        <v>1 (14)</v>
+      </c>
+      <c r="AA473" t="str">
+        <f t="shared" ref="AA473" si="75">_xlfn.CONCAT(AA461," (",ROUND(AB461,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AC473" t="str">
+        <f t="shared" ref="AC473" si="76">_xlfn.CONCAT(AC461," (",ROUND(AD461,0),")")</f>
+        <v>1 (20)</v>
+      </c>
+    </row>
+    <row r="474" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="S474" t="str">
+        <f t="shared" si="44"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="U474" t="str">
+        <f t="shared" si="44"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="W474" t="str">
+        <f t="shared" ref="W474" si="77">_xlfn.CONCAT(W462," (",ROUND(X462,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="Y474" t="str">
+        <f t="shared" ref="Y474" si="78">_xlfn.CONCAT(Y462," (",ROUND(Z462,0),")")</f>
+        <v>2 (40)</v>
+      </c>
+      <c r="AA474" t="str">
+        <f t="shared" ref="AA474" si="79">_xlfn.CONCAT(AA462," (",ROUND(AB462,0),")")</f>
+        <v>2 (67)</v>
+      </c>
+      <c r="AC474" t="str">
+        <f t="shared" ref="AC474" si="80">_xlfn.CONCAT(AC462," (",ROUND(AD462,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="475" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="S475" t="str">
+        <f t="shared" si="44"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="U475" t="str">
+        <f t="shared" si="44"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="W475" t="str">
+        <f t="shared" ref="W475" si="81">_xlfn.CONCAT(W463," (",ROUND(X463,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="Y475" t="str">
+        <f t="shared" ref="Y475" si="82">_xlfn.CONCAT(Y463," (",ROUND(Z463,0),")")</f>
+        <v>3 (50)</v>
+      </c>
+      <c r="AA475" t="str">
+        <f t="shared" ref="AA475" si="83">_xlfn.CONCAT(AA463," (",ROUND(AB463,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AC475" t="str">
+        <f t="shared" ref="AC475" si="84">_xlfn.CONCAT(AC463," (",ROUND(AD463,0),")")</f>
+        <v>3 (60)</v>
+      </c>
+    </row>
+    <row r="477" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="R477" t="s">
+        <v>287</v>
+      </c>
+      <c r="S477" t="s">
+        <v>288</v>
+      </c>
+      <c r="T477" t="s">
+        <v>289</v>
+      </c>
+      <c r="U477" t="s">
+        <v>290</v>
+      </c>
+      <c r="V477" t="s">
+        <v>147</v>
+      </c>
+      <c r="W477" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="478" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="R478" t="s">
+        <v>126</v>
+      </c>
+      <c r="S478" t="s">
+        <v>292</v>
+      </c>
+      <c r="T478" t="s">
+        <v>156</v>
+      </c>
+      <c r="U478" t="s">
+        <v>149</v>
+      </c>
+      <c r="V478" t="s">
+        <v>293</v>
+      </c>
+      <c r="W478" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="479" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="R479" t="s">
+        <v>295</v>
+      </c>
+      <c r="S479" t="s">
+        <v>122</v>
+      </c>
+      <c r="T479" t="s">
+        <v>250</v>
+      </c>
+      <c r="U479" t="s">
+        <v>296</v>
+      </c>
+      <c r="V479" t="s">
+        <v>132</v>
+      </c>
+      <c r="W479" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="480" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="R480" t="s">
+        <v>134</v>
+      </c>
+      <c r="S480" t="s">
+        <v>133</v>
+      </c>
+      <c r="T480" t="s">
+        <v>122</v>
+      </c>
+      <c r="U480" t="s">
+        <v>132</v>
+      </c>
+      <c r="V480" t="s">
+        <v>137</v>
+      </c>
+      <c r="W480" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="481" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R481" t="s">
+        <v>122</v>
+      </c>
+      <c r="S481" t="s">
+        <v>122</v>
+      </c>
+      <c r="T481" t="s">
+        <v>122</v>
+      </c>
+      <c r="U481" t="s">
+        <v>134</v>
+      </c>
+      <c r="V481" t="s">
+        <v>122</v>
+      </c>
+      <c r="W481" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="482" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R482" t="s">
+        <v>297</v>
+      </c>
+      <c r="S482" t="s">
+        <v>136</v>
+      </c>
+      <c r="T482" t="s">
+        <v>122</v>
+      </c>
+      <c r="U482" t="s">
+        <v>122</v>
+      </c>
+      <c r="V482" t="s">
+        <v>122</v>
+      </c>
+      <c r="W482" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="483" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R483" t="s">
+        <v>138</v>
+      </c>
+      <c r="S483" t="s">
+        <v>139</v>
+      </c>
+      <c r="T483" t="s">
+        <v>140</v>
+      </c>
+      <c r="U483" t="s">
+        <v>122</v>
+      </c>
+      <c r="V483" t="s">
+        <v>122</v>
+      </c>
+      <c r="W483" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="484" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R484" t="s">
+        <v>298</v>
+      </c>
+      <c r="S484" t="s">
+        <v>299</v>
+      </c>
+      <c r="T484" t="s">
+        <v>143</v>
+      </c>
+      <c r="U484" t="s">
+        <v>300</v>
+      </c>
+      <c r="V484" t="s">
+        <v>275</v>
+      </c>
+      <c r="W484" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="485" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R485" t="s">
+        <v>143</v>
+      </c>
+      <c r="S485" t="s">
+        <v>133</v>
+      </c>
+      <c r="T485" t="s">
+        <v>199</v>
+      </c>
+      <c r="U485" t="s">
+        <v>127</v>
+      </c>
+      <c r="V485" t="s">
+        <v>122</v>
+      </c>
+      <c r="W485" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="486" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R486" t="s">
+        <v>122</v>
+      </c>
+      <c r="S486" t="s">
+        <v>122</v>
+      </c>
+      <c r="T486" t="s">
+        <v>122</v>
+      </c>
+      <c r="U486" t="s">
+        <v>158</v>
+      </c>
+      <c r="V486" t="s">
+        <v>159</v>
+      </c>
+      <c r="W486" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="487" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R487" t="s">
+        <v>122</v>
+      </c>
+      <c r="S487" t="s">
+        <v>122</v>
+      </c>
+      <c r="T487" t="s">
+        <v>122</v>
+      </c>
+      <c r="U487" t="s">
+        <v>160</v>
+      </c>
+      <c r="V487" t="s">
+        <v>122</v>
+      </c>
+      <c r="W487" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="492" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R492" t="s">
+        <v>0</v>
+      </c>
+      <c r="S492" t="s">
+        <v>217</v>
+      </c>
+      <c r="T492" t="s">
+        <v>230</v>
+      </c>
+      <c r="U492" t="s">
+        <v>218</v>
+      </c>
+      <c r="V492" t="s">
+        <v>219</v>
+      </c>
+      <c r="W492" t="s">
+        <v>231</v>
+      </c>
+      <c r="X492" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y492" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z492" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA492" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB492" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC492" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD492" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="493" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R493">
+        <v>1</v>
+      </c>
+      <c r="S493" t="s">
+        <v>225</v>
+      </c>
+      <c r="T493">
+        <v>34</v>
+      </c>
+      <c r="U493">
+        <v>60</v>
+      </c>
+      <c r="V493">
+        <v>56.6666666666667</v>
+      </c>
+      <c r="W493">
+        <v>4</v>
+      </c>
+      <c r="X493">
+        <v>17</v>
+      </c>
+      <c r="Y493">
+        <v>23.529411764705898</v>
+      </c>
+      <c r="Z493">
+        <v>3</v>
+      </c>
+      <c r="AA493">
+        <v>14</v>
+      </c>
+      <c r="AB493">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="AC493">
+        <v>8</v>
+      </c>
+      <c r="AD493">
+        <v>17</v>
+      </c>
+      <c r="AE493">
+        <v>47.058823529411796</v>
+      </c>
+    </row>
+    <row r="494" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R494">
+        <v>2</v>
+      </c>
+      <c r="S494" t="s">
+        <v>226</v>
+      </c>
+      <c r="T494">
+        <v>9</v>
+      </c>
+      <c r="U494">
+        <v>61</v>
+      </c>
+      <c r="V494">
+        <v>14.7540983606557</v>
+      </c>
+      <c r="W494">
+        <v>6</v>
+      </c>
+      <c r="X494">
+        <v>17</v>
+      </c>
+      <c r="Y494">
+        <v>35.294117647058798</v>
+      </c>
+      <c r="Z494">
+        <v>3</v>
+      </c>
+      <c r="AA494">
+        <v>15</v>
+      </c>
+      <c r="AB494">
+        <v>20</v>
+      </c>
+      <c r="AC494">
+        <v>6</v>
+      </c>
+      <c r="AD494">
+        <v>20</v>
+      </c>
+      <c r="AE494">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="496" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="T496" s="5" t="str">
+        <f>_xlfn.CONCAT(T493,"/",U493," (",ROUND(V493,0),")")</f>
+        <v>34/60 (57)</v>
+      </c>
+      <c r="W496" s="5" t="str">
+        <f>_xlfn.CONCAT(W493,"/",X493," (",ROUND(Y493,0),")")</f>
+        <v>4/17 (24)</v>
+      </c>
+      <c r="Z496" s="5" t="str">
+        <f>_xlfn.CONCAT(Z493,"/",AA493," (",ROUND(AB493,0),")")</f>
+        <v>3/14 (21)</v>
+      </c>
+      <c r="AC496" s="5" t="str">
+        <f>_xlfn.CONCAT(AC493,"/",AD493," (",ROUND(AE493,0),")")</f>
+        <v>8/17 (47)</v>
+      </c>
+    </row>
+    <row r="497" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="T497" s="5" t="str">
+        <f>_xlfn.CONCAT(T494,"/",U494," (",ROUND(V494,0),")")</f>
+        <v>9/61 (15)</v>
+      </c>
+      <c r="W497" s="5" t="str">
+        <f>_xlfn.CONCAT(W494,"/",X494," (",ROUND(Y494,0),")")</f>
+        <v>6/17 (35)</v>
+      </c>
+      <c r="Z497" s="5" t="str">
+        <f>_xlfn.CONCAT(Z494,"/",AA494," (",ROUND(AB494,0),")")</f>
+        <v>3/15 (20)</v>
+      </c>
+      <c r="AC497" s="5" t="str">
+        <f>_xlfn.CONCAT(AC494,"/",AD494," (",ROUND(AE494,0),")")</f>
+        <v>6/20 (30)</v>
+      </c>
+    </row>
+    <row r="501" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="T501" t="s">
+        <v>281</v>
+      </c>
+      <c r="U501" t="s">
+        <v>240</v>
+      </c>
+      <c r="V501" t="s">
+        <v>239</v>
+      </c>
+      <c r="W501" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="502" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="T502" t="s">
+        <v>283</v>
+      </c>
+      <c r="U502" t="s">
+        <v>284</v>
+      </c>
+      <c r="V502" t="s">
+        <v>285</v>
+      </c>
+      <c r="W502" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="506" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S506" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T506" t="s">
+        <v>1</v>
+      </c>
+      <c r="U506" t="s">
+        <v>2</v>
+      </c>
+      <c r="V506" t="s">
+        <v>3</v>
+      </c>
+      <c r="W506" t="s">
+        <v>4</v>
+      </c>
+      <c r="X506" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y506" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z506" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA506" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB506" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC506" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD506" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE506" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S507" s="7">
+        <v>1</v>
+      </c>
+      <c r="T507" t="s">
+        <v>14</v>
+      </c>
+      <c r="U507">
+        <v>3</v>
+      </c>
+      <c r="V507">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="W507">
+        <v>2</v>
+      </c>
+      <c r="X507">
+        <v>18.181818181818201</v>
+      </c>
+      <c r="Y507">
+        <v>1</v>
+      </c>
+      <c r="Z507">
+        <v>5.5555555555555598</v>
+      </c>
+      <c r="AA507">
+        <v>12</v>
+      </c>
+      <c r="AB507">
+        <v>40</v>
+      </c>
+      <c r="AC507">
+        <v>3</v>
+      </c>
+      <c r="AD507">
+        <v>27.272727272727298</v>
+      </c>
+      <c r="AE507">
+        <v>9</v>
+      </c>
+      <c r="AF507">
+        <v>47.368421052631597</v>
+      </c>
+    </row>
+    <row r="508" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S508" s="7">
+        <v>2</v>
+      </c>
+      <c r="T508" t="s">
+        <v>15</v>
+      </c>
+      <c r="U508">
+        <v>2</v>
+      </c>
+      <c r="V508">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="W508">
+        <v>0</v>
+      </c>
+      <c r="X508">
+        <v>0</v>
+      </c>
+      <c r="Y508">
+        <v>2</v>
+      </c>
+      <c r="Z508">
+        <v>50</v>
+      </c>
+      <c r="AA508">
+        <v>2</v>
+      </c>
+      <c r="AB508">
+        <v>20</v>
+      </c>
+      <c r="AC508">
+        <v>1</v>
+      </c>
+      <c r="AD508">
+        <v>20</v>
+      </c>
+      <c r="AE508">
+        <v>1</v>
+      </c>
+      <c r="AF508">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="509" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S509" s="7">
+        <v>3</v>
+      </c>
+      <c r="T509" t="s">
+        <v>16</v>
+      </c>
+      <c r="U509">
+        <v>1</v>
+      </c>
+      <c r="V509">
+        <v>25</v>
+      </c>
+      <c r="W509">
+        <v>1</v>
+      </c>
+      <c r="X509">
+        <v>50</v>
+      </c>
+      <c r="Y509">
+        <v>0</v>
+      </c>
+      <c r="Z509">
+        <v>0</v>
+      </c>
+      <c r="AA509">
+        <v>1</v>
+      </c>
+      <c r="AB509">
+        <v>20</v>
+      </c>
+      <c r="AC509">
+        <v>1</v>
+      </c>
+      <c r="AD509">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AE509">
+        <v>0</v>
+      </c>
+      <c r="AF509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S510" s="7">
+        <v>4</v>
+      </c>
+      <c r="T510" t="s">
+        <v>17</v>
+      </c>
+      <c r="U510">
+        <v>0</v>
+      </c>
+      <c r="V510">
+        <v>0</v>
+      </c>
+      <c r="W510">
+        <v>0</v>
+      </c>
+      <c r="X510">
+        <v>0</v>
+      </c>
+      <c r="Y510">
+        <v>0</v>
+      </c>
+      <c r="Z510">
+        <v>0</v>
+      </c>
+      <c r="AA510">
+        <v>1</v>
+      </c>
+      <c r="AB510">
+        <v>25</v>
+      </c>
+      <c r="AC510">
+        <v>0</v>
+      </c>
+      <c r="AD510">
+        <v>0</v>
+      </c>
+      <c r="AE510">
+        <v>1</v>
+      </c>
+      <c r="AF510">
+        <v>33.3333333333333</v>
+      </c>
+    </row>
+    <row r="511" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S511" s="7">
+        <v>5</v>
+      </c>
+      <c r="T511" t="s">
+        <v>18</v>
+      </c>
+      <c r="U511">
+        <v>14</v>
+      </c>
+      <c r="V511">
+        <v>87.5</v>
+      </c>
+      <c r="W511">
+        <v>14</v>
+      </c>
+      <c r="X511">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="Y511">
+        <v>0</v>
+      </c>
+      <c r="Z511">
+        <v>0</v>
+      </c>
+      <c r="AA511">
+        <v>0</v>
+      </c>
+      <c r="AB511">
+        <v>0</v>
+      </c>
+      <c r="AC511">
+        <v>0</v>
+      </c>
+      <c r="AD511">
+        <v>0</v>
+      </c>
+      <c r="AE511">
+        <v>0</v>
+      </c>
+      <c r="AF511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S512" s="7">
+        <v>6</v>
+      </c>
+      <c r="T512" t="s">
+        <v>19</v>
+      </c>
+      <c r="U512">
+        <v>4</v>
+      </c>
+      <c r="V512">
+        <v>100</v>
+      </c>
+      <c r="W512">
+        <v>1</v>
+      </c>
+      <c r="X512">
+        <v>100</v>
+      </c>
+      <c r="Y512">
+        <v>3</v>
+      </c>
+      <c r="Z512">
+        <v>100</v>
+      </c>
+      <c r="AA512">
+        <v>0</v>
+      </c>
+      <c r="AB512">
+        <v>0</v>
+      </c>
+      <c r="AC512">
+        <v>0</v>
+      </c>
+      <c r="AD512">
+        <v>0</v>
+      </c>
+      <c r="AE512">
+        <v>0</v>
+      </c>
+      <c r="AF512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S513" s="7">
+        <v>7</v>
+      </c>
+      <c r="T513" t="s">
+        <v>20</v>
+      </c>
+      <c r="U513">
+        <v>20</v>
+      </c>
+      <c r="V513">
+        <v>76.923076923076906</v>
+      </c>
+      <c r="W513">
+        <v>15</v>
+      </c>
+      <c r="X513">
+        <v>78.947368421052602</v>
+      </c>
+      <c r="Y513">
+        <v>5</v>
+      </c>
+      <c r="Z513">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="AA513">
+        <v>2</v>
+      </c>
+      <c r="AB513">
+        <v>7.6923076923076898</v>
+      </c>
+      <c r="AC513">
+        <v>2</v>
+      </c>
+      <c r="AD513">
+        <v>10.526315789473699</v>
+      </c>
+      <c r="AE513">
+        <v>0</v>
+      </c>
+      <c r="AF513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S514" s="7">
+        <v>8</v>
+      </c>
+      <c r="T514" t="s">
+        <v>21</v>
+      </c>
+      <c r="U514">
+        <v>5</v>
+      </c>
+      <c r="V514">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="W514">
+        <v>1</v>
+      </c>
+      <c r="X514">
+        <v>50</v>
+      </c>
+      <c r="Y514">
+        <v>4</v>
+      </c>
+      <c r="Z514">
+        <v>80</v>
+      </c>
+      <c r="AA514">
+        <v>1</v>
+      </c>
+      <c r="AB514">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="AC514">
+        <v>0</v>
+      </c>
+      <c r="AD514">
+        <v>0</v>
+      </c>
+      <c r="AE514">
+        <v>1</v>
+      </c>
+      <c r="AF514">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="515" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S515" s="7">
+        <v>9</v>
+      </c>
+      <c r="T515" t="s">
+        <v>22</v>
+      </c>
+      <c r="U515">
+        <v>0</v>
+      </c>
+      <c r="V515">
+        <v>0</v>
+      </c>
+      <c r="W515">
+        <v>0</v>
+      </c>
+      <c r="X515">
+        <v>0</v>
+      </c>
+      <c r="Y515">
+        <v>0</v>
+      </c>
+      <c r="Z515">
+        <v>0</v>
+      </c>
+      <c r="AA515">
+        <v>2</v>
+      </c>
+      <c r="AB515">
+        <v>40</v>
+      </c>
+      <c r="AC515">
+        <v>2</v>
+      </c>
+      <c r="AD515">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="AE515">
+        <v>0</v>
+      </c>
+      <c r="AF515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S516" s="7">
+        <v>10</v>
+      </c>
+      <c r="T516" t="s">
+        <v>23</v>
+      </c>
+      <c r="U516">
+        <v>0</v>
+      </c>
+      <c r="V516">
+        <v>0</v>
+      </c>
+      <c r="W516">
+        <v>0</v>
+      </c>
+      <c r="X516">
+        <v>0</v>
+      </c>
+      <c r="Y516">
+        <v>0</v>
+      </c>
+      <c r="Z516">
+        <v>0</v>
+      </c>
+      <c r="AA516">
+        <v>3</v>
+      </c>
+      <c r="AB516">
+        <v>50</v>
+      </c>
+      <c r="AC516">
+        <v>0</v>
+      </c>
+      <c r="AD516">
+        <v>0</v>
+      </c>
+      <c r="AE516">
+        <v>3</v>
+      </c>
+      <c r="AF516">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="517" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S517" s="7">
+        <v>11</v>
+      </c>
+      <c r="T517" t="s">
+        <v>13</v>
+      </c>
+      <c r="U517">
+        <v>49</v>
+      </c>
+      <c r="V517">
+        <v>45.370370370370402</v>
+      </c>
+      <c r="W517">
+        <v>34</v>
+      </c>
+      <c r="X517">
+        <v>56.6666666666667</v>
+      </c>
+      <c r="Y517">
+        <v>15</v>
+      </c>
+      <c r="Z517">
+        <v>31.25</v>
+      </c>
+      <c r="AA517">
+        <v>24</v>
+      </c>
+      <c r="AB517">
+        <v>21.2389380530973</v>
+      </c>
+      <c r="AC517">
+        <v>9</v>
+      </c>
+      <c r="AD517">
+        <v>14.7540983606557</v>
+      </c>
+      <c r="AE517">
+        <v>15</v>
+      </c>
+      <c r="AF517">
+        <v>28.846153846153801</v>
+      </c>
+    </row>
+    <row r="519" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="U519" t="str">
+        <f t="shared" ref="U519:W529" si="85">_xlfn.CONCAT(U507," (",ROUND(V507,0),")")</f>
+        <v>3 (10)</v>
+      </c>
+      <c r="W519" t="str">
+        <f t="shared" si="85"/>
+        <v>2 (18)</v>
+      </c>
+      <c r="Y519" t="str">
+        <f t="shared" ref="Y519" si="86">_xlfn.CONCAT(Y507," (",ROUND(Z507,0),")")</f>
+        <v>1 (6)</v>
+      </c>
+      <c r="AA519" t="str">
+        <f t="shared" ref="AA519" si="87">_xlfn.CONCAT(AA507," (",ROUND(AB507,0),")")</f>
+        <v>12 (40)</v>
+      </c>
+      <c r="AC519" t="str">
+        <f t="shared" ref="AC519" si="88">_xlfn.CONCAT(AC507," (",ROUND(AD507,0),")")</f>
+        <v>3 (27)</v>
+      </c>
+      <c r="AE519" t="str">
+        <f t="shared" ref="AE519" si="89">_xlfn.CONCAT(AE507," (",ROUND(AF507,0),")")</f>
+        <v>9 (47)</v>
+      </c>
+    </row>
+    <row r="520" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="U520" t="str">
+        <f t="shared" si="85"/>
+        <v>2 (22)</v>
+      </c>
+      <c r="W520" t="str">
+        <f t="shared" si="85"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="Y520" t="str">
+        <f t="shared" ref="Y520" si="90">_xlfn.CONCAT(Y508," (",ROUND(Z508,0),")")</f>
+        <v>2 (50)</v>
+      </c>
+      <c r="AA520" t="str">
+        <f t="shared" ref="AA520" si="91">_xlfn.CONCAT(AA508," (",ROUND(AB508,0),")")</f>
+        <v>2 (20)</v>
+      </c>
+      <c r="AC520" t="str">
+        <f t="shared" ref="AC520" si="92">_xlfn.CONCAT(AC508," (",ROUND(AD508,0),")")</f>
+        <v>1 (20)</v>
+      </c>
+      <c r="AE520" t="str">
+        <f t="shared" ref="AE520" si="93">_xlfn.CONCAT(AE508," (",ROUND(AF508,0),")")</f>
+        <v>1 (20)</v>
+      </c>
+    </row>
+    <row r="521" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="U521" t="str">
+        <f t="shared" si="85"/>
+        <v>1 (25)</v>
+      </c>
+      <c r="W521" t="str">
+        <f t="shared" si="85"/>
+        <v>1 (50)</v>
+      </c>
+      <c r="Y521" t="str">
+        <f t="shared" ref="Y521" si="94">_xlfn.CONCAT(Y509," (",ROUND(Z509,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AA521" t="str">
+        <f t="shared" ref="AA521" si="95">_xlfn.CONCAT(AA509," (",ROUND(AB509,0),")")</f>
+        <v>1 (20)</v>
+      </c>
+      <c r="AC521" t="str">
+        <f t="shared" ref="AC521" si="96">_xlfn.CONCAT(AC509," (",ROUND(AD509,0),")")</f>
+        <v>1 (33)</v>
+      </c>
+      <c r="AE521" t="str">
+        <f t="shared" ref="AE521" si="97">_xlfn.CONCAT(AE509," (",ROUND(AF509,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="522" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="U522" t="str">
+        <f t="shared" si="85"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="W522" t="str">
+        <f t="shared" si="85"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="Y522" t="str">
+        <f t="shared" ref="Y522" si="98">_xlfn.CONCAT(Y510," (",ROUND(Z510,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AA522" t="str">
+        <f t="shared" ref="AA522" si="99">_xlfn.CONCAT(AA510," (",ROUND(AB510,0),")")</f>
+        <v>1 (25)</v>
+      </c>
+      <c r="AC522" t="str">
+        <f t="shared" ref="AC522" si="100">_xlfn.CONCAT(AC510," (",ROUND(AD510,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AE522" t="str">
+        <f t="shared" ref="AE522" si="101">_xlfn.CONCAT(AE510," (",ROUND(AF510,0),")")</f>
+        <v>1 (33)</v>
+      </c>
+    </row>
+    <row r="523" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="U523" t="str">
+        <f t="shared" si="85"/>
+        <v>14 (88)</v>
+      </c>
+      <c r="W523" t="str">
+        <f t="shared" si="85"/>
+        <v>14 (93)</v>
+      </c>
+      <c r="Y523" t="str">
+        <f t="shared" ref="Y523" si="102">_xlfn.CONCAT(Y511," (",ROUND(Z511,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AA523" t="str">
+        <f t="shared" ref="AA523" si="103">_xlfn.CONCAT(AA511," (",ROUND(AB511,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AC523" t="str">
+        <f t="shared" ref="AC523" si="104">_xlfn.CONCAT(AC511," (",ROUND(AD511,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AE523" t="str">
+        <f t="shared" ref="AE523" si="105">_xlfn.CONCAT(AE511," (",ROUND(AF511,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="524" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="U524" t="str">
+        <f t="shared" si="85"/>
+        <v>4 (100)</v>
+      </c>
+      <c r="W524" t="str">
+        <f t="shared" si="85"/>
+        <v>1 (100)</v>
+      </c>
+      <c r="Y524" t="str">
+        <f t="shared" ref="Y524" si="106">_xlfn.CONCAT(Y512," (",ROUND(Z512,0),")")</f>
+        <v>3 (100)</v>
+      </c>
+      <c r="AA524" t="str">
+        <f t="shared" ref="AA524" si="107">_xlfn.CONCAT(AA512," (",ROUND(AB512,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AC524" t="str">
+        <f t="shared" ref="AC524" si="108">_xlfn.CONCAT(AC512," (",ROUND(AD512,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AE524" t="str">
+        <f t="shared" ref="AE524" si="109">_xlfn.CONCAT(AE512," (",ROUND(AF512,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="525" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="U525" t="str">
+        <f t="shared" si="85"/>
+        <v>20 (77)</v>
+      </c>
+      <c r="W525" t="str">
+        <f t="shared" si="85"/>
+        <v>15 (79)</v>
+      </c>
+      <c r="Y525" t="str">
+        <f t="shared" ref="Y525" si="110">_xlfn.CONCAT(Y513," (",ROUND(Z513,0),")")</f>
+        <v>5 (71)</v>
+      </c>
+      <c r="AA525" t="str">
+        <f t="shared" ref="AA525" si="111">_xlfn.CONCAT(AA513," (",ROUND(AB513,0),")")</f>
+        <v>2 (8)</v>
+      </c>
+      <c r="AC525" t="str">
+        <f t="shared" ref="AC525" si="112">_xlfn.CONCAT(AC513," (",ROUND(AD513,0),")")</f>
+        <v>2 (11)</v>
+      </c>
+      <c r="AE525" t="str">
+        <f t="shared" ref="AE525" si="113">_xlfn.CONCAT(AE513," (",ROUND(AF513,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="526" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="U526" t="str">
+        <f t="shared" si="85"/>
+        <v>5 (71)</v>
+      </c>
+      <c r="W526" t="str">
+        <f t="shared" si="85"/>
+        <v>1 (50)</v>
+      </c>
+      <c r="Y526" t="str">
+        <f t="shared" ref="Y526" si="114">_xlfn.CONCAT(Y514," (",ROUND(Z514,0),")")</f>
+        <v>4 (80)</v>
+      </c>
+      <c r="AA526" t="str">
+        <f t="shared" ref="AA526" si="115">_xlfn.CONCAT(AA514," (",ROUND(AB514,0),")")</f>
+        <v>1 (14)</v>
+      </c>
+      <c r="AC526" t="str">
+        <f t="shared" ref="AC526" si="116">_xlfn.CONCAT(AC514," (",ROUND(AD514,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AE526" t="str">
+        <f t="shared" ref="AE526" si="117">_xlfn.CONCAT(AE514," (",ROUND(AF514,0),")")</f>
+        <v>1 (20)</v>
+      </c>
+    </row>
+    <row r="527" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="U527" t="str">
+        <f t="shared" si="85"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="W527" t="str">
+        <f t="shared" si="85"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="Y527" t="str">
+        <f t="shared" ref="Y527" si="118">_xlfn.CONCAT(Y515," (",ROUND(Z515,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AA527" t="str">
+        <f t="shared" ref="AA527" si="119">_xlfn.CONCAT(AA515," (",ROUND(AB515,0),")")</f>
+        <v>2 (40)</v>
+      </c>
+      <c r="AC527" t="str">
+        <f t="shared" ref="AC527" si="120">_xlfn.CONCAT(AC515," (",ROUND(AD515,0),")")</f>
+        <v>2 (67)</v>
+      </c>
+      <c r="AE527" t="str">
+        <f t="shared" ref="AE527" si="121">_xlfn.CONCAT(AE515," (",ROUND(AF515,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+    </row>
+    <row r="528" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="U528" t="str">
+        <f t="shared" si="85"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="W528" t="str">
+        <f t="shared" si="85"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="Y528" t="str">
+        <f t="shared" ref="Y528" si="122">_xlfn.CONCAT(Y516," (",ROUND(Z516,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AA528" t="str">
+        <f t="shared" ref="AA528" si="123">_xlfn.CONCAT(AA516," (",ROUND(AB516,0),")")</f>
+        <v>3 (50)</v>
+      </c>
+      <c r="AC528" t="str">
+        <f t="shared" ref="AC528" si="124">_xlfn.CONCAT(AC516," (",ROUND(AD516,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="AE528" t="str">
+        <f t="shared" ref="AE528" si="125">_xlfn.CONCAT(AE516," (",ROUND(AF516,0),")")</f>
+        <v>3 (60)</v>
+      </c>
+    </row>
+    <row r="529" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="U529" t="str">
+        <f t="shared" si="85"/>
+        <v>49 (45)</v>
+      </c>
+      <c r="W529" t="str">
+        <f t="shared" si="85"/>
+        <v>34 (57)</v>
+      </c>
+      <c r="Y529" t="str">
+        <f t="shared" ref="Y529" si="126">_xlfn.CONCAT(Y517," (",ROUND(Z517,0),")")</f>
+        <v>15 (31)</v>
+      </c>
+      <c r="AA529" t="str">
+        <f t="shared" ref="AA529" si="127">_xlfn.CONCAT(AA517," (",ROUND(AB517,0),")")</f>
+        <v>24 (21)</v>
+      </c>
+      <c r="AC529" t="str">
+        <f t="shared" ref="AC529" si="128">_xlfn.CONCAT(AC517," (",ROUND(AD517,0),")")</f>
+        <v>9 (15)</v>
+      </c>
+      <c r="AE529" t="str">
+        <f t="shared" ref="AE529" si="129">_xlfn.CONCAT(AE517," (",ROUND(AF517,0),")")</f>
+        <v>15 (29)</v>
+      </c>
+    </row>
+    <row r="533" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N533" t="s">
+        <v>301</v>
+      </c>
+      <c r="O533" t="s">
+        <v>292</v>
+      </c>
+      <c r="P533" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q533" t="s">
+        <v>149</v>
+      </c>
+      <c r="R533" t="s">
+        <v>293</v>
+      </c>
+      <c r="S533" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="534" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N534" t="s">
+        <v>295</v>
+      </c>
+      <c r="O534" t="s">
+        <v>122</v>
+      </c>
+      <c r="P534" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q534" t="s">
+        <v>296</v>
+      </c>
+      <c r="R534" t="s">
+        <v>132</v>
+      </c>
+      <c r="S534" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="535" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N535" t="s">
+        <v>134</v>
+      </c>
+      <c r="O535" t="s">
+        <v>133</v>
+      </c>
+      <c r="P535" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q535" t="s">
+        <v>132</v>
+      </c>
+      <c r="R535" t="s">
+        <v>137</v>
+      </c>
+      <c r="S535" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="536" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N536" t="s">
+        <v>122</v>
+      </c>
+      <c r="O536" t="s">
+        <v>122</v>
+      </c>
+      <c r="P536" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q536" t="s">
+        <v>134</v>
+      </c>
+      <c r="R536" t="s">
+        <v>122</v>
+      </c>
+      <c r="S536" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="537" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N537" t="s">
+        <v>297</v>
+      </c>
+      <c r="O537" t="s">
+        <v>136</v>
+      </c>
+      <c r="P537" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q537" t="s">
+        <v>122</v>
+      </c>
+      <c r="R537" t="s">
+        <v>122</v>
+      </c>
+      <c r="S537" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="538" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N538" t="s">
+        <v>138</v>
+      </c>
+      <c r="O538" t="s">
+        <v>139</v>
+      </c>
+      <c r="P538" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q538" t="s">
+        <v>122</v>
+      </c>
+      <c r="R538" t="s">
+        <v>122</v>
+      </c>
+      <c r="S538" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="539" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N539" t="s">
+        <v>298</v>
+      </c>
+      <c r="O539" t="s">
+        <v>299</v>
+      </c>
+      <c r="P539" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q539" t="s">
+        <v>300</v>
+      </c>
+      <c r="R539" t="s">
+        <v>275</v>
+      </c>
+      <c r="S539" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="540" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N540" t="s">
+        <v>143</v>
+      </c>
+      <c r="O540" t="s">
+        <v>133</v>
+      </c>
+      <c r="P540" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q540" t="s">
+        <v>127</v>
+      </c>
+      <c r="R540" t="s">
+        <v>122</v>
+      </c>
+      <c r="S540" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="541" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N541" t="s">
+        <v>122</v>
+      </c>
+      <c r="O541" t="s">
+        <v>122</v>
+      </c>
+      <c r="P541" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q541" t="s">
+        <v>158</v>
+      </c>
+      <c r="R541" t="s">
+        <v>159</v>
+      </c>
+      <c r="S541" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="542" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N542" t="s">
+        <v>122</v>
+      </c>
+      <c r="O542" t="s">
+        <v>122</v>
+      </c>
+      <c r="P542" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q542" t="s">
+        <v>160</v>
+      </c>
+      <c r="R542" t="s">
+        <v>122</v>
+      </c>
+      <c r="S542" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="543" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N543" t="s">
+        <v>287</v>
+      </c>
+      <c r="O543" t="s">
+        <v>288</v>
+      </c>
+      <c r="P543" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q543" t="s">
+        <v>290</v>
+      </c>
+      <c r="R543" t="s">
+        <v>147</v>
+      </c>
+      <c r="S543" t="s">
+        <v>291</v>
+      </c>
+    </row>
     <row r="666" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E666" s="3"/>
     </row>

--- a/tablemaker.xlsx
+++ b/tablemaker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8BE7F5-A104-1D47-8ABC-2B6FA2037465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9F5E82-26BA-D04F-8449-C7B0B834DFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{2FB3896E-F88D-7047-98A3-66046D85A977}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{2FB3896E-F88D-7047-98A3-66046D85A977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="302">
   <si>
     <t>Indication</t>
   </si>
@@ -2131,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294E0594-3744-E74C-86C9-C5E21F32E816}">
   <dimension ref="A4:AJ1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L513" workbookViewId="0">
-      <selection activeCell="N533" sqref="N533:S543"/>
+    <sheetView tabSelected="1" topLeftCell="S528" workbookViewId="0">
+      <selection activeCell="X556" sqref="X556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13949,7 +13949,7 @@
         <v>3 (60)</v>
       </c>
     </row>
-    <row r="529" spans="14:31" x14ac:dyDescent="0.2">
+    <row r="529" spans="14:35" x14ac:dyDescent="0.2">
       <c r="U529" t="str">
         <f t="shared" si="85"/>
         <v>49 (45)</v>
@@ -13975,7 +13975,7 @@
         <v>15 (29)</v>
       </c>
     </row>
-    <row r="533" spans="14:31" x14ac:dyDescent="0.2">
+    <row r="533" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N533" t="s">
         <v>301</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="534" spans="14:31" x14ac:dyDescent="0.2">
+    <row r="534" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N534" t="s">
         <v>295</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="535" spans="14:31" x14ac:dyDescent="0.2">
+    <row r="535" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N535" t="s">
         <v>134</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="536" spans="14:31" x14ac:dyDescent="0.2">
+    <row r="536" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N536" t="s">
         <v>122</v>
       </c>
@@ -14054,8 +14054,47 @@
       <c r="S536" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="537" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="W536" t="s">
+        <v>0</v>
+      </c>
+      <c r="X536" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y536" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z536" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA536" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB536" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC536" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD536" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE536" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF536" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG536" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH536" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI536" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="537" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N537" t="s">
         <v>297</v>
       </c>
@@ -14074,8 +14113,50 @@
       <c r="S537" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="538" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="V537">
+        <v>1</v>
+      </c>
+      <c r="W537" t="s">
+        <v>13</v>
+      </c>
+      <c r="X537">
+        <v>49</v>
+      </c>
+      <c r="Y537">
+        <v>45.370370370370402</v>
+      </c>
+      <c r="Z537">
+        <v>34</v>
+      </c>
+      <c r="AA537">
+        <v>56.6666666666667</v>
+      </c>
+      <c r="AB537">
+        <v>15</v>
+      </c>
+      <c r="AC537">
+        <v>31.25</v>
+      </c>
+      <c r="AD537">
+        <v>24</v>
+      </c>
+      <c r="AE537">
+        <v>21.2389380530973</v>
+      </c>
+      <c r="AF537">
+        <v>9</v>
+      </c>
+      <c r="AG537">
+        <v>14.7540983606557</v>
+      </c>
+      <c r="AH537">
+        <v>15</v>
+      </c>
+      <c r="AI537">
+        <v>28.846153846153801</v>
+      </c>
+    </row>
+    <row r="538" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N538" t="s">
         <v>138</v>
       </c>
@@ -14094,8 +14175,50 @@
       <c r="S538" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="539" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="V538">
+        <v>2</v>
+      </c>
+      <c r="W538" t="s">
+        <v>14</v>
+      </c>
+      <c r="X538">
+        <v>3</v>
+      </c>
+      <c r="Y538">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="Z538">
+        <v>2</v>
+      </c>
+      <c r="AA538">
+        <v>18.181818181818201</v>
+      </c>
+      <c r="AB538">
+        <v>1</v>
+      </c>
+      <c r="AC538">
+        <v>5.5555555555555598</v>
+      </c>
+      <c r="AD538">
+        <v>12</v>
+      </c>
+      <c r="AE538">
+        <v>40</v>
+      </c>
+      <c r="AF538">
+        <v>3</v>
+      </c>
+      <c r="AG538">
+        <v>27.272727272727298</v>
+      </c>
+      <c r="AH538">
+        <v>9</v>
+      </c>
+      <c r="AI538">
+        <v>47.368421052631597</v>
+      </c>
+    </row>
+    <row r="539" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N539" t="s">
         <v>298</v>
       </c>
@@ -14114,8 +14237,50 @@
       <c r="S539" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="540" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="V539">
+        <v>3</v>
+      </c>
+      <c r="W539" t="s">
+        <v>15</v>
+      </c>
+      <c r="X539">
+        <v>2</v>
+      </c>
+      <c r="Y539">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="Z539">
+        <v>0</v>
+      </c>
+      <c r="AA539">
+        <v>0</v>
+      </c>
+      <c r="AB539">
+        <v>2</v>
+      </c>
+      <c r="AC539">
+        <v>50</v>
+      </c>
+      <c r="AD539">
+        <v>2</v>
+      </c>
+      <c r="AE539">
+        <v>20</v>
+      </c>
+      <c r="AF539">
+        <v>1</v>
+      </c>
+      <c r="AG539">
+        <v>20</v>
+      </c>
+      <c r="AH539">
+        <v>1</v>
+      </c>
+      <c r="AI539">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="540" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N540" t="s">
         <v>143</v>
       </c>
@@ -14134,8 +14299,50 @@
       <c r="S540" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="541" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="V540">
+        <v>4</v>
+      </c>
+      <c r="W540" t="s">
+        <v>16</v>
+      </c>
+      <c r="X540">
+        <v>1</v>
+      </c>
+      <c r="Y540">
+        <v>25</v>
+      </c>
+      <c r="Z540">
+        <v>1</v>
+      </c>
+      <c r="AA540">
+        <v>50</v>
+      </c>
+      <c r="AB540">
+        <v>0</v>
+      </c>
+      <c r="AC540">
+        <v>0</v>
+      </c>
+      <c r="AD540">
+        <v>1</v>
+      </c>
+      <c r="AE540">
+        <v>20</v>
+      </c>
+      <c r="AF540">
+        <v>1</v>
+      </c>
+      <c r="AG540">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AH540">
+        <v>0</v>
+      </c>
+      <c r="AI540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N541" t="s">
         <v>122</v>
       </c>
@@ -14154,8 +14361,50 @@
       <c r="S541" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="542" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="V541">
+        <v>5</v>
+      </c>
+      <c r="W541" t="s">
+        <v>17</v>
+      </c>
+      <c r="X541">
+        <v>0</v>
+      </c>
+      <c r="Y541">
+        <v>0</v>
+      </c>
+      <c r="Z541">
+        <v>0</v>
+      </c>
+      <c r="AA541">
+        <v>0</v>
+      </c>
+      <c r="AB541">
+        <v>0</v>
+      </c>
+      <c r="AC541">
+        <v>0</v>
+      </c>
+      <c r="AD541">
+        <v>1</v>
+      </c>
+      <c r="AE541">
+        <v>25</v>
+      </c>
+      <c r="AF541">
+        <v>0</v>
+      </c>
+      <c r="AG541">
+        <v>0</v>
+      </c>
+      <c r="AH541">
+        <v>1</v>
+      </c>
+      <c r="AI541">
+        <v>33.3333333333333</v>
+      </c>
+    </row>
+    <row r="542" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N542" t="s">
         <v>122</v>
       </c>
@@ -14174,8 +14423,50 @@
       <c r="S542" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="543" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="V542">
+        <v>6</v>
+      </c>
+      <c r="W542" t="s">
+        <v>18</v>
+      </c>
+      <c r="X542">
+        <v>14</v>
+      </c>
+      <c r="Y542">
+        <v>87.5</v>
+      </c>
+      <c r="Z542">
+        <v>14</v>
+      </c>
+      <c r="AA542">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="AB542">
+        <v>0</v>
+      </c>
+      <c r="AC542">
+        <v>0</v>
+      </c>
+      <c r="AD542">
+        <v>0</v>
+      </c>
+      <c r="AE542">
+        <v>0</v>
+      </c>
+      <c r="AF542">
+        <v>0</v>
+      </c>
+      <c r="AG542">
+        <v>0</v>
+      </c>
+      <c r="AH542">
+        <v>0</v>
+      </c>
+      <c r="AI542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N543" t="s">
         <v>287</v>
       </c>
@@ -14193,6 +14484,476 @@
       </c>
       <c r="S543" t="s">
         <v>291</v>
+      </c>
+      <c r="V543">
+        <v>7</v>
+      </c>
+      <c r="W543" t="s">
+        <v>19</v>
+      </c>
+      <c r="X543">
+        <v>4</v>
+      </c>
+      <c r="Y543">
+        <v>100</v>
+      </c>
+      <c r="Z543">
+        <v>1</v>
+      </c>
+      <c r="AA543">
+        <v>100</v>
+      </c>
+      <c r="AB543">
+        <v>3</v>
+      </c>
+      <c r="AC543">
+        <v>100</v>
+      </c>
+      <c r="AD543">
+        <v>0</v>
+      </c>
+      <c r="AE543">
+        <v>0</v>
+      </c>
+      <c r="AF543">
+        <v>0</v>
+      </c>
+      <c r="AG543">
+        <v>0</v>
+      </c>
+      <c r="AH543">
+        <v>0</v>
+      </c>
+      <c r="AI543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="14:35" x14ac:dyDescent="0.2">
+      <c r="V544">
+        <v>8</v>
+      </c>
+      <c r="W544" t="s">
+        <v>20</v>
+      </c>
+      <c r="X544">
+        <v>20</v>
+      </c>
+      <c r="Y544">
+        <v>76.923076923076906</v>
+      </c>
+      <c r="Z544">
+        <v>15</v>
+      </c>
+      <c r="AA544">
+        <v>78.947368421052602</v>
+      </c>
+      <c r="AB544">
+        <v>5</v>
+      </c>
+      <c r="AC544">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="AD544">
+        <v>2</v>
+      </c>
+      <c r="AE544">
+        <v>7.6923076923076898</v>
+      </c>
+      <c r="AF544">
+        <v>2</v>
+      </c>
+      <c r="AG544">
+        <v>10.526315789473699</v>
+      </c>
+      <c r="AH544">
+        <v>0</v>
+      </c>
+      <c r="AI544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="V545">
+        <v>9</v>
+      </c>
+      <c r="W545" t="s">
+        <v>21</v>
+      </c>
+      <c r="X545">
+        <v>5</v>
+      </c>
+      <c r="Y545">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Z545">
+        <v>1</v>
+      </c>
+      <c r="AA545">
+        <v>50</v>
+      </c>
+      <c r="AB545">
+        <v>4</v>
+      </c>
+      <c r="AC545">
+        <v>80</v>
+      </c>
+      <c r="AD545">
+        <v>1</v>
+      </c>
+      <c r="AE545">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="AF545">
+        <v>0</v>
+      </c>
+      <c r="AG545">
+        <v>0</v>
+      </c>
+      <c r="AH545">
+        <v>1</v>
+      </c>
+      <c r="AI545">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="546" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="V546">
+        <v>10</v>
+      </c>
+      <c r="W546" t="s">
+        <v>22</v>
+      </c>
+      <c r="X546">
+        <v>0</v>
+      </c>
+      <c r="Y546">
+        <v>0</v>
+      </c>
+      <c r="Z546">
+        <v>0</v>
+      </c>
+      <c r="AA546">
+        <v>0</v>
+      </c>
+      <c r="AB546">
+        <v>0</v>
+      </c>
+      <c r="AC546">
+        <v>0</v>
+      </c>
+      <c r="AD546">
+        <v>2</v>
+      </c>
+      <c r="AE546">
+        <v>40</v>
+      </c>
+      <c r="AF546">
+        <v>2</v>
+      </c>
+      <c r="AG546">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="AH546">
+        <v>0</v>
+      </c>
+      <c r="AI546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="V547">
+        <v>11</v>
+      </c>
+      <c r="W547" t="s">
+        <v>23</v>
+      </c>
+      <c r="X547">
+        <v>0</v>
+      </c>
+      <c r="Y547">
+        <v>0</v>
+      </c>
+      <c r="Z547">
+        <v>0</v>
+      </c>
+      <c r="AA547">
+        <v>0</v>
+      </c>
+      <c r="AB547">
+        <v>0</v>
+      </c>
+      <c r="AC547">
+        <v>0</v>
+      </c>
+      <c r="AD547">
+        <v>3</v>
+      </c>
+      <c r="AE547">
+        <v>50</v>
+      </c>
+      <c r="AF547">
+        <v>0</v>
+      </c>
+      <c r="AG547">
+        <v>0</v>
+      </c>
+      <c r="AH547">
+        <v>3</v>
+      </c>
+      <c r="AI547">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="551" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="W551" t="s">
+        <v>0</v>
+      </c>
+      <c r="X551" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y551" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z551" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA551" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB551" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC551" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD551" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE551" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF551" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG551" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH551" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI551" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="552" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="V552">
+        <v>1</v>
+      </c>
+      <c r="W552" t="s">
+        <v>225</v>
+      </c>
+      <c r="X552">
+        <v>34</v>
+      </c>
+      <c r="Y552">
+        <v>60</v>
+      </c>
+      <c r="Z552">
+        <v>56.6666666666667</v>
+      </c>
+      <c r="AA552">
+        <v>4</v>
+      </c>
+      <c r="AB552">
+        <v>17</v>
+      </c>
+      <c r="AC552">
+        <v>23.529411764705898</v>
+      </c>
+      <c r="AD552">
+        <v>3</v>
+      </c>
+      <c r="AE552">
+        <v>15</v>
+      </c>
+      <c r="AF552">
+        <v>20</v>
+      </c>
+      <c r="AG552">
+        <v>8</v>
+      </c>
+      <c r="AH552">
+        <v>16</v>
+      </c>
+      <c r="AI552">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="553" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="V553">
+        <v>2</v>
+      </c>
+      <c r="W553" t="s">
+        <v>226</v>
+      </c>
+      <c r="X553">
+        <v>9</v>
+      </c>
+      <c r="Y553">
+        <v>61</v>
+      </c>
+      <c r="Z553">
+        <v>14.7540983606557</v>
+      </c>
+      <c r="AA553">
+        <v>6</v>
+      </c>
+      <c r="AB553">
+        <v>17</v>
+      </c>
+      <c r="AC553">
+        <v>35.294117647058798</v>
+      </c>
+      <c r="AD553">
+        <v>4</v>
+      </c>
+      <c r="AE553">
+        <v>16</v>
+      </c>
+      <c r="AF553">
+        <v>25</v>
+      </c>
+      <c r="AG553">
+        <v>5</v>
+      </c>
+      <c r="AH553">
+        <v>19</v>
+      </c>
+      <c r="AI553">
+        <v>26.315789473684202</v>
+      </c>
+    </row>
+    <row r="555" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="V555" t="s">
+        <v>64</v>
+      </c>
+      <c r="W555" t="s">
+        <v>64</v>
+      </c>
+      <c r="X555" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y555" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z555" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA555" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB555" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC555" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD555" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE555" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF555" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG555" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH555" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="556" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="V556">
+        <v>1</v>
+      </c>
+      <c r="W556" t="s">
+        <v>71</v>
+      </c>
+      <c r="X556">
+        <v>94</v>
+      </c>
+      <c r="Y556">
+        <v>83.185840707964601</v>
+      </c>
+      <c r="Z556">
+        <v>54</v>
+      </c>
+      <c r="AA556">
+        <v>88.524590163934405</v>
+      </c>
+      <c r="AB556">
+        <v>16</v>
+      </c>
+      <c r="AC556">
+        <v>94.117647058823493</v>
+      </c>
+      <c r="AD556">
+        <v>10</v>
+      </c>
+      <c r="AE556">
+        <v>62.5</v>
+      </c>
+      <c r="AF556">
+        <v>14</v>
+      </c>
+      <c r="AG556">
+        <v>73.684210526315795</v>
+      </c>
+      <c r="AH556">
+        <v>0.131281167902289</v>
+      </c>
+    </row>
+    <row r="557" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="V557">
+        <v>2</v>
+      </c>
+      <c r="W557" t="s">
+        <v>72</v>
+      </c>
+      <c r="X557">
+        <v>21</v>
+      </c>
+      <c r="Y557">
+        <v>18.5840707964602</v>
+      </c>
+      <c r="Z557">
+        <v>9</v>
+      </c>
+      <c r="AA557">
+        <v>14.7540983606557</v>
+      </c>
+      <c r="AB557">
+        <v>2</v>
+      </c>
+      <c r="AC557">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="AD557">
+        <v>3</v>
+      </c>
+      <c r="AE557">
+        <v>18.75</v>
+      </c>
+      <c r="AF557">
+        <v>7</v>
+      </c>
+      <c r="AG557">
+        <v>36.842105263157897</v>
+      </c>
+      <c r="AH557">
+        <v>0.33318315372989699</v>
       </c>
     </row>
     <row r="666" spans="5:5" x14ac:dyDescent="0.2">
